--- a/python_api_test_qianchendai/test_data/test_case.xlsx
+++ b/python_api_test_qianchendai/test_data/test_case.xlsx
@@ -1,27 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540" activeTab="2"/>
+    <workbookView activeTab="2" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12540" windowWidth="28125"/>
   </bookViews>
   <sheets>
-    <sheet name="register" sheetId="1" r:id="rId1"/>
-    <sheet name="login" sheetId="2" r:id="rId2"/>
-    <sheet name="recharge" sheetId="3" r:id="rId3"/>
-    <sheet name="withdraw" sheetId="4" r:id="rId4"/>
-    <sheet name="list" sheetId="5" r:id="rId5"/>
-    <sheet name="add" sheetId="6" r:id="rId6"/>
-    <sheet name="audit" sheetId="7" r:id="rId7"/>
-    <sheet name="bidLoan" sheetId="8" r:id="rId8"/>
+    <sheet name="register" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="login" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="recharge" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="withdraw" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="list" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="add" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="audit" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="bidLoan" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <definedNames/>
+  <calcPr calcId="144525" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="238">
   <si>
     <t>case_id</t>
   </si>
@@ -283,9 +283,6 @@
     <t>{"mobilephone":"13201236231","pwd":"XM1234567890"}</t>
   </si>
   <si>
-    <t>用例说明</t>
-  </si>
-  <si>
     <t>{"mobilephone":"${normal_name}","pwd":"123456"}</t>
   </si>
   <si>
@@ -296,15 +293,18 @@
   </si>
   <si>
     <t>{"mobilephone":"${normal_name}","amount":"100"}</t>
-  </si>
-  <si>
-    <t>{"status":1,"code":"10001","data":{"id":102109,"regname":"小蜜蜂","pwd":"E10ADC3949BA59ABBE56E057F20F883E","mobilephone":"13201231230","leaveamount":"100.00","type":"1","regtime":"2019-07-17 15:54:46.0"},"msg":"充值成功"}</t>
   </si>
   <si>
     <t>1.member 表对应记录的 leaveAmount余额增加
 2.financeLog表新增一条流水记录</t>
   </si>
   <si>
+    <t>{"status":1,"code":"10001","data":{"id":102109,"regname":"小蜜蜂","pwd":"E10ADC3949BA59ABBE56E057F20F883E","mobilephone":"13201231230","leaveamount":"1900.00","type":"1","regtime":"2019-07-17 15:54:46.0"},"msg":"充值成功"}</t>
+  </si>
+  <si>
+    <t>{"status":1,"code":"10001","data":{"id":102109,"regname":"小蜜蜂","pwd":"E10ADC3949BA59ABBE56E057F20F883E","mobilephone":"13201231230","leaveamount":"100.00","type":"1","regtime":"2019-07-17 15:54:46.0"},"msg":"充值成功"}</t>
+  </si>
+  <si>
     <t>手机号未注册</t>
   </si>
   <si>
@@ -381,6 +381,9 @@
   </si>
   <si>
     <t>api_name</t>
+  </si>
+  <si>
+    <t>用例说明</t>
   </si>
   <si>
     <t>登录</t>
@@ -739,6 +742,9 @@
   </si>
   <si>
     <t>直接跟新状态到"还款中"</t>
+  </si>
+  <si>
+    <t>{"status":1,"code":"10001","data":{"id":102109,"regname":"小蜜蜂","pwd":"E10ADC3949BA59ABBE56E057F20F883E","mobilephone":"13201231230","leaveamount":"2000.00","type":"1","regtime":"2019-07-17 15:54:46.0"},"msg":"充值成功"}</t>
   </si>
 </sst>
 </file>
@@ -746,220 +752,220 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ " numFmtId="164"/>
+    <numFmt formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ " numFmtId="165"/>
+    <numFmt formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ " numFmtId="166"/>
+    <numFmt formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ " numFmtId="167"/>
   </numFmts>
   <fonts count="28">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color theme="1"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
+      <color theme="1"/>
+      <sz val="10"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
+      <color rgb="FF000000"/>
+      <sz val="10"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
+      <color theme="1"/>
+      <sz val="11"/>
     </font>
     <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="12"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
+      <color theme="1"/>
+      <sz val="12"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <color theme="1"/>
+      <sz val="12"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="12"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <color theme="0"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <i val="1"/>
+      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <color rgb="FF9C0006"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="13"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <color rgb="FFFF0000"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FF3F3F3F"/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <u val="single"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <color rgb="FF006100"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="18"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <color rgb="FF9C6500"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <u val="single"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="15"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="34">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -972,7 +978,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -984,7 +1134,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -996,151 +1146,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1152,7 +1158,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1203,6 +1209,36 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1223,36 +1259,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1293,324 +1299,322 @@
     </border>
   </borders>
   <cellStyleXfs count="49">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="9">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="164">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="14" fontId="9" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="4" fillId="18" fontId="19" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="165">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="166">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="9" fontId="9" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="10" fontId="15" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="167">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="25" fontId="12" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="26" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="21" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="5" fillId="6" fontId="0" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="22" fontId="12" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="14" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="18" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="24" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="13" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="7" fillId="0" fontId="27" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="7" fillId="0" fontId="17" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="29" fontId="12" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="10" fillId="0" fontId="14" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="5" fontId="12" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="8" fillId="4" fontId="20" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="4" fillId="4" fontId="11" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="6" fillId="13" fontId="16" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="8" fontId="9" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="33" fontId="12" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="3" fillId="0" fontId="10" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="9" fillId="0" fontId="23" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="24" fontId="22" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="28" fontId="25" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="27" fontId="9" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="32" fontId="12" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="21" fontId="9" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="12" fontId="9" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="3" fontId="9" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="17" fontId="9" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="7" fontId="12" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="31" fontId="12" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="20" fontId="9" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="11" fontId="9" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="16" fontId="12" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="15" fontId="9" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="23" fontId="12" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="26" fontId="12" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="19" fontId="9" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="30" fontId="12" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="39">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+  <cellXfs count="40">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="2" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="2" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="2" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="2" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="1" fillId="2" fontId="8" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="1" fillId="2" fontId="8" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="2" fillId="0" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle builtinId="0" name="常规" xfId="0"/>
+    <cellStyle builtinId="7" name="货币[0]" xfId="1"/>
+    <cellStyle builtinId="38" name="20% - 强调文字颜色 3" xfId="2"/>
+    <cellStyle builtinId="20" name="输入" xfId="3"/>
+    <cellStyle builtinId="4" name="货币" xfId="4"/>
+    <cellStyle builtinId="6" name="千位分隔[0]" xfId="5"/>
+    <cellStyle builtinId="39" name="40% - 强调文字颜色 3" xfId="6"/>
+    <cellStyle builtinId="27" name="差" xfId="7"/>
+    <cellStyle builtinId="3" name="千位分隔" xfId="8"/>
+    <cellStyle builtinId="40" name="60% - 强调文字颜色 3" xfId="9"/>
+    <cellStyle builtinId="8" name="超链接" xfId="10"/>
+    <cellStyle builtinId="5" name="百分比" xfId="11"/>
+    <cellStyle builtinId="9" name="已访问的超链接" xfId="12"/>
+    <cellStyle builtinId="10" name="注释" xfId="13"/>
+    <cellStyle builtinId="36" name="60% - 强调文字颜色 2" xfId="14"/>
+    <cellStyle builtinId="19" name="标题 4" xfId="15"/>
+    <cellStyle builtinId="11" name="警告文本" xfId="16"/>
+    <cellStyle builtinId="15" name="标题" xfId="17"/>
+    <cellStyle builtinId="53" name="解释性文本" xfId="18"/>
+    <cellStyle builtinId="16" name="标题 1" xfId="19"/>
+    <cellStyle builtinId="17" name="标题 2" xfId="20"/>
+    <cellStyle builtinId="32" name="60% - 强调文字颜色 1" xfId="21"/>
+    <cellStyle builtinId="18" name="标题 3" xfId="22"/>
+    <cellStyle builtinId="44" name="60% - 强调文字颜色 4" xfId="23"/>
+    <cellStyle builtinId="21" name="输出" xfId="24"/>
+    <cellStyle builtinId="22" name="计算" xfId="25"/>
+    <cellStyle builtinId="23" name="检查单元格" xfId="26"/>
+    <cellStyle builtinId="50" name="20% - 强调文字颜色 6" xfId="27"/>
+    <cellStyle builtinId="33" name="强调文字颜色 2" xfId="28"/>
+    <cellStyle builtinId="24" name="链接单元格" xfId="29"/>
+    <cellStyle builtinId="25" name="汇总" xfId="30"/>
+    <cellStyle builtinId="26" name="好" xfId="31"/>
+    <cellStyle builtinId="28" name="适中" xfId="32"/>
+    <cellStyle builtinId="46" name="20% - 强调文字颜色 5" xfId="33"/>
+    <cellStyle builtinId="29" name="强调文字颜色 1" xfId="34"/>
+    <cellStyle builtinId="30" name="20% - 强调文字颜色 1" xfId="35"/>
+    <cellStyle builtinId="31" name="40% - 强调文字颜色 1" xfId="36"/>
+    <cellStyle builtinId="34" name="20% - 强调文字颜色 2" xfId="37"/>
+    <cellStyle builtinId="35" name="40% - 强调文字颜色 2" xfId="38"/>
+    <cellStyle builtinId="37" name="强调文字颜色 3" xfId="39"/>
+    <cellStyle builtinId="41" name="强调文字颜色 4" xfId="40"/>
+    <cellStyle builtinId="42" name="20% - 强调文字颜色 4" xfId="41"/>
+    <cellStyle builtinId="43" name="40% - 强调文字颜色 4" xfId="42"/>
+    <cellStyle builtinId="45" name="强调文字颜色 5" xfId="43"/>
+    <cellStyle builtinId="47" name="40% - 强调文字颜色 5" xfId="44"/>
+    <cellStyle builtinId="48" name="60% - 强调文字颜色 5" xfId="45"/>
+    <cellStyle builtinId="49" name="强调文字颜色 6" xfId="46"/>
+    <cellStyle builtinId="51" name="40% - 强调文字颜色 6" xfId="47"/>
+    <cellStyle builtinId="52" name="60% - 强调文字颜色 6" xfId="48"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
 </file>
 
@@ -1899,76 +1903,79 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:I19"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScale="90" zoomScaleNormal="90">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="13.6083333333333" style="25" customWidth="1"/>
-    <col min="2" max="2" width="39.0333333333333" style="26" customWidth="1"/>
-    <col min="3" max="3" width="10.5583333333333" style="26" customWidth="1"/>
-    <col min="4" max="4" width="21.9416666666667" style="27" customWidth="1"/>
-    <col min="5" max="5" width="80.8333333333333" style="26" customWidth="1"/>
-    <col min="6" max="6" width="61.3916666666667" style="28" customWidth="1"/>
-    <col min="7" max="7" width="43.4666666666667" style="29" customWidth="1"/>
-    <col min="8" max="8" width="72.2166666666667" style="29" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="29" customWidth="1"/>
+    <col customWidth="1" max="1" min="1" style="26" width="13.6083333333333"/>
+    <col customWidth="1" max="2" min="2" style="27" width="39.0333333333333"/>
+    <col customWidth="1" max="3" min="3" style="27" width="10.5583333333333"/>
+    <col customWidth="1" max="4" min="4" style="28" width="21.9416666666667"/>
+    <col customWidth="1" max="5" min="5" style="27" width="80.8333333333333"/>
+    <col customWidth="1" max="6" min="6" style="29" width="61.3916666666667"/>
+    <col customWidth="1" max="7" min="7" style="30" width="43.4666666666667"/>
+    <col customWidth="1" max="8" min="8" style="30" width="72.2166666666667"/>
+    <col customWidth="1" max="16384" min="9" style="30" width="9"/>
   </cols>
   <sheetData>
-    <row r="1" s="23" customFormat="1" ht="18" customHeight="1" spans="1:9">
-      <c r="A1" s="30" t="s">
+    <row customFormat="1" customHeight="1" ht="18" r="1" s="24" spans="1:9">
+      <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="31" t="s">
+      <c r="C1" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="31" t="s">
+      <c r="D1" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="31" t="s">
+      <c r="E1" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="32" t="s">
+      <c r="F1" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="23" t="s">
+      <c r="G1" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="23" t="s">
+      <c r="H1" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="23" t="s">
+      <c r="I1" s="24" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" s="24" customFormat="1" ht="103.5" customHeight="1" spans="1:9">
-      <c r="A2" s="33">
+    <row customFormat="1" customHeight="1" ht="103.5" r="2" s="25" spans="1:9">
+      <c r="A2" s="34" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="35" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="36" t="s">
+      <c r="C2" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="37" t="s">
+      <c r="E2" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="37" t="s">
+      <c r="F2" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="24" t="s">
+      <c r="G2" s="25" t="s">
         <v>14</v>
       </c>
       <c r="H2" s="13" t="s">
@@ -1978,26 +1985,26 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" s="24" customFormat="1" ht="103.5" customHeight="1" spans="1:9">
-      <c r="A3" s="33">
+    <row customFormat="1" customHeight="1" ht="103.5" r="3" s="25" spans="1:9">
+      <c r="A3" s="34" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="35" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="36" t="s">
+      <c r="C3" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="37" t="s">
+      <c r="E3" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="37" t="s">
+      <c r="F3" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="24" t="s">
+      <c r="G3" s="25" t="s">
         <v>19</v>
       </c>
       <c r="H3" s="13" t="s">
@@ -2007,26 +2014,26 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" s="24" customFormat="1" ht="17.25" customHeight="1" spans="1:9">
-      <c r="A4" s="33">
+    <row customFormat="1" customHeight="1" ht="17.25" r="4" s="25" spans="1:9">
+      <c r="A4" s="34" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="34" t="s">
+      <c r="B4" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="35" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="36" t="s">
+      <c r="C4" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="37" t="s">
+      <c r="E4" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="37" t="s">
+      <c r="F4" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="G4" s="24" t="s">
+      <c r="G4" s="25" t="s">
         <v>24</v>
       </c>
       <c r="H4" s="13" t="s">
@@ -2036,23 +2043,23 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" ht="17.25" customHeight="1" spans="1:9">
-      <c r="A5" s="33">
+    <row customHeight="1" ht="17.25" r="5" s="3" spans="1:9">
+      <c r="A5" s="34" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="34" t="s">
+      <c r="B5" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="35" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="38" t="s">
+      <c r="C5" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="E5" s="37" t="s">
+      <c r="E5" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="F5" s="37" t="s">
+      <c r="F5" s="38" t="s">
         <v>15</v>
       </c>
       <c r="H5" s="13" t="s">
@@ -2062,23 +2069,23 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" ht="34.5" customHeight="1" spans="1:9">
-      <c r="A6" s="33">
+    <row customHeight="1" ht="34.5" r="6" s="3" spans="1:9">
+      <c r="A6" s="34" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="34" t="s">
+      <c r="B6" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="35" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="38" t="s">
+      <c r="C6" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="E6" s="37" t="s">
+      <c r="E6" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="F6" s="37" t="s">
+      <c r="F6" s="38" t="s">
         <v>29</v>
       </c>
       <c r="H6" s="13" t="s">
@@ -2088,23 +2095,23 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" ht="34.5" customHeight="1" spans="1:9">
-      <c r="A7" s="33">
+    <row customHeight="1" ht="34.5" r="7" s="3" spans="1:9">
+      <c r="A7" s="34" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="34" t="s">
+      <c r="B7" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="35" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="38" t="s">
+      <c r="C7" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="E7" s="37" t="s">
+      <c r="E7" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="F7" s="37" t="s">
+      <c r="F7" s="38" t="s">
         <v>29</v>
       </c>
       <c r="H7" s="13" t="s">
@@ -2114,23 +2121,23 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" ht="34.5" customHeight="1" spans="1:9">
-      <c r="A8" s="33">
+    <row customHeight="1" ht="34.5" r="8" s="3" spans="1:9">
+      <c r="A8" s="34" t="n">
         <v>7</v>
       </c>
-      <c r="B8" s="34" t="s">
+      <c r="B8" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="35" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="38" t="s">
+      <c r="C8" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="E8" s="37" t="s">
+      <c r="E8" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="F8" s="37" t="s">
+      <c r="F8" s="38" t="s">
         <v>29</v>
       </c>
       <c r="H8" s="13" t="s">
@@ -2140,23 +2147,23 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" ht="17.25" customHeight="1" spans="1:9">
-      <c r="A9" s="33">
+    <row customHeight="1" ht="17.25" r="9" s="3" spans="1:9">
+      <c r="A9" s="34" t="n">
         <v>8</v>
       </c>
-      <c r="B9" s="34" t="s">
+      <c r="B9" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="35" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" s="38" t="s">
+      <c r="C9" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="E9" s="37" t="s">
+      <c r="E9" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="F9" s="37" t="s">
+      <c r="F9" s="38" t="s">
         <v>29</v>
       </c>
       <c r="H9" s="13" t="s">
@@ -2166,23 +2173,23 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" ht="34.5" customHeight="1" spans="1:9">
-      <c r="A10" s="33">
+    <row customHeight="1" ht="34.5" r="10" s="3" spans="1:9">
+      <c r="A10" s="34" t="n">
         <v>9</v>
       </c>
-      <c r="B10" s="34" t="s">
+      <c r="B10" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="35" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" s="38" t="s">
+      <c r="C10" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="E10" s="37" t="s">
+      <c r="E10" s="38" t="s">
         <v>37</v>
       </c>
-      <c r="F10" s="37" t="s">
+      <c r="F10" s="38" t="s">
         <v>29</v>
       </c>
       <c r="H10" s="13" t="s">
@@ -2192,23 +2199,23 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" ht="17.25" customHeight="1" spans="1:9">
-      <c r="A11" s="33">
-        <v>10</v>
-      </c>
-      <c r="B11" s="34" t="s">
+    <row customHeight="1" ht="17.25" r="11" s="3" spans="1:9">
+      <c r="A11" s="34" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="35" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11" s="38" t="s">
+      <c r="C11" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="E11" s="37" t="s">
+      <c r="E11" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="F11" s="37" t="s">
+      <c r="F11" s="38" t="s">
         <v>29</v>
       </c>
       <c r="H11" s="13" t="s">
@@ -2218,23 +2225,23 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" ht="34.5" customHeight="1" spans="1:9">
-      <c r="A12" s="33">
+    <row customHeight="1" ht="34.5" r="12" s="3" spans="1:9">
+      <c r="A12" s="34" t="n">
         <v>11</v>
       </c>
-      <c r="B12" s="34" t="s">
+      <c r="B12" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="35" t="s">
-        <v>10</v>
-      </c>
-      <c r="D12" s="38" t="s">
+      <c r="C12" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="E12" s="37" t="s">
+      <c r="E12" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="F12" s="37" t="s">
+      <c r="F12" s="38" t="s">
         <v>29</v>
       </c>
       <c r="H12" s="13" t="s">
@@ -2244,23 +2251,23 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" s="24" customFormat="1" ht="17.25" customHeight="1" spans="1:9">
-      <c r="A13" s="33">
+    <row customFormat="1" customHeight="1" ht="17.25" r="13" s="25" spans="1:9">
+      <c r="A13" s="34" t="n">
         <v>12</v>
       </c>
-      <c r="B13" s="34" t="s">
+      <c r="B13" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="35" t="s">
-        <v>10</v>
-      </c>
-      <c r="D13" s="35" t="s">
+      <c r="C13" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="E13" s="37" t="s">
+      <c r="E13" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="F13" s="37" t="s">
+      <c r="F13" s="38" t="s">
         <v>44</v>
       </c>
       <c r="H13" s="13" t="s">
@@ -2270,23 +2277,23 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" ht="34.5" customHeight="1" spans="1:9">
-      <c r="A14" s="33">
+    <row customHeight="1" ht="34.5" r="14" s="3" spans="1:9">
+      <c r="A14" s="34" t="n">
         <v>13</v>
       </c>
-      <c r="B14" s="34" t="s">
+      <c r="B14" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="35" t="s">
-        <v>10</v>
-      </c>
-      <c r="D14" s="35" t="s">
+      <c r="C14" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="E14" s="37" t="s">
+      <c r="E14" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="F14" s="37" t="s">
+      <c r="F14" s="38" t="s">
         <v>47</v>
       </c>
       <c r="H14" s="13" t="s">
@@ -2296,23 +2303,23 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" ht="34.5" customHeight="1" spans="1:9">
-      <c r="A15" s="33">
+    <row customHeight="1" ht="34.5" r="15" s="3" spans="1:9">
+      <c r="A15" s="34" t="n">
         <v>14</v>
       </c>
-      <c r="B15" s="34" t="s">
+      <c r="B15" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="35" t="s">
-        <v>10</v>
-      </c>
-      <c r="D15" s="35" t="s">
+      <c r="C15" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="36" t="s">
         <v>48</v>
       </c>
-      <c r="E15" s="37" t="s">
+      <c r="E15" s="38" t="s">
         <v>49</v>
       </c>
-      <c r="F15" s="37" t="s">
+      <c r="F15" s="38" t="s">
         <v>47</v>
       </c>
       <c r="H15" s="13" t="s">
@@ -2322,23 +2329,23 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" ht="17.25" customHeight="1" spans="1:9">
-      <c r="A16" s="33">
+    <row customHeight="1" ht="17.25" r="16" s="3" spans="1:9">
+      <c r="A16" s="34" t="n">
         <v>15</v>
       </c>
-      <c r="B16" s="34" t="s">
+      <c r="B16" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="35" t="s">
-        <v>10</v>
-      </c>
-      <c r="D16" s="35" t="s">
+      <c r="C16" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" s="36" t="s">
         <v>50</v>
       </c>
-      <c r="E16" s="37" t="s">
+      <c r="E16" s="38" t="s">
         <v>51</v>
       </c>
-      <c r="F16" s="37" t="s">
+      <c r="F16" s="38" t="s">
         <v>52</v>
       </c>
       <c r="H16" s="13" t="s">
@@ -2348,23 +2355,23 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" ht="17.25" customHeight="1" spans="1:9">
-      <c r="A17" s="33">
+    <row customHeight="1" ht="17.25" r="17" s="3" spans="1:9">
+      <c r="A17" s="34" t="n">
         <v>16</v>
       </c>
-      <c r="B17" s="34" t="s">
+      <c r="B17" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="35" t="s">
-        <v>10</v>
-      </c>
-      <c r="D17" s="35" t="s">
+      <c r="C17" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="E17" s="37" t="s">
+      <c r="E17" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="F17" s="37" t="s">
+      <c r="F17" s="38" t="s">
         <v>52</v>
       </c>
       <c r="H17" s="13" t="s">
@@ -2374,23 +2381,23 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" ht="17.25" customHeight="1" spans="1:9">
-      <c r="A18" s="33">
+    <row customHeight="1" ht="17.25" r="18" s="3" spans="1:9">
+      <c r="A18" s="34" t="n">
         <v>17</v>
       </c>
-      <c r="B18" s="34" t="s">
+      <c r="B18" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="C18" s="35" t="s">
-        <v>10</v>
-      </c>
-      <c r="D18" s="35" t="s">
+      <c r="C18" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" s="36" t="s">
         <v>55</v>
       </c>
-      <c r="E18" s="37" t="s">
+      <c r="E18" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="F18" s="37" t="s">
+      <c r="F18" s="38" t="s">
         <v>52</v>
       </c>
       <c r="H18" s="13" t="s">
@@ -2400,23 +2407,23 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" ht="17.25" customHeight="1" spans="1:9">
-      <c r="A19" s="33">
+    <row customHeight="1" ht="17.25" r="19" s="3" spans="1:9">
+      <c r="A19" s="34" t="n">
         <v>18</v>
       </c>
-      <c r="B19" s="34" t="s">
+      <c r="B19" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="35" t="s">
-        <v>10</v>
-      </c>
-      <c r="D19" s="35" t="s">
+      <c r="C19" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" s="36" t="s">
         <v>57</v>
       </c>
-      <c r="E19" s="37" t="s">
+      <c r="E19" s="38" t="s">
         <v>58</v>
       </c>
-      <c r="F19" s="37" t="s">
+      <c r="F19" s="38" t="s">
         <v>52</v>
       </c>
       <c r="H19" s="13" t="s">
@@ -2428,41 +2435,43 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B13" r:id="rId1" display="/futureloan/mvc/api/member/register"/>
-    <hyperlink ref="B14" r:id="rId1" display="/futureloan/mvc/api/member/register"/>
-    <hyperlink ref="B15" r:id="rId1" display="/futureloan/mvc/api/member/register"/>
-    <hyperlink ref="B16" r:id="rId1" display="/futureloan/mvc/api/member/register"/>
-    <hyperlink ref="B17" r:id="rId1" display="/futureloan/mvc/api/member/register"/>
-    <hyperlink ref="B18" r:id="rId1" display="/futureloan/mvc/api/member/register"/>
-    <hyperlink ref="B19" r:id="rId1" display="/futureloan/mvc/api/member/register"/>
+    <hyperlink display="/futureloan/mvc/api/member/register" ref="B13" r:id="rId1"/>
+    <hyperlink display="/futureloan/mvc/api/member/register" ref="B14" r:id="rId2"/>
+    <hyperlink display="/futureloan/mvc/api/member/register" ref="B15" r:id="rId3"/>
+    <hyperlink display="/futureloan/mvc/api/member/register" ref="B16" r:id="rId4"/>
+    <hyperlink display="/futureloan/mvc/api/member/register" ref="B17" r:id="rId5"/>
+    <hyperlink display="/futureloan/mvc/api/member/register" ref="B18" r:id="rId6"/>
+    <hyperlink display="/futureloan/mvc/api/member/register" ref="B19" r:id="rId7"/>
   </hyperlinks>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <pageMargins bottom="1" footer="0.511805555555556" header="0.511805555555556" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:G18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.5" outlineLevelCol="6"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11" defaultRowHeight="16.5" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="11" style="20" customWidth="1"/>
-    <col min="2" max="2" width="36.875" style="20" customWidth="1"/>
-    <col min="3" max="3" width="11" style="20" customWidth="1"/>
-    <col min="4" max="4" width="18.75" style="20" customWidth="1"/>
-    <col min="5" max="5" width="61.875" style="20" customWidth="1"/>
-    <col min="6" max="6" width="71.375" style="20" customWidth="1"/>
-    <col min="7" max="7" width="38.75" style="20" customWidth="1"/>
-    <col min="8" max="16384" width="11" style="20" customWidth="1"/>
+    <col customWidth="1" max="1" min="1" style="21" width="11"/>
+    <col customWidth="1" max="2" min="2" style="21" width="36.875"/>
+    <col customWidth="1" max="3" min="3" style="21" width="11"/>
+    <col customWidth="1" max="4" min="4" style="21" width="18.75"/>
+    <col customWidth="1" max="5" min="5" style="21" width="61.875"/>
+    <col customWidth="1" max="6" min="6" style="21" width="71.375"/>
+    <col customWidth="1" max="7" min="7" style="21" width="38.75"/>
+    <col customWidth="1" max="16384" min="8" style="21" width="11"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="15" customHeight="1" spans="1:7">
+    <row customFormat="1" customHeight="1" ht="15" r="1" s="1" spans="1:7">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -2485,8 +2494,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" s="2" customFormat="1" spans="1:6">
-      <c r="A2" s="7">
+    <row customFormat="1" r="2" s="2" spans="1:7">
+      <c r="A2" s="7" t="n">
         <v>1</v>
       </c>
       <c r="B2" s="9" t="s">
@@ -2505,8 +2514,8 @@
         <v>62</v>
       </c>
     </row>
-    <row r="3" s="2" customFormat="1" spans="1:6">
-      <c r="A3" s="7">
+    <row customFormat="1" r="3" s="2" spans="1:7">
+      <c r="A3" s="7" t="n">
         <v>2</v>
       </c>
       <c r="B3" s="9" t="s">
@@ -2525,8 +2534,8 @@
         <v>65</v>
       </c>
     </row>
-    <row r="4" s="12" customFormat="1" spans="1:6">
-      <c r="A4" s="7">
+    <row customFormat="1" r="4" s="12" spans="1:7">
+      <c r="A4" s="7" t="n">
         <v>3</v>
       </c>
       <c r="B4" s="9" t="s">
@@ -2545,8 +2554,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" s="12" customFormat="1" spans="1:6">
-      <c r="A5" s="7">
+    <row customFormat="1" r="5" s="12" spans="1:7">
+      <c r="A5" s="7" t="n">
         <v>4</v>
       </c>
       <c r="B5" s="9" t="s">
@@ -2555,7 +2564,7 @@
       <c r="C5" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="21" t="s">
+      <c r="D5" s="22" t="s">
         <v>30</v>
       </c>
       <c r="E5" s="10" t="s">
@@ -2565,8 +2574,8 @@
         <v>65</v>
       </c>
     </row>
-    <row r="6" s="12" customFormat="1" spans="1:6">
-      <c r="A6" s="7">
+    <row customFormat="1" r="6" s="12" spans="1:7">
+      <c r="A6" s="7" t="n">
         <v>5</v>
       </c>
       <c r="B6" s="9" t="s">
@@ -2575,7 +2584,7 @@
       <c r="C6" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="21" t="s">
+      <c r="D6" s="22" t="s">
         <v>32</v>
       </c>
       <c r="E6" s="10" t="s">
@@ -2585,8 +2594,8 @@
         <v>65</v>
       </c>
     </row>
-    <row r="7" s="12" customFormat="1" spans="1:6">
-      <c r="A7" s="7">
+    <row customFormat="1" r="7" s="12" spans="1:7">
+      <c r="A7" s="7" t="n">
         <v>6</v>
       </c>
       <c r="B7" s="9" t="s">
@@ -2595,7 +2604,7 @@
       <c r="C7" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="21" t="s">
+      <c r="D7" s="22" t="s">
         <v>34</v>
       </c>
       <c r="E7" s="10" t="s">
@@ -2605,8 +2614,8 @@
         <v>65</v>
       </c>
     </row>
-    <row r="8" s="12" customFormat="1" spans="1:6">
-      <c r="A8" s="7">
+    <row customFormat="1" r="8" s="12" spans="1:7">
+      <c r="A8" s="7" t="n">
         <v>7</v>
       </c>
       <c r="B8" s="9" t="s">
@@ -2615,7 +2624,7 @@
       <c r="C8" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="21" t="s">
+      <c r="D8" s="22" t="s">
         <v>36</v>
       </c>
       <c r="E8" s="10" t="s">
@@ -2625,8 +2634,8 @@
         <v>65</v>
       </c>
     </row>
-    <row r="9" s="12" customFormat="1" spans="1:6">
-      <c r="A9" s="7">
+    <row customFormat="1" r="9" s="12" spans="1:7">
+      <c r="A9" s="7" t="n">
         <v>8</v>
       </c>
       <c r="B9" s="9" t="s">
@@ -2635,7 +2644,7 @@
       <c r="C9" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="21" t="s">
+      <c r="D9" s="22" t="s">
         <v>38</v>
       </c>
       <c r="E9" s="10" t="s">
@@ -2645,8 +2654,8 @@
         <v>65</v>
       </c>
     </row>
-    <row r="10" s="12" customFormat="1" spans="1:6">
-      <c r="A10" s="7">
+    <row customFormat="1" r="10" s="12" spans="1:7">
+      <c r="A10" s="7" t="n">
         <v>9</v>
       </c>
       <c r="B10" s="9" t="s">
@@ -2655,7 +2664,7 @@
       <c r="C10" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="21" t="s">
+      <c r="D10" s="22" t="s">
         <v>40</v>
       </c>
       <c r="E10" s="10" t="s">
@@ -2665,8 +2674,8 @@
         <v>65</v>
       </c>
     </row>
-    <row r="11" s="12" customFormat="1" spans="1:6">
-      <c r="A11" s="7">
+    <row customFormat="1" r="11" s="12" spans="1:7">
+      <c r="A11" s="7" t="n">
         <v>10</v>
       </c>
       <c r="B11" s="9" t="s">
@@ -2685,8 +2694,8 @@
         <v>44</v>
       </c>
     </row>
-    <row r="12" s="12" customFormat="1" spans="1:6">
-      <c r="A12" s="7">
+    <row customFormat="1" r="12" s="12" spans="1:7">
+      <c r="A12" s="7" t="n">
         <v>11</v>
       </c>
       <c r="B12" s="9" t="s">
@@ -2701,12 +2710,12 @@
       <c r="E12" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="F12" s="22" t="s">
+      <c r="F12" s="23" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="13" s="12" customFormat="1" spans="1:6">
-      <c r="A13" s="7">
+    <row customFormat="1" r="13" s="12" spans="1:7">
+      <c r="A13" s="7" t="n">
         <v>12</v>
       </c>
       <c r="B13" s="9" t="s">
@@ -2721,12 +2730,12 @@
       <c r="E13" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="F13" s="22" t="s">
+      <c r="F13" s="23" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="14" s="12" customFormat="1" spans="1:6">
-      <c r="A14" s="7">
+    <row customFormat="1" r="14" s="12" spans="1:7">
+      <c r="A14" s="7" t="n">
         <v>13</v>
       </c>
       <c r="B14" s="9" t="s">
@@ -2741,12 +2750,12 @@
       <c r="E14" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="F14" s="22" t="s">
+      <c r="F14" s="23" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="15" s="12" customFormat="1" spans="1:6">
-      <c r="A15" s="7">
+    <row customFormat="1" r="15" s="12" spans="1:7">
+      <c r="A15" s="7" t="n">
         <v>14</v>
       </c>
       <c r="B15" s="9" t="s">
@@ -2761,12 +2770,12 @@
       <c r="E15" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="F15" s="22" t="s">
+      <c r="F15" s="23" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="16" s="12" customFormat="1" spans="1:6">
-      <c r="A16" s="7">
+    <row customFormat="1" r="16" s="12" spans="1:7">
+      <c r="A16" s="7" t="n">
         <v>15</v>
       </c>
       <c r="B16" s="9" t="s">
@@ -2781,12 +2790,12 @@
       <c r="E16" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="F16" s="22" t="s">
+      <c r="F16" s="23" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="17" s="12" customFormat="1" spans="1:6">
-      <c r="A17" s="7">
+    <row customFormat="1" r="17" s="12" spans="1:7">
+      <c r="A17" s="7" t="n">
         <v>16</v>
       </c>
       <c r="B17" s="9" t="s">
@@ -2801,38 +2810,40 @@
       <c r="E17" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="F17" s="22" t="s">
+      <c r="F17" s="23" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="18" s="12" customFormat="1"/>
+    <row customFormat="1" r="18" s="12" spans="1:7"/>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:G16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11" defaultRowHeight="13.5" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="7.875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="31.875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="14.375" style="3" customWidth="1"/>
-    <col min="4" max="4" width="21.75" style="19" customWidth="1"/>
-    <col min="5" max="5" width="48.5" style="3" customWidth="1"/>
-    <col min="6" max="6" width="67.375" style="13" customWidth="1"/>
-    <col min="7" max="7" width="31.125" style="3" customWidth="1"/>
+    <col customWidth="1" max="1" min="1" style="3" width="7.875"/>
+    <col customWidth="1" max="2" min="2" style="3" width="31.875"/>
+    <col customWidth="1" max="3" min="3" style="3" width="14.375"/>
+    <col customWidth="1" max="4" min="4" style="19" width="21.75"/>
+    <col customWidth="1" max="5" min="5" style="3" width="48.5"/>
+    <col customWidth="1" max="6" min="6" style="20" width="15.125"/>
+    <col customWidth="1" max="7" min="7" style="3" width="31.125"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="15" customHeight="1" spans="1:7">
+    <row customFormat="1" customHeight="1" ht="15" r="1" s="1" spans="1:10">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -2843,7 +2854,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>84</v>
+        <v>3</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>4</v>
@@ -2854,9 +2865,15 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" s="2" customFormat="1" ht="16.5" customHeight="1" spans="1:6">
-      <c r="A2" s="7">
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row customFormat="1" customHeight="1" ht="16.5" r="2" s="2" spans="1:10">
+      <c r="A2" s="7" t="n">
         <v>1</v>
       </c>
       <c r="B2" s="9" t="s">
@@ -2865,45 +2882,63 @@
       <c r="C2" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="11" t="s">
         <v>60</v>
       </c>
       <c r="E2" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="F2" s="10" t="n">
+        <v>10001</v>
+      </c>
+      <c r="H2" t="s">
+        <v>62</v>
+      </c>
+      <c r="I2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" s="10" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row customFormat="1" customHeight="1" ht="66" r="3" s="2" spans="1:10">
+      <c r="A3" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="F2" s="10" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="3" s="2" customFormat="1" ht="66" customHeight="1" spans="1:7">
-      <c r="A3" s="7">
-        <v>2</v>
-      </c>
-      <c r="B3" s="9" t="s">
+      <c r="C3" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="C3" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="11" t="s">
+      <c r="E3" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="F3" s="10" t="n">
+        <v>10001</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="F3" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="G3" s="2" t="s">
+      <c r="H3" t="s">
+        <v>237</v>
+      </c>
+      <c r="I3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3" s="10" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="4" s="12" customFormat="1" ht="16.5" customHeight="1" spans="1:6">
-      <c r="A4" s="7">
+    <row customFormat="1" customHeight="1" ht="16.5" r="4" s="12" spans="1:10">
+      <c r="A4" s="7" t="n">
         <v>3</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>10</v>
@@ -2914,16 +2949,25 @@
       <c r="E4" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="15" t="n">
+        <v>20104</v>
+      </c>
+      <c r="H4" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="5" s="12" customFormat="1" ht="16.5" customHeight="1" spans="1:6">
-      <c r="A5" s="7">
+      <c r="I4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row customFormat="1" customHeight="1" ht="16.5" r="5" s="12" spans="1:10">
+      <c r="A5" s="7" t="n">
         <v>4</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>10</v>
@@ -2934,16 +2978,19 @@
       <c r="E5" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="15" t="n">
+        <v>20103</v>
+      </c>
+      <c r="J5" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="6" s="12" customFormat="1" ht="16.5" customHeight="1" spans="1:6">
-      <c r="A6" s="7">
+    <row customFormat="1" customHeight="1" ht="16.5" r="6" s="12" spans="1:10">
+      <c r="A6" s="7" t="n">
         <v>5</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>10</v>
@@ -2954,16 +3001,25 @@
       <c r="E6" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="F6" s="15" t="n">
+        <v>20109</v>
+      </c>
+      <c r="H6" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="7" s="12" customFormat="1" ht="16.5" customHeight="1" spans="1:6">
-      <c r="A7" s="7">
+      <c r="I6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row customFormat="1" customHeight="1" ht="16.5" r="7" s="12" spans="1:10">
+      <c r="A7" s="7" t="n">
         <v>6</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C7" s="8" t="s">
         <v>10</v>
@@ -2974,16 +3030,25 @@
       <c r="E7" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F7" s="15" t="n">
+        <v>20109</v>
+      </c>
+      <c r="H7" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="8" s="12" customFormat="1" ht="16.5" customHeight="1" spans="1:6">
-      <c r="A8" s="7">
+      <c r="I7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row customFormat="1" customHeight="1" ht="16.5" r="8" s="12" spans="1:10">
+      <c r="A8" s="7" t="n">
         <v>7</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C8" s="8" t="s">
         <v>10</v>
@@ -2994,16 +3059,25 @@
       <c r="E8" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="F8" s="15" t="n">
+        <v>20109</v>
+      </c>
+      <c r="H8" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="9" s="12" customFormat="1" ht="16.5" customHeight="1" spans="1:6">
-      <c r="A9" s="7">
+      <c r="I8" t="s">
+        <v>20</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row customFormat="1" customHeight="1" ht="16.5" r="9" s="12" spans="1:10">
+      <c r="A9" s="7" t="n">
         <v>8</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C9" s="8" t="s">
         <v>10</v>
@@ -3014,16 +3088,19 @@
       <c r="E9" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="F9" s="15" t="n">
+        <v>20109</v>
+      </c>
+      <c r="J9" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="10" s="12" customFormat="1" ht="16.5" customHeight="1" spans="1:6">
-      <c r="A10" s="7">
+    <row customFormat="1" customHeight="1" ht="16.5" r="10" s="12" spans="1:10">
+      <c r="A10" s="7" t="n">
         <v>9</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C10" s="8" t="s">
         <v>10</v>
@@ -3034,16 +3111,25 @@
       <c r="E10" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="F10" s="15" t="n">
+        <v>20109</v>
+      </c>
+      <c r="H10" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="11" s="12" customFormat="1" ht="16.5" customHeight="1" spans="1:6">
-      <c r="A11" s="7">
+      <c r="I10" t="s">
+        <v>20</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row customFormat="1" customHeight="1" ht="16.5" r="11" s="12" spans="1:10">
+      <c r="A11" s="7" t="n">
         <v>10</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C11" s="8" t="s">
         <v>10</v>
@@ -3054,16 +3140,25 @@
       <c r="E11" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="F11" s="15" t="n">
+        <v>20109</v>
+      </c>
+      <c r="H11" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="12" s="12" customFormat="1" ht="16.5" customHeight="1" spans="1:6">
-      <c r="A12" s="7">
+      <c r="I11" t="s">
+        <v>20</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row customFormat="1" customHeight="1" ht="16.5" r="12" s="12" spans="1:10">
+      <c r="A12" s="7" t="n">
         <v>11</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C12" s="8" t="s">
         <v>10</v>
@@ -3074,16 +3169,25 @@
       <c r="E12" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="F12" s="15" t="n">
+        <v>20115</v>
+      </c>
+      <c r="H12" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="13" s="12" customFormat="1" ht="16.5" customHeight="1" spans="1:6">
-      <c r="A13" s="7">
+      <c r="I12" t="s">
+        <v>20</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row customFormat="1" customHeight="1" ht="16.5" r="13" s="12" spans="1:10">
+      <c r="A13" s="7" t="n">
         <v>12</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C13" s="8" t="s">
         <v>10</v>
@@ -3094,16 +3198,25 @@
       <c r="E13" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="F13" s="15" t="n">
+        <v>20117</v>
+      </c>
+      <c r="H13" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="14" s="12" customFormat="1" ht="16.5" customHeight="1" spans="1:6">
-      <c r="A14" s="7">
+      <c r="I13" t="s">
+        <v>20</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row customFormat="1" customHeight="1" ht="16.5" r="14" s="12" spans="1:10">
+      <c r="A14" s="7" t="n">
         <v>13</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C14" s="8" t="s">
         <v>10</v>
@@ -3114,16 +3227,25 @@
       <c r="E14" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="F14" s="15" t="n">
+        <v>20117</v>
+      </c>
+      <c r="H14" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="15" s="12" customFormat="1" ht="16.5" customHeight="1" spans="1:6">
-      <c r="A15" s="7">
+      <c r="I14" t="s">
+        <v>20</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row customFormat="1" customHeight="1" ht="16.5" r="15" s="12" spans="1:10">
+      <c r="A15" s="7" t="n">
         <v>14</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C15" s="8" t="s">
         <v>10</v>
@@ -3134,16 +3256,25 @@
       <c r="E15" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="F15" s="2" t="s">
+      <c r="F15" s="15" t="n">
+        <v>20116</v>
+      </c>
+      <c r="H15" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="16" s="12" customFormat="1" ht="16.5" customHeight="1" spans="1:6">
-      <c r="A16" s="7">
+      <c r="I15" t="s">
+        <v>20</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row customFormat="1" customHeight="1" ht="16.5" r="16" s="12" spans="1:10">
+      <c r="A16" s="7" t="n">
         <v>15</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C16" s="8" t="s">
         <v>10</v>
@@ -3154,36 +3285,47 @@
       <c r="E16" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="F16" s="2" t="s">
+      <c r="F16" s="15" t="n">
+        <v>20118</v>
+      </c>
+      <c r="H16" t="s">
         <v>114</v>
       </c>
+      <c r="I16" t="s">
+        <v>20</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>114</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="0"/>
   <cols>
-    <col min="3" max="3" width="16.875" style="3" customWidth="1"/>
-    <col min="5" max="5" width="37.25" style="3" customWidth="1"/>
-    <col min="6" max="6" width="15.25" style="3" customWidth="1"/>
-    <col min="7" max="7" width="44.375" style="3" customWidth="1"/>
-    <col min="8" max="8" width="66.125" style="13" customWidth="1"/>
-    <col min="9" max="9" width="30.875" style="3" customWidth="1"/>
+    <col customWidth="1" max="3" min="3" style="3" width="16.875"/>
+    <col customWidth="1" max="5" min="5" style="3" width="37.25"/>
+    <col customWidth="1" max="6" min="6" style="3" width="15.25"/>
+    <col customWidth="1" max="7" min="7" style="3" width="44.375"/>
+    <col customWidth="1" max="8" min="8" style="13" width="66.125"/>
+    <col customWidth="1" max="9" min="9" style="3" width="30.875"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="15" customHeight="1" spans="1:9">
+    <row customFormat="1" customHeight="1" ht="15" r="1" s="1" spans="1:9">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -3200,7 +3342,7 @@
         <v>116</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>84</v>
+        <v>117</v>
       </c>
       <c r="G1" s="5" t="s">
         <v>4</v>
@@ -3212,12 +3354,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" s="2" customFormat="1" ht="33" customHeight="1" spans="1:8">
-      <c r="A2" s="7">
+    <row customFormat="1" customHeight="1" ht="33" r="2" s="2" spans="1:9">
+      <c r="A2" s="7" t="n">
         <v>1</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C2" s="9" t="s">
         <v>59</v>
@@ -3226,88 +3368,88 @@
         <v>10</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F2" s="14" t="s">
         <v>60</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="H2" s="10" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="3" s="2" customFormat="1" ht="66" customHeight="1" spans="1:9">
-      <c r="A3" s="7">
+    <row customFormat="1" customHeight="1" ht="66" r="3" s="2" spans="1:9">
+      <c r="A3" s="7" t="n">
         <v>2</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C3" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row customFormat="1" customHeight="1" ht="33" r="4" s="12" spans="1:9">
+      <c r="A4" s="7" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="D3" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="10" t="s">
+      <c r="C4" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="F3" s="11" t="s">
-        <v>123</v>
-      </c>
-      <c r="G3" s="10" t="s">
-        <v>124</v>
-      </c>
-      <c r="H3" s="10" t="s">
-        <v>125</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="4" s="12" customFormat="1" ht="33" customHeight="1" spans="1:8">
-      <c r="A4" s="7">
-        <v>3</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>121</v>
-      </c>
       <c r="D4" s="8" t="s">
         <v>10</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F4" s="16" t="s">
         <v>91</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="H4" s="17" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="5" s="12" customFormat="1" ht="33" customHeight="1" spans="1:8">
-      <c r="A5" s="7">
+        <v>130</v>
+      </c>
+    </row>
+    <row customFormat="1" customHeight="1" ht="33" r="5" s="12" spans="1:9">
+      <c r="A5" s="7" t="n">
         <v>4</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D5" s="8" t="s">
         <v>10</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F5" s="16" t="s">
         <v>21</v>
@@ -3319,21 +3461,21 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" s="12" customFormat="1" ht="33" customHeight="1" spans="1:8">
-      <c r="A6" s="7">
+    <row customFormat="1" customHeight="1" ht="33" r="6" s="12" spans="1:9">
+      <c r="A6" s="7" t="n">
         <v>5</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D6" s="8" t="s">
         <v>10</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F6" s="18" t="s">
         <v>30</v>
@@ -3345,21 +3487,21 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" s="12" customFormat="1" ht="33" customHeight="1" spans="1:8">
-      <c r="A7" s="7">
+    <row customFormat="1" customHeight="1" ht="33" r="7" s="12" spans="1:9">
+      <c r="A7" s="7" t="n">
         <v>6</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>10</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F7" s="18" t="s">
         <v>32</v>
@@ -3371,21 +3513,21 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" s="12" customFormat="1" ht="33" customHeight="1" spans="1:8">
-      <c r="A8" s="7">
+    <row customFormat="1" customHeight="1" ht="33" r="8" s="12" spans="1:9">
+      <c r="A8" s="7" t="n">
         <v>7</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>10</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F8" s="18" t="s">
         <v>34</v>
@@ -3397,47 +3539,47 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" s="12" customFormat="1" ht="33" customHeight="1" spans="1:8">
-      <c r="A9" s="7">
+    <row customFormat="1" customHeight="1" ht="33" r="9" s="12" spans="1:9">
+      <c r="A9" s="7" t="n">
         <v>8</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D9" s="8" t="s">
         <v>10</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F9" s="18" t="s">
         <v>36</v>
       </c>
       <c r="G9" s="10" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="H9" s="17" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="10" s="12" customFormat="1" ht="33" customHeight="1" spans="1:8">
-      <c r="A10" s="7">
+    <row customFormat="1" customHeight="1" ht="33" r="10" s="12" spans="1:9">
+      <c r="A10" s="7" t="n">
         <v>9</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D10" s="8" t="s">
         <v>10</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F10" s="18" t="s">
         <v>38</v>
@@ -3449,21 +3591,21 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" s="12" customFormat="1" ht="33" customHeight="1" spans="1:8">
-      <c r="A11" s="7">
+    <row customFormat="1" customHeight="1" ht="33" r="11" s="12" spans="1:9">
+      <c r="A11" s="7" t="n">
         <v>10</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D11" s="8" t="s">
         <v>10</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F11" s="18" t="s">
         <v>40</v>
@@ -3475,204 +3617,208 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" s="12" customFormat="1" ht="33" customHeight="1" spans="1:8">
-      <c r="A12" s="7">
+    <row customFormat="1" customHeight="1" ht="33" r="12" s="12" spans="1:9">
+      <c r="A12" s="7" t="n">
         <v>11</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D12" s="8" t="s">
         <v>10</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F12" s="16" t="s">
         <v>101</v>
       </c>
       <c r="G12" s="10" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="13" s="12" customFormat="1" ht="33" customHeight="1" spans="1:8">
-      <c r="A13" s="7">
+    <row customFormat="1" customHeight="1" ht="33" r="13" s="12" spans="1:9">
+      <c r="A13" s="7" t="n">
         <v>12</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D13" s="8" t="s">
         <v>10</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F13" s="16" t="s">
         <v>104</v>
       </c>
       <c r="G13" s="10" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="H13" s="17" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="14" s="12" customFormat="1" ht="33" customHeight="1" spans="1:8">
-      <c r="A14" s="7">
+    <row customFormat="1" customHeight="1" ht="33" r="14" s="12" spans="1:9">
+      <c r="A14" s="7" t="n">
         <v>13</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D14" s="8" t="s">
         <v>10</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F14" s="16" t="s">
         <v>107</v>
       </c>
       <c r="G14" s="10" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="H14" s="17" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="15" s="12" customFormat="1" ht="33" customHeight="1" spans="1:8">
-      <c r="A15" s="7">
+    <row customFormat="1" customHeight="1" ht="33" r="15" s="12" spans="1:9">
+      <c r="A15" s="7" t="n">
         <v>14</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D15" s="8" t="s">
         <v>10</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F15" s="16" t="s">
         <v>109</v>
       </c>
       <c r="G15" s="10" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="H15" s="17" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="16" s="12" customFormat="1" ht="33" customHeight="1" spans="1:8">
-      <c r="A16" s="7">
+    <row customFormat="1" customHeight="1" ht="33" r="16" s="12" spans="1:9">
+      <c r="A16" s="7" t="n">
         <v>15</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D16" s="8" t="s">
         <v>10</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F16" s="16" t="s">
         <v>112</v>
       </c>
       <c r="G16" s="10" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="H16" s="2" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="17" s="12" customFormat="1" ht="33" customHeight="1" spans="1:8">
-      <c r="A17" s="7">
+    <row customFormat="1" customHeight="1" ht="33" r="17" s="12" spans="1:9">
+      <c r="A17" s="7" t="n">
         <v>16</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D17" s="8" t="s">
         <v>10</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F17" s="12" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G17" s="10" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:I40"/>
   <sheetViews>
     <sheetView topLeftCell="H1" workbookViewId="0">
       <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="0"/>
   <cols>
-    <col min="3" max="3" width="21.875" style="3" customWidth="1"/>
-    <col min="5" max="5" width="22.125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="14.75" style="3" customWidth="1"/>
-    <col min="7" max="7" width="45" style="3" customWidth="1"/>
-    <col min="8" max="8" width="47.375" style="13" customWidth="1"/>
-    <col min="9" max="9" width="41" style="3" customWidth="1"/>
+    <col customWidth="1" max="3" min="3" style="3" width="21.875"/>
+    <col customWidth="1" max="5" min="5" style="3" width="22.125"/>
+    <col customWidth="1" max="6" min="6" style="3" width="14.75"/>
+    <col customWidth="1" max="7" min="7" style="3" width="45"/>
+    <col customWidth="1" max="8" min="8" style="13" width="47.375"/>
+    <col customWidth="1" max="9" min="9" style="3" width="41"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="15" customHeight="1" spans="1:9">
+    <row customFormat="1" customHeight="1" ht="15" r="1" s="1" spans="1:9">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -3689,7 +3835,7 @@
         <v>116</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>84</v>
+        <v>117</v>
       </c>
       <c r="G1" s="5" t="s">
         <v>4</v>
@@ -3701,12 +3847,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" s="2" customFormat="1" ht="33" customHeight="1" spans="1:8">
-      <c r="A2" s="7">
+    <row customFormat="1" customHeight="1" ht="33" r="2" s="2" spans="1:9">
+      <c r="A2" s="7" t="n">
         <v>1</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C2" s="9" t="s">
         <v>59</v>
@@ -3715,441 +3861,443 @@
         <v>10</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F2" s="14" t="s">
         <v>60</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="H2" s="10" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="3" s="2" customFormat="1" ht="66" customHeight="1" spans="1:9">
-      <c r="A3" s="7">
+    <row customFormat="1" customHeight="1" ht="66" r="3" s="2" spans="1:9">
+      <c r="A3" s="7" t="n">
         <v>2</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C3" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row customFormat="1" customHeight="1" ht="66" r="4" s="12" spans="1:9">
+      <c r="A4" s="7" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="D3" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="8" t="s">
+      <c r="C4" s="9" t="s">
         <v>154</v>
       </c>
-      <c r="F3" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="G3" s="10" t="s">
-        <v>156</v>
-      </c>
-      <c r="H3" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="I3" s="2" t="s">
+      <c r="D4" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row customFormat="1" customHeight="1" ht="66" r="5" s="12" spans="1:9">
+      <c r="A5" s="7" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row customFormat="1" customHeight="1" ht="66" r="6" s="12" spans="1:9">
+      <c r="A6" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row customFormat="1" customHeight="1" ht="66" r="7" s="12" spans="1:9">
+      <c r="A7" s="7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row customFormat="1" customHeight="1" ht="66" r="8" s="12" spans="1:9">
+      <c r="A8" s="7" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row customFormat="1" customHeight="1" ht="66" r="9" s="12" spans="1:9">
+      <c r="A9" s="7" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>179</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row customFormat="1" customHeight="1" ht="66" r="10" s="12" spans="1:9">
+      <c r="A10" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>183</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="H10" s="10" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="4" s="12" customFormat="1" ht="66" customHeight="1" spans="1:8">
-      <c r="A4" s="7">
-        <v>3</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="C4" s="9" t="s">
+    <row customFormat="1" customHeight="1" ht="66" r="11" s="12" spans="1:9">
+      <c r="A11" s="7" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="D4" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>159</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>160</v>
-      </c>
-      <c r="G4" s="10" t="s">
-        <v>161</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="5" s="12" customFormat="1" ht="66" customHeight="1" spans="1:8">
-      <c r="A5" s="7">
-        <v>4</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="C5" s="9" t="s">
+      <c r="C11" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>186</v>
+      </c>
+      <c r="G11" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="H11" s="10" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row customFormat="1" customHeight="1" ht="66" r="12" s="12" spans="1:9">
+      <c r="A12" s="7" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="D5" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="12" t="s">
+      <c r="C12" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>189</v>
+      </c>
+      <c r="G12" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="H12" s="10" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row customFormat="1" customHeight="1" ht="33" r="13" s="12" spans="1:9">
+      <c r="A13" s="7" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>191</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>192</v>
+      </c>
+      <c r="H13" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="F5" s="12" t="s">
-        <v>164</v>
-      </c>
-      <c r="G5" s="10" t="s">
-        <v>165</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="6" s="12" customFormat="1" ht="66" customHeight="1" spans="1:8">
-      <c r="A6" s="7">
-        <v>5</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>153</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="12" t="s">
-        <v>167</v>
-      </c>
-      <c r="F6" s="12" t="s">
-        <v>168</v>
-      </c>
-      <c r="G6" s="10" t="s">
-        <v>169</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="7" s="12" customFormat="1" ht="66" customHeight="1" spans="1:8">
-      <c r="A7" s="7">
-        <v>6</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>153</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="12" t="s">
-        <v>171</v>
-      </c>
-      <c r="F7" s="12" t="s">
-        <v>172</v>
-      </c>
-      <c r="G7" s="10" t="s">
-        <v>173</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="8" s="12" customFormat="1" ht="66" customHeight="1" spans="1:8">
-      <c r="A8" s="7">
-        <v>7</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>153</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="12" t="s">
-        <v>174</v>
-      </c>
-      <c r="F8" s="12" t="s">
-        <v>175</v>
-      </c>
-      <c r="G8" s="10" t="s">
-        <v>176</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="9" s="12" customFormat="1" ht="66" customHeight="1" spans="1:8">
-      <c r="A9" s="7">
-        <v>8</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>153</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" s="12" t="s">
-        <v>178</v>
-      </c>
-      <c r="F9" s="12" t="s">
-        <v>179</v>
-      </c>
-      <c r="G9" s="10" t="s">
-        <v>180</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="10" s="12" customFormat="1" ht="66" customHeight="1" spans="1:8">
-      <c r="A10" s="7">
-        <v>9</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>153</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" s="12" t="s">
-        <v>181</v>
-      </c>
-      <c r="F10" s="12" t="s">
-        <v>182</v>
-      </c>
-      <c r="G10" s="10" t="s">
-        <v>183</v>
-      </c>
-      <c r="H10" s="10" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="11" s="12" customFormat="1" ht="66" customHeight="1" spans="1:8">
-      <c r="A11" s="7">
-        <v>10</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>153</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" s="12" t="s">
-        <v>184</v>
-      </c>
-      <c r="F11" s="12" t="s">
-        <v>185</v>
-      </c>
-      <c r="G11" s="10" t="s">
-        <v>186</v>
-      </c>
-      <c r="H11" s="10" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="12" s="12" customFormat="1" ht="66" customHeight="1" spans="1:8">
-      <c r="A12" s="7">
-        <v>11</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>153</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" s="12" t="s">
-        <v>187</v>
-      </c>
-      <c r="F12" s="12" t="s">
-        <v>188</v>
-      </c>
-      <c r="G12" s="10" t="s">
-        <v>189</v>
-      </c>
-      <c r="H12" s="10" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="13" s="12" customFormat="1" ht="33" customHeight="1" spans="1:8">
-      <c r="A13" s="7">
-        <v>12</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>153</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" s="12" t="s">
-        <v>190</v>
-      </c>
-      <c r="F13" s="12" t="s">
-        <v>191</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="14" s="12" customFormat="1" ht="16.5" customHeight="1" spans="6:8">
+    </row>
+    <row customFormat="1" customHeight="1" ht="16.5" r="14" s="12" spans="1:9">
       <c r="F14" s="12" t="s">
-        <v>192</v>
-      </c>
-      <c r="H14" s="2"/>
-    </row>
-    <row r="15" s="12" customFormat="1" ht="16.5" customHeight="1" spans="6:8">
+        <v>193</v>
+      </c>
+      <c r="H14" s="2" t="n"/>
+    </row>
+    <row customFormat="1" customHeight="1" ht="16.5" r="15" s="12" spans="1:9">
       <c r="F15" s="12" t="s">
-        <v>193</v>
-      </c>
-      <c r="H15" s="2"/>
-    </row>
-    <row r="16" s="12" customFormat="1" ht="16.5" customHeight="1" spans="6:8">
+        <v>194</v>
+      </c>
+      <c r="H15" s="2" t="n"/>
+    </row>
+    <row customFormat="1" customHeight="1" ht="16.5" r="16" s="12" spans="1:9">
       <c r="F16" s="12" t="s">
-        <v>194</v>
-      </c>
-      <c r="H16" s="2"/>
-    </row>
-    <row r="17" s="12" customFormat="1" ht="16.5" customHeight="1" spans="6:8">
+        <v>195</v>
+      </c>
+      <c r="H16" s="2" t="n"/>
+    </row>
+    <row customFormat="1" customHeight="1" ht="16.5" r="17" s="12" spans="1:9">
       <c r="F17" s="12" t="s">
-        <v>195</v>
-      </c>
-      <c r="H17" s="2"/>
-    </row>
-    <row r="18" s="12" customFormat="1" ht="16.5" customHeight="1" spans="6:8">
+        <v>196</v>
+      </c>
+      <c r="H17" s="2" t="n"/>
+    </row>
+    <row customFormat="1" customHeight="1" ht="16.5" r="18" s="12" spans="1:9">
       <c r="F18" s="12" t="s">
-        <v>196</v>
-      </c>
-      <c r="H18" s="2"/>
-    </row>
-    <row r="19" s="12" customFormat="1" ht="33" customHeight="1" spans="6:8">
+        <v>197</v>
+      </c>
+      <c r="H18" s="2" t="n"/>
+    </row>
+    <row customFormat="1" customHeight="1" ht="33" r="19" s="12" spans="1:9">
       <c r="F19" s="12" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="20" s="12" customFormat="1" ht="33" customHeight="1" spans="6:8">
+        <v>163</v>
+      </c>
+    </row>
+    <row customFormat="1" customHeight="1" ht="33" r="20" s="12" spans="1:9">
       <c r="F20" s="12" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="21" s="12" customFormat="1" ht="33" customHeight="1" spans="6:8">
+        <v>200</v>
+      </c>
+    </row>
+    <row customFormat="1" customHeight="1" ht="33" r="21" s="12" spans="1:9">
       <c r="F21" s="12" t="s">
+        <v>201</v>
+      </c>
+      <c r="H21" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="H21" s="2" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="22" s="12" customFormat="1" ht="16.5" customHeight="1" spans="8:8">
-      <c r="H22" s="2"/>
-    </row>
-    <row r="23" s="12" customFormat="1" ht="16.5" customHeight="1" spans="8:8">
-      <c r="H23" s="2"/>
-    </row>
-    <row r="24" s="12" customFormat="1" ht="16.5" customHeight="1" spans="8:8">
-      <c r="H24" s="2"/>
-    </row>
-    <row r="25" s="12" customFormat="1" ht="16.5" customHeight="1" spans="8:8">
-      <c r="H25" s="2"/>
-    </row>
-    <row r="26" s="12" customFormat="1" ht="16.5" customHeight="1" spans="8:8">
-      <c r="H26" s="2"/>
-    </row>
-    <row r="27" s="12" customFormat="1" ht="16.5" customHeight="1" spans="8:8">
-      <c r="H27" s="2"/>
-    </row>
-    <row r="28" s="12" customFormat="1" ht="16.5" customHeight="1" spans="8:8">
-      <c r="H28" s="2"/>
-    </row>
-    <row r="29" s="12" customFormat="1" ht="16.5" customHeight="1" spans="8:8">
-      <c r="H29" s="2"/>
-    </row>
-    <row r="30" s="12" customFormat="1" ht="16.5" customHeight="1" spans="8:8">
-      <c r="H30" s="2"/>
-    </row>
-    <row r="31" s="12" customFormat="1" ht="16.5" customHeight="1" spans="8:8">
-      <c r="H31" s="2"/>
-    </row>
-    <row r="32" s="12" customFormat="1" ht="16.5" customHeight="1" spans="8:8">
-      <c r="H32" s="2"/>
-    </row>
-    <row r="33" s="12" customFormat="1" ht="16.5" customHeight="1" spans="8:8">
-      <c r="H33" s="2"/>
-    </row>
-    <row r="34" s="12" customFormat="1" ht="16.5" customHeight="1" spans="8:8">
-      <c r="H34" s="2"/>
-    </row>
-    <row r="35" s="12" customFormat="1" ht="16.5" customHeight="1" spans="8:8">
-      <c r="H35" s="2"/>
-    </row>
-    <row r="36" s="12" customFormat="1" ht="16.5" customHeight="1" spans="8:8">
-      <c r="H36" s="2"/>
-    </row>
-    <row r="37" s="12" customFormat="1" ht="16.5" customHeight="1" spans="8:8">
-      <c r="H37" s="2"/>
-    </row>
-    <row r="38" s="12" customFormat="1" ht="16.5" customHeight="1" spans="8:8">
-      <c r="H38" s="2"/>
-    </row>
-    <row r="39" s="12" customFormat="1" ht="16.5" customHeight="1" spans="8:8">
-      <c r="H39" s="2"/>
-    </row>
-    <row r="40" s="12" customFormat="1" ht="16.5" customHeight="1" spans="8:8">
-      <c r="H40" s="2"/>
+    </row>
+    <row customFormat="1" customHeight="1" ht="16.5" r="22" s="12" spans="1:9">
+      <c r="H22" s="2" t="n"/>
+    </row>
+    <row customFormat="1" customHeight="1" ht="16.5" r="23" s="12" spans="1:9">
+      <c r="H23" s="2" t="n"/>
+    </row>
+    <row customFormat="1" customHeight="1" ht="16.5" r="24" s="12" spans="1:9">
+      <c r="H24" s="2" t="n"/>
+    </row>
+    <row customFormat="1" customHeight="1" ht="16.5" r="25" s="12" spans="1:9">
+      <c r="H25" s="2" t="n"/>
+    </row>
+    <row customFormat="1" customHeight="1" ht="16.5" r="26" s="12" spans="1:9">
+      <c r="H26" s="2" t="n"/>
+    </row>
+    <row customFormat="1" customHeight="1" ht="16.5" r="27" s="12" spans="1:9">
+      <c r="H27" s="2" t="n"/>
+    </row>
+    <row customFormat="1" customHeight="1" ht="16.5" r="28" s="12" spans="1:9">
+      <c r="H28" s="2" t="n"/>
+    </row>
+    <row customFormat="1" customHeight="1" ht="16.5" r="29" s="12" spans="1:9">
+      <c r="H29" s="2" t="n"/>
+    </row>
+    <row customFormat="1" customHeight="1" ht="16.5" r="30" s="12" spans="1:9">
+      <c r="H30" s="2" t="n"/>
+    </row>
+    <row customFormat="1" customHeight="1" ht="16.5" r="31" s="12" spans="1:9">
+      <c r="H31" s="2" t="n"/>
+    </row>
+    <row customFormat="1" customHeight="1" ht="16.5" r="32" s="12" spans="1:9">
+      <c r="H32" s="2" t="n"/>
+    </row>
+    <row customFormat="1" customHeight="1" ht="16.5" r="33" s="12" spans="1:9">
+      <c r="H33" s="2" t="n"/>
+    </row>
+    <row customFormat="1" customHeight="1" ht="16.5" r="34" s="12" spans="1:9">
+      <c r="H34" s="2" t="n"/>
+    </row>
+    <row customFormat="1" customHeight="1" ht="16.5" r="35" s="12" spans="1:9">
+      <c r="H35" s="2" t="n"/>
+    </row>
+    <row customFormat="1" customHeight="1" ht="16.5" r="36" s="12" spans="1:9">
+      <c r="H36" s="2" t="n"/>
+    </row>
+    <row customFormat="1" customHeight="1" ht="16.5" r="37" s="12" spans="1:9">
+      <c r="H37" s="2" t="n"/>
+    </row>
+    <row customFormat="1" customHeight="1" ht="16.5" r="38" s="12" spans="1:9">
+      <c r="H38" s="2" t="n"/>
+    </row>
+    <row customFormat="1" customHeight="1" ht="16.5" r="39" s="12" spans="1:9">
+      <c r="H39" s="2" t="n"/>
+    </row>
+    <row customFormat="1" customHeight="1" ht="16.5" r="40" s="12" spans="1:9">
+      <c r="H40" s="2" t="n"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="0"/>
   <cols>
-    <col min="3" max="3" width="21.5" style="3" customWidth="1"/>
-    <col min="5" max="5" width="28.625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="22.875" style="13" customWidth="1"/>
-    <col min="7" max="7" width="40.25" style="3" customWidth="1"/>
-    <col min="8" max="8" width="43.5" style="13" customWidth="1"/>
-    <col min="9" max="9" width="21.5" style="3" customWidth="1"/>
+    <col customWidth="1" max="3" min="3" style="3" width="21.5"/>
+    <col customWidth="1" max="5" min="5" style="3" width="28.625"/>
+    <col customWidth="1" max="6" min="6" style="13" width="22.875"/>
+    <col customWidth="1" max="7" min="7" style="3" width="40.25"/>
+    <col customWidth="1" max="8" min="8" style="13" width="43.5"/>
+    <col customWidth="1" max="9" min="9" style="3" width="21.5"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="15" customHeight="1" spans="1:9">
+    <row customFormat="1" customHeight="1" ht="15" r="1" s="1" spans="1:9">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -4166,7 +4314,7 @@
         <v>116</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>84</v>
+        <v>117</v>
       </c>
       <c r="G1" s="5" t="s">
         <v>4</v>
@@ -4178,262 +4326,264 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" s="2" customFormat="1" ht="16.5" customHeight="1" spans="1:8">
-      <c r="A2" s="7">
+    <row customFormat="1" customHeight="1" ht="16.5" r="2" s="2" spans="1:9">
+      <c r="A2" s="7" t="n">
         <v>1</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>10</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F2" s="14" t="s">
         <v>60</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="H2" s="10" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="3" s="12" customFormat="1" ht="33" customHeight="1" spans="1:9">
-      <c r="A3" s="7">
+    <row customFormat="1" customHeight="1" ht="33" r="3" s="12" spans="1:9">
+      <c r="A3" s="7" t="n">
         <v>2</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C3" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="I3" s="12" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row customFormat="1" customHeight="1" ht="33" r="4" s="12" spans="1:9">
+      <c r="A4" s="7" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="12" t="s">
         <v>202</v>
       </c>
-      <c r="D3" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="10" t="s">
+      <c r="C4" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="G3" s="10" t="s">
-        <v>205</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="I3" s="12" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="4" s="12" customFormat="1" ht="33" customHeight="1" spans="1:8">
-      <c r="A4" s="7">
-        <v>3</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>201</v>
-      </c>
-      <c r="C4" s="9" t="s">
+      <c r="D4" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>209</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row customFormat="1" customHeight="1" ht="33" r="5" s="12" spans="1:9">
+      <c r="A5" s="7" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="12" t="s">
         <v>202</v>
       </c>
-      <c r="D4" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>208</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="G4" s="10" t="s">
-        <v>210</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="5" s="12" customFormat="1" ht="33" customHeight="1" spans="1:8">
-      <c r="A5" s="7">
-        <v>4</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>201</v>
-      </c>
       <c r="C5" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row customFormat="1" customHeight="1" ht="33" r="6" s="12" spans="1:9">
+      <c r="A6" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="12" t="s">
         <v>202</v>
       </c>
-      <c r="D5" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="12" t="s">
-        <v>212</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="G5" s="10" t="s">
-        <v>214</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="6" s="12" customFormat="1" ht="33" customHeight="1" spans="1:8">
-      <c r="A6" s="7">
-        <v>5</v>
-      </c>
-      <c r="B6" s="12" t="s">
-        <v>201</v>
-      </c>
       <c r="C6" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>217</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row customFormat="1" customHeight="1" ht="33" r="7" s="12" spans="1:9">
+      <c r="A7" s="7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="12" t="s">
         <v>202</v>
       </c>
-      <c r="D6" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="12" t="s">
-        <v>216</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="G6" s="10" t="s">
-        <v>218</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="7" s="12" customFormat="1" ht="33" customHeight="1" spans="1:8">
-      <c r="A7" s="7">
-        <v>6</v>
-      </c>
-      <c r="B7" s="12" t="s">
-        <v>201</v>
-      </c>
       <c r="C7" s="9" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>10</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="8" s="12" customFormat="1" ht="16.5" customHeight="1" spans="6:8">
+        <v>224</v>
+      </c>
+    </row>
+    <row customFormat="1" customHeight="1" ht="16.5" r="8" s="12" spans="1:9">
       <c r="F8" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="G8" s="15"/>
-      <c r="H8" s="2"/>
-    </row>
-    <row r="9" s="12" customFormat="1" ht="16.5" customHeight="1" spans="6:8">
+        <v>225</v>
+      </c>
+      <c r="G8" s="15" t="n"/>
+      <c r="H8" s="2" t="n"/>
+    </row>
+    <row customFormat="1" customHeight="1" ht="16.5" r="9" s="12" spans="1:9">
       <c r="F9" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="G9" s="15"/>
-      <c r="H9" s="2"/>
-    </row>
-    <row r="10" s="12" customFormat="1" ht="16.5" customHeight="1" spans="6:8">
+        <v>226</v>
+      </c>
+      <c r="G9" s="15" t="n"/>
+      <c r="H9" s="2" t="n"/>
+    </row>
+    <row customFormat="1" customHeight="1" ht="16.5" r="10" s="12" spans="1:9">
       <c r="F10" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="G10" s="15"/>
-      <c r="H10" s="2"/>
-    </row>
-    <row r="11" s="12" customFormat="1" ht="16.5" customHeight="1" spans="6:8">
+        <v>227</v>
+      </c>
+      <c r="G10" s="15" t="n"/>
+      <c r="H10" s="2" t="n"/>
+    </row>
+    <row customFormat="1" customHeight="1" ht="16.5" r="11" s="12" spans="1:9">
       <c r="F11" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="H11" s="2"/>
-    </row>
-    <row r="12" s="12" customFormat="1" ht="16.5" customHeight="1" spans="6:8">
+        <v>228</v>
+      </c>
+      <c r="H11" s="2" t="n"/>
+    </row>
+    <row customFormat="1" customHeight="1" ht="16.5" r="12" s="12" spans="1:9">
       <c r="F12" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="H12" s="2"/>
-    </row>
-    <row r="13" s="12" customFormat="1" ht="16.5" customHeight="1" spans="6:8">
+        <v>229</v>
+      </c>
+      <c r="H12" s="2" t="n"/>
+    </row>
+    <row customFormat="1" customHeight="1" ht="16.5" r="13" s="12" spans="1:9">
       <c r="F13" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="H13" s="2"/>
-    </row>
-    <row r="14" s="12" customFormat="1" ht="16.5" customHeight="1" spans="6:8">
+        <v>230</v>
+      </c>
+      <c r="H13" s="2" t="n"/>
+    </row>
+    <row customFormat="1" customHeight="1" ht="16.5" r="14" s="12" spans="1:9">
       <c r="F14" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="H14" s="2"/>
-    </row>
-    <row r="15" s="12" customFormat="1" ht="16.5" customHeight="1" spans="6:8">
+        <v>231</v>
+      </c>
+      <c r="H14" s="2" t="n"/>
+    </row>
+    <row customFormat="1" customHeight="1" ht="16.5" r="15" s="12" spans="1:9">
       <c r="F15" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="H15" s="2"/>
-    </row>
-    <row r="16" s="12" customFormat="1" ht="33" customHeight="1" spans="6:8">
+        <v>232</v>
+      </c>
+      <c r="H15" s="2" t="n"/>
+    </row>
+    <row customFormat="1" customHeight="1" ht="33" r="16" s="12" spans="1:9">
       <c r="F16" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="H16" s="2"/>
-    </row>
-    <row r="17" s="12" customFormat="1" ht="16.5" customHeight="1" spans="6:8">
+        <v>233</v>
+      </c>
+      <c r="H16" s="2" t="n"/>
+    </row>
+    <row customFormat="1" customHeight="1" ht="16.5" r="17" s="12" spans="1:9">
       <c r="F17" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="H17" s="2"/>
-    </row>
-    <row r="18" s="12" customFormat="1" ht="16.5" customHeight="1" spans="6:8">
+        <v>234</v>
+      </c>
+      <c r="H17" s="2" t="n"/>
+    </row>
+    <row customFormat="1" customHeight="1" ht="16.5" r="18" s="12" spans="1:9">
       <c r="F18" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="H18" s="2"/>
-    </row>
-    <row r="19" s="12" customFormat="1" ht="16.5" customHeight="1" spans="6:8">
+        <v>235</v>
+      </c>
+      <c r="H18" s="2" t="n"/>
+    </row>
+    <row customFormat="1" customHeight="1" ht="16.5" r="19" s="12" spans="1:9">
       <c r="F19" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="H19" s="2"/>
+        <v>236</v>
+      </c>
+      <c r="H19" s="2" t="n"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="0" outlineLevelRow="1"/>
   <cols>
-    <col min="2" max="2" width="10.375" style="3" customWidth="1"/>
-    <col min="3" max="3" width="19.625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="22.375" style="3" customWidth="1"/>
-    <col min="8" max="8" width="37.375" style="3" customWidth="1"/>
-    <col min="9" max="9" width="30" style="3" customWidth="1"/>
+    <col customWidth="1" max="2" min="2" style="3" width="10.375"/>
+    <col customWidth="1" max="3" min="3" style="3" width="19.625"/>
+    <col customWidth="1" max="7" min="7" style="3" width="22.375"/>
+    <col customWidth="1" max="8" min="8" style="3" width="37.375"/>
+    <col customWidth="1" max="9" min="9" style="3" width="30"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="30" customHeight="1" spans="1:9">
+    <row customFormat="1" customHeight="1" ht="30" r="1" s="1" spans="1:9">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -4450,7 +4600,7 @@
         <v>116</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>84</v>
+        <v>117</v>
       </c>
       <c r="G1" s="5" t="s">
         <v>4</v>
@@ -4462,37 +4612,36 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" s="2" customFormat="1" ht="99" customHeight="1" spans="1:9">
-      <c r="A2" s="7">
+    <row customFormat="1" customHeight="1" ht="99" r="2" s="2" spans="1:9">
+      <c r="A2" s="7" t="n">
         <v>1</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>10</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/python_api_test_qianchendai/test_data/test_case.xlsx
+++ b/python_api_test_qianchendai/test_data/test_case.xlsx
@@ -1,27 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="2" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12540" windowWidth="28125"/>
+    <workbookView windowWidth="28125" windowHeight="12540" activeTab="5"/>
   </bookViews>
   <sheets>
-    <sheet name="register" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="login" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="recharge" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="withdraw" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="list" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="add" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="audit" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="bidLoan" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="register" sheetId="1" r:id="rId1"/>
+    <sheet name="login" sheetId="2" r:id="rId2"/>
+    <sheet name="recharge" sheetId="3" r:id="rId3"/>
+    <sheet name="withdraw" sheetId="4" r:id="rId4"/>
+    <sheet name="list" sheetId="5" r:id="rId5"/>
+    <sheet name="add" sheetId="6" r:id="rId6"/>
+    <sheet name="audit" sheetId="7" r:id="rId7"/>
+    <sheet name="bidLoan" sheetId="8" r:id="rId8"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="144525" fullCalcOnLoad="1"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="631" uniqueCount="216">
   <si>
     <t>case_id</t>
   </si>
@@ -299,7 +299,7 @@
 2.financeLog表新增一条流水记录</t>
   </si>
   <si>
-    <t>{"status":1,"code":"10001","data":{"id":102109,"regname":"小蜜蜂","pwd":"E10ADC3949BA59ABBE56E057F20F883E","mobilephone":"13201231230","leaveamount":"1900.00","type":"1","regtime":"2019-07-17 15:54:46.0"},"msg":"充值成功"}</t>
+    <t>{"status":1,"code":"10001","data":{"id":102109,"regname":"小蜜蜂","pwd":"E10ADC3949BA59ABBE56E057F20F883E","mobilephone":"13201231230","leaveamount":"3800.01","type":"1","regtime":"2019-07-17 15:54:46.0"},"msg":"充值成功"}</t>
   </si>
   <si>
     <t>{"status":1,"code":"10001","data":{"id":102109,"regname":"小蜜蜂","pwd":"E10ADC3949BA59ABBE56E057F20F883E","mobilephone":"13201231230","leaveamount":"100.00","type":"1","regtime":"2019-07-17 15:54:46.0"},"msg":"充值成功"}</t>
@@ -377,47 +377,20 @@
     <t>{"status":0,"code":"20118","data":null,"msg":"请输入数字"}</t>
   </si>
   <si>
-    <t>接口功能</t>
-  </si>
-  <si>
-    <t>api_name</t>
-  </si>
-  <si>
-    <t>用例说明</t>
-  </si>
-  <si>
-    <t>登录</t>
-  </si>
-  <si>
-    <t>login_success</t>
-  </si>
-  <si>
-    <t>{"mobilephone":"13201231230","pwd":"123456"}</t>
-  </si>
-  <si>
-    <t>取现</t>
+    <t>{"mobilephone":"${normal_name}","pwd":"${pwd}"}</t>
   </si>
   <si>
     <t>/futureloan/mvc/api/member/withdraw</t>
   </si>
   <si>
-    <t>withdraw_success</t>
-  </si>
-  <si>
     <t>成功提现</t>
-  </si>
-  <si>
-    <t>{"mobilephone":"13201231230","amount":"100"}</t>
-  </si>
-  <si>
-    <t>{"status":1,"code":"10001","data":{"id":102109,"regname":"小蜜蜂","pwd":"E10ADC3949BA59ABBE56E057F20F883E","mobilephone":"13201231230","leaveamount":"1000.00","type":"1","regtime":"2019-07-17 15:54:46.0"},"msg":"取现成功"}</t>
   </si>
   <si>
     <t>1.member 表对应记录的 leaveAmount余额减少
 2.financeLog表新增一条流水记录</t>
   </si>
   <si>
-    <t>withdraw_fail_MobiliephoneNoRegister</t>
+    <t>{"status":1,"code":"10001","data":{"id":102109,"regname":"小蜜蜂","pwd":"E10ADC3949BA59ABBE56E057F20F883E","mobilephone":"13201231230","leaveamount":"3700.01","type":"1","regtime":"2019-07-17 15:54:46.0"},"msg":"取现成功"}</t>
   </si>
   <si>
     <t>{"mobilephone":"13208985248","amount":"100"}</t>
@@ -426,81 +399,24 @@
     <t>{"status":1,"code":"20104","data":null,"msg":"此手机号对应的会员不存在"}</t>
   </si>
   <si>
-    <t>withdraw_fail_MobiliephoneIsNull</t>
-  </si>
-  <si>
-    <t>withdraw_fail_MobiliephoneIsUnderElevenPlace</t>
-  </si>
-  <si>
-    <t>withdraw_fail_mobilephoneIsMoreThanElevenPlace</t>
-  </si>
-  <si>
-    <t>withdraw_fail_mobilephoneWithSpaceInFront</t>
-  </si>
-  <si>
-    <t>withdraw_fail_mobilephoneWithSpace</t>
-  </si>
-  <si>
     <t>{"mobilephone":"132 0123 1230","amount":"100"}</t>
   </si>
   <si>
-    <t>withdraw_fail_mobilephoneWithSpaceInBehind</t>
-  </si>
-  <si>
-    <t>withdraw_fail_mobilephoneWithOtherCharacters</t>
-  </si>
-  <si>
-    <t>withdraw_fail_amountIsNull</t>
-  </si>
-  <si>
-    <t>{"mobilephone":"13201231230","amount":""}</t>
-  </si>
-  <si>
-    <t>withdraw_fail_amountIsUnderZero</t>
-  </si>
-  <si>
-    <t>{"mobilephone":"13201231230","amount":"-100"}</t>
-  </si>
-  <si>
-    <t>withdraw_fail_amountIsMoreThanFiveHundredThousand</t>
-  </si>
-  <si>
-    <t>{"mobilephone":"13201231230","amount":"500000.01"}</t>
-  </si>
-  <si>
-    <t>withdraw_fail_amountIsMoreThanTwoDecimalPlaces</t>
-  </si>
-  <si>
-    <t>{"mobilephone":"13201231230","amount":"100.001"}</t>
-  </si>
-  <si>
-    <t>withdraw_fail_amountNotDigit</t>
-  </si>
-  <si>
-    <t>{"mobilephone":"13201231230","amount":"一百"}</t>
-  </si>
-  <si>
-    <t>withdraw_fail_amountMoreThanLeaveamount</t>
-  </si>
-  <si>
     <t>提现额度大于余额</t>
   </si>
   <si>
-    <t>{"mobilephone":"13201231230","amount":"500000"}</t>
+    <t>{"mobilephone":"${normal_name}","amount":"500000"}</t>
   </si>
   <si>
     <t>{"status":1,"code":"20119","data":null,"msg":"余额不足，请修改提现额度"}</t>
   </si>
   <si>
-    <t>新增项目</t>
+    <t>{"mobilephone":"13201231230","pwd":"123456"}</t>
   </si>
   <si>
     <t>/futureloan/mvc/api/loan/add</t>
   </si>
   <si>
-    <t>add_success</t>
-  </si>
-  <si>
     <t>成功加标</t>
   </si>
   <si>
@@ -513,9 +429,6 @@
     <t>loan表中新增一条记录</t>
   </si>
   <si>
-    <t>add_fail_memberIdIsNull</t>
-  </si>
-  <si>
     <t>用户id为空</t>
   </si>
   <si>
@@ -525,9 +438,6 @@
     <t>{"status":0,"code":"20103","data":null,"msg":"所有参数不能为空"}</t>
   </si>
   <si>
-    <t>add_fail_memberIdIsError</t>
-  </si>
-  <si>
     <t>用户id不存在</t>
   </si>
   <si>
@@ -537,9 +447,6 @@
     <t>{"status":0,"code":"20105","data":null,"msg":"不存在该会员"}</t>
   </si>
   <si>
-    <t>add_fail_memberIdIsFloat</t>
-  </si>
-  <si>
     <t>用户id为浮点型</t>
   </si>
   <si>
@@ -549,18 +456,12 @@
     <t>{"status":0,"code":"20109","data":null,"msg":"请根据数值参数的类型对应输入合法的数字"}</t>
   </si>
   <si>
-    <t>add_fail_memberIdNotDigit</t>
-  </si>
-  <si>
     <t>用户id非数字</t>
   </si>
   <si>
     <t>{"memberId":"壹零贰壹零玖","title":"集资买胖五"，"amount":"200000","loanRate":"18","loanTerm":"6"，"loanDateType":"0","repaymemtWay":"4"，"biddingDays":"10"}</t>
   </si>
   <si>
-    <t>add_fail_memberIdIsNegative</t>
-  </si>
-  <si>
     <t>用户id为负数</t>
   </si>
   <si>
@@ -570,75 +471,99 @@
     <t>{"status":0,"code":"20104","data":null,"msg":"参数错误：用户ID memberId必须是正整数"}</t>
   </si>
   <si>
-    <t>add_fail_titleIsNull</t>
-  </si>
-  <si>
     <t>标题为空</t>
   </si>
   <si>
     <t>{"memberId":"102109","title":""，"amount":"200000","loanRate":"18","loanTerm":"6"，"loanDateType":"0","repaymemtWay":"4"，"biddingDays":"10"}</t>
   </si>
   <si>
-    <t>add_fail_titleIsRepeat</t>
-  </si>
-  <si>
     <t>标题重复</t>
   </si>
   <si>
     <t>{"memberId":"102109","title":"集资买胖五"，"amount":"1000","loanRate":"18","loanTerm":"6"，"loanDateType":"0","repaymemtWay":"4"，"biddingDays":"10"}</t>
   </si>
   <si>
-    <t>add_fail_titleIsNotStr</t>
-  </si>
-  <si>
     <t>标题非字符串</t>
   </si>
   <si>
     <t>{"memberId":"102109","title":111.111，"amount":"1000","loanRate":"18","loanTerm":"6"，"loanDateType":"0","repaymemtWay":"4"，"biddingDays":"10"}</t>
   </si>
   <si>
-    <t>add_fail_titleIsSpance</t>
-  </si>
-  <si>
     <t>标题为空格</t>
   </si>
   <si>
     <t>{"memberId":"102109","title":"  "，"amount":"1000","loanRate":"18","loanTerm":"6"，"loanDateType":"0","repaymemtWay":"4"，"biddingDays":"10"}</t>
   </si>
   <si>
-    <t>add_fail_amountIsNull</t>
-  </si>
-  <si>
     <t>借款金额为空</t>
   </si>
   <si>
+    <t>{"memberId":"102109","title":"集资买胖五"，"amount":"","loanRate":"18","loanTerm":"6"，"loanDateType":"0","repaymemtWay":"4"，"biddingDays":"10"}</t>
+  </si>
+  <si>
     <t>借款金额为1000</t>
   </si>
   <si>
     <t>借款金额为1100.1</t>
   </si>
   <si>
+    <t>{"memberId":"102109","title":"集资买胖五"，"amount":"1100.1","loanRate":"18","loanTerm":"6"，"loanDateType":"0","repaymemtWay":"4"，"biddingDays":"10"}</t>
+  </si>
+  <si>
     <t>借款金额为1001</t>
   </si>
   <si>
+    <t>{"memberId":"102109","title":"集资买胖五"，"amount":"1001","loanRate":"18","loanTerm":"6"，"loanDateType":"0","repaymemtWay":"4"，"biddingDays":"10"}</t>
+  </si>
+  <si>
     <t>借款金额为-1100</t>
   </si>
   <si>
+    <t>{"memberId":"102109","title":"集资买胖五"，"amount":"-1100","loanRate":"18","loanTerm":"6"，"loanDateType":"0","repaymemtWay":"4"，"biddingDays":"10"}</t>
+  </si>
+  <si>
     <t>借款金额为汉字一千</t>
   </si>
   <si>
+    <t>{"memberId":"102109","title":"集资买胖五"，"amount":"一千","loanRate":"18","loanTerm":"6"，"loanDateType":"0","repaymemtWay":"4"，"biddingDays":"10"}</t>
+  </si>
+  <si>
     <t>年利率为空</t>
   </si>
   <si>
+    <t>{"memberId":"102109","title":"集资买胖五"，"amount":"200000","loanRate":"","loanTerm":"6"，"loanDateType":"0","repaymemtWay":"4"，"biddingDays":"10"}</t>
+  </si>
+  <si>
     <t>年利率为0</t>
   </si>
   <si>
+    <t>{"memberId":"102109","title":"集资买胖五"，"amount":"200000","loanRate":"0","loanTerm":"6"，"loanDateType":"0","repaymemtWay":"4"，"biddingDays":"10"}</t>
+  </si>
+  <si>
     <t>{"status":0,"code":"20107","data":null,"msg":"参数错误：借款利率loanRate值必须大于0小于或等于24"}</t>
   </si>
   <si>
     <t>年利率为25</t>
   </si>
   <si>
+    <t>{"memberId":"102109","title":"集资买胖五"，"amount":"200000","loanRate":"25","loanTerm":"6"，"loanDateType":"0","repaymemtWay":"4"，"biddingDays":"10"}</t>
+  </si>
+  <si>
+    <t>接口功能</t>
+  </si>
+  <si>
+    <t>api_name</t>
+  </si>
+  <si>
+    <t>用例说明</t>
+  </si>
+  <si>
+    <t>登录</t>
+  </si>
+  <si>
+    <t>login_success</t>
+  </si>
+  <si>
     <t>审核</t>
   </si>
   <si>
@@ -744,7 +669,16 @@
     <t>直接跟新状态到"还款中"</t>
   </si>
   <si>
-    <t>{"status":1,"code":"10001","data":{"id":102109,"regname":"小蜜蜂","pwd":"E10ADC3949BA59ABBE56E057F20F883E","mobilephone":"13201231230","leaveamount":"2000.00","type":"1","regtime":"2019-07-17 15:54:46.0"},"msg":"充值成功"}</t>
+    <t>取现</t>
+  </si>
+  <si>
+    <t>withdraw_success</t>
+  </si>
+  <si>
+    <t>{"mobilephone":"13201231230","amount":"100"}</t>
+  </si>
+  <si>
+    <t>{"status":1,"code":"10001","data":{"id":102109,"regname":"小蜜蜂","pwd":"E10ADC3949BA59ABBE56E057F20F883E","mobilephone":"13201231230","leaveamount":"1000.00","type":"1","regtime":"2019-07-17 15:54:46.0"},"msg":"取现成功"}</t>
   </si>
 </sst>
 </file>
@@ -752,220 +686,220 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ " numFmtId="164"/>
-    <numFmt formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ " numFmtId="165"/>
-    <numFmt formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ " numFmtId="166"/>
-    <numFmt formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ " numFmtId="167"/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="28">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
-      <b val="1"/>
-      <color theme="1"/>
-      <sz val="11"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
-      <color theme="1"/>
-      <sz val="10"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
-      <color rgb="FF000000"/>
-      <sz val="10"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
-      <color theme="1"/>
-      <sz val="11"/>
     </font>
     <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <b val="1"/>
-      <color theme="1"/>
-      <sz val="12"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
-      <color theme="1"/>
-      <sz val="12"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <color theme="1"/>
-      <sz val="12"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
-      <b val="1"/>
-      <color theme="1"/>
-      <sz val="12"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <color theme="0"/>
-      <sz val="11"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <i val="1"/>
-      <color rgb="FF7F7F7F"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="11"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF9C0006"/>
-      <sz val="11"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFFFFFF"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="13"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <color rgb="FFFF0000"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <color rgb="FF3F3F76"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FF3F3F3F"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF800080"/>
-      <sz val="11"/>
-      <u val="single"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <color rgb="FF006100"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <b val="1"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="18"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <color rgb="FF9C6500"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <color rgb="FF0000FF"/>
-      <sz val="11"/>
-      <u val="single"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="15"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="34">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -978,7 +912,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -990,7 +936,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1002,13 +960,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1020,49 +996,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1080,7 +1020,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1092,19 +1038,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1116,25 +1056,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1146,7 +1074,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1158,7 +1092,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1200,15 +1134,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1224,6 +1149,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1235,30 +1169,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1297,324 +1207,359 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="164">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="14" fontId="9" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="4" fillId="18" fontId="19" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="165">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="166">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="9" fontId="9" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="10" fontId="15" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="167">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="25" fontId="12" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="26" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="21" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="5" fillId="6" fontId="0" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="22" fontId="12" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="14" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="18" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="24" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="13" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="7" fillId="0" fontId="27" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="7" fillId="0" fontId="17" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="29" fontId="12" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="10" fillId="0" fontId="14" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="5" fontId="12" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="8" fillId="4" fontId="20" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="4" fillId="4" fontId="11" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="6" fillId="13" fontId="16" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="8" fontId="9" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="33" fontId="12" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="3" fillId="0" fontId="10" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="23" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="24" fontId="22" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="28" fontId="25" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="27" fontId="9" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="32" fontId="12" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="21" fontId="9" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="12" fontId="9" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="3" fontId="9" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="17" fontId="9" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="7" fontId="12" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="31" fontId="12" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="20" fontId="9" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="11" fontId="9" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="16" fontId="12" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="15" fontId="9" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="23" fontId="12" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="26" fontId="12" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="19" fontId="9" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="30" fontId="12" numFmtId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="33" borderId="10">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="9">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="40">
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="42">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="2" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="2" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="1" fillId="2" fontId="8" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="1" fillId="2" fontId="8" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="2" fillId="0" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
-    <cellStyle builtinId="0" name="常规" xfId="0"/>
-    <cellStyle builtinId="7" name="货币[0]" xfId="1"/>
-    <cellStyle builtinId="38" name="20% - 强调文字颜色 3" xfId="2"/>
-    <cellStyle builtinId="20" name="输入" xfId="3"/>
-    <cellStyle builtinId="4" name="货币" xfId="4"/>
-    <cellStyle builtinId="6" name="千位分隔[0]" xfId="5"/>
-    <cellStyle builtinId="39" name="40% - 强调文字颜色 3" xfId="6"/>
-    <cellStyle builtinId="27" name="差" xfId="7"/>
-    <cellStyle builtinId="3" name="千位分隔" xfId="8"/>
-    <cellStyle builtinId="40" name="60% - 强调文字颜色 3" xfId="9"/>
-    <cellStyle builtinId="8" name="超链接" xfId="10"/>
-    <cellStyle builtinId="5" name="百分比" xfId="11"/>
-    <cellStyle builtinId="9" name="已访问的超链接" xfId="12"/>
-    <cellStyle builtinId="10" name="注释" xfId="13"/>
-    <cellStyle builtinId="36" name="60% - 强调文字颜色 2" xfId="14"/>
-    <cellStyle builtinId="19" name="标题 4" xfId="15"/>
-    <cellStyle builtinId="11" name="警告文本" xfId="16"/>
-    <cellStyle builtinId="15" name="标题" xfId="17"/>
-    <cellStyle builtinId="53" name="解释性文本" xfId="18"/>
-    <cellStyle builtinId="16" name="标题 1" xfId="19"/>
-    <cellStyle builtinId="17" name="标题 2" xfId="20"/>
-    <cellStyle builtinId="32" name="60% - 强调文字颜色 1" xfId="21"/>
-    <cellStyle builtinId="18" name="标题 3" xfId="22"/>
-    <cellStyle builtinId="44" name="60% - 强调文字颜色 4" xfId="23"/>
-    <cellStyle builtinId="21" name="输出" xfId="24"/>
-    <cellStyle builtinId="22" name="计算" xfId="25"/>
-    <cellStyle builtinId="23" name="检查单元格" xfId="26"/>
-    <cellStyle builtinId="50" name="20% - 强调文字颜色 6" xfId="27"/>
-    <cellStyle builtinId="33" name="强调文字颜色 2" xfId="28"/>
-    <cellStyle builtinId="24" name="链接单元格" xfId="29"/>
-    <cellStyle builtinId="25" name="汇总" xfId="30"/>
-    <cellStyle builtinId="26" name="好" xfId="31"/>
-    <cellStyle builtinId="28" name="适中" xfId="32"/>
-    <cellStyle builtinId="46" name="20% - 强调文字颜色 5" xfId="33"/>
-    <cellStyle builtinId="29" name="强调文字颜色 1" xfId="34"/>
-    <cellStyle builtinId="30" name="20% - 强调文字颜色 1" xfId="35"/>
-    <cellStyle builtinId="31" name="40% - 强调文字颜色 1" xfId="36"/>
-    <cellStyle builtinId="34" name="20% - 强调文字颜色 2" xfId="37"/>
-    <cellStyle builtinId="35" name="40% - 强调文字颜色 2" xfId="38"/>
-    <cellStyle builtinId="37" name="强调文字颜色 3" xfId="39"/>
-    <cellStyle builtinId="41" name="强调文字颜色 4" xfId="40"/>
-    <cellStyle builtinId="42" name="20% - 强调文字颜色 4" xfId="41"/>
-    <cellStyle builtinId="43" name="40% - 强调文字颜色 4" xfId="42"/>
-    <cellStyle builtinId="45" name="强调文字颜色 5" xfId="43"/>
-    <cellStyle builtinId="47" name="40% - 强调文字颜色 5" xfId="44"/>
-    <cellStyle builtinId="48" name="60% - 强调文字颜色 5" xfId="45"/>
-    <cellStyle builtinId="49" name="强调文字颜色 6" xfId="46"/>
-    <cellStyle builtinId="51" name="40% - 强调文字颜色 6" xfId="47"/>
-    <cellStyle builtinId="52" name="60% - 强调文字颜色 6" xfId="48"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1903,79 +1848,76 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:I19"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="90" zoomScaleNormal="90">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="26" width="13.6083333333333"/>
-    <col customWidth="1" max="2" min="2" style="27" width="39.0333333333333"/>
-    <col customWidth="1" max="3" min="3" style="27" width="10.5583333333333"/>
-    <col customWidth="1" max="4" min="4" style="28" width="21.9416666666667"/>
-    <col customWidth="1" max="5" min="5" style="27" width="80.8333333333333"/>
-    <col customWidth="1" max="6" min="6" style="29" width="61.3916666666667"/>
-    <col customWidth="1" max="7" min="7" style="30" width="43.4666666666667"/>
-    <col customWidth="1" max="8" min="8" style="30" width="72.2166666666667"/>
-    <col customWidth="1" max="16384" min="9" style="30" width="9"/>
+    <col min="1" max="1" width="13.6083333333333" style="28" customWidth="1"/>
+    <col min="2" max="2" width="39.0333333333333" style="29" customWidth="1"/>
+    <col min="3" max="3" width="10.5583333333333" style="29" customWidth="1"/>
+    <col min="4" max="4" width="21.9416666666667" style="30" customWidth="1"/>
+    <col min="5" max="5" width="80.8333333333333" style="29" customWidth="1"/>
+    <col min="6" max="6" width="61.3916666666667" style="31" customWidth="1"/>
+    <col min="7" max="7" width="43.4666666666667" style="32" customWidth="1"/>
+    <col min="8" max="8" width="72.2166666666667" style="32" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="32" customWidth="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="18" r="1" s="24" spans="1:9">
-      <c r="A1" s="31" t="s">
+    <row r="1" s="26" customFormat="1" ht="18" customHeight="1" spans="1:9">
+      <c r="A1" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="32" t="s">
+      <c r="B1" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="32" t="s">
+      <c r="C1" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="32" t="s">
+      <c r="D1" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="32" t="s">
+      <c r="E1" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="33" t="s">
+      <c r="F1" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="24" t="s">
+      <c r="G1" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="24" t="s">
+      <c r="H1" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="24" t="s">
+      <c r="I1" s="26" t="s">
         <v>8</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="103.5" r="2" s="25" spans="1:9">
-      <c r="A2" s="34" t="n">
+    <row r="2" s="27" customFormat="1" ht="103.5" customHeight="1" spans="1:9">
+      <c r="A2" s="36">
         <v>1</v>
       </c>
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="36" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="37" t="s">
+      <c r="C2" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="38" t="s">
+      <c r="E2" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="38" t="s">
+      <c r="F2" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="25" t="s">
+      <c r="G2" s="27" t="s">
         <v>14</v>
       </c>
       <c r="H2" s="13" t="s">
@@ -1985,26 +1927,26 @@
         <v>16</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="103.5" r="3" s="25" spans="1:9">
-      <c r="A3" s="34" t="n">
+    <row r="3" s="27" customFormat="1" ht="103.5" customHeight="1" spans="1:9">
+      <c r="A3" s="36">
         <v>2</v>
       </c>
-      <c r="B3" s="35" t="s">
+      <c r="B3" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="36" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="37" t="s">
+      <c r="C3" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="38" t="s">
+      <c r="E3" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="38" t="s">
+      <c r="F3" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="25" t="s">
+      <c r="G3" s="27" t="s">
         <v>19</v>
       </c>
       <c r="H3" s="13" t="s">
@@ -2014,26 +1956,26 @@
         <v>20</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="17.25" r="4" s="25" spans="1:9">
-      <c r="A4" s="34" t="n">
+    <row r="4" s="27" customFormat="1" ht="17.25" customHeight="1" spans="1:9">
+      <c r="A4" s="36">
         <v>3</v>
       </c>
-      <c r="B4" s="35" t="s">
+      <c r="B4" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="36" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="37" t="s">
+      <c r="C4" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="38" t="s">
+      <c r="E4" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="38" t="s">
+      <c r="F4" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="G4" s="25" t="s">
+      <c r="G4" s="27" t="s">
         <v>24</v>
       </c>
       <c r="H4" s="13" t="s">
@@ -2043,23 +1985,23 @@
         <v>20</v>
       </c>
     </row>
-    <row customHeight="1" ht="17.25" r="5" s="3" spans="1:9">
-      <c r="A5" s="34" t="n">
+    <row r="5" ht="17.25" customHeight="1" spans="1:9">
+      <c r="A5" s="36">
         <v>4</v>
       </c>
-      <c r="B5" s="35" t="s">
+      <c r="B5" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="36" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="39" t="s">
+      <c r="C5" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="E5" s="38" t="s">
+      <c r="E5" s="40" t="s">
         <v>26</v>
       </c>
-      <c r="F5" s="38" t="s">
+      <c r="F5" s="40" t="s">
         <v>15</v>
       </c>
       <c r="H5" s="13" t="s">
@@ -2069,23 +2011,23 @@
         <v>20</v>
       </c>
     </row>
-    <row customHeight="1" ht="34.5" r="6" s="3" spans="1:9">
-      <c r="A6" s="34" t="n">
+    <row r="6" ht="34.5" customHeight="1" spans="1:9">
+      <c r="A6" s="36">
         <v>5</v>
       </c>
-      <c r="B6" s="35" t="s">
+      <c r="B6" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="36" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="39" t="s">
+      <c r="C6" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="E6" s="38" t="s">
+      <c r="E6" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="F6" s="38" t="s">
+      <c r="F6" s="40" t="s">
         <v>29</v>
       </c>
       <c r="H6" s="13" t="s">
@@ -2095,23 +2037,23 @@
         <v>20</v>
       </c>
     </row>
-    <row customHeight="1" ht="34.5" r="7" s="3" spans="1:9">
-      <c r="A7" s="34" t="n">
+    <row r="7" ht="34.5" customHeight="1" spans="1:9">
+      <c r="A7" s="36">
         <v>6</v>
       </c>
-      <c r="B7" s="35" t="s">
+      <c r="B7" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="36" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="39" t="s">
+      <c r="C7" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="E7" s="38" t="s">
+      <c r="E7" s="40" t="s">
         <v>31</v>
       </c>
-      <c r="F7" s="38" t="s">
+      <c r="F7" s="40" t="s">
         <v>29</v>
       </c>
       <c r="H7" s="13" t="s">
@@ -2121,23 +2063,23 @@
         <v>20</v>
       </c>
     </row>
-    <row customHeight="1" ht="34.5" r="8" s="3" spans="1:9">
-      <c r="A8" s="34" t="n">
+    <row r="8" ht="34.5" customHeight="1" spans="1:9">
+      <c r="A8" s="36">
         <v>7</v>
       </c>
-      <c r="B8" s="35" t="s">
+      <c r="B8" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="36" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="39" t="s">
+      <c r="C8" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="E8" s="38" t="s">
+      <c r="E8" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="F8" s="38" t="s">
+      <c r="F8" s="40" t="s">
         <v>29</v>
       </c>
       <c r="H8" s="13" t="s">
@@ -2147,23 +2089,23 @@
         <v>20</v>
       </c>
     </row>
-    <row customHeight="1" ht="17.25" r="9" s="3" spans="1:9">
-      <c r="A9" s="34" t="n">
+    <row r="9" ht="17.25" customHeight="1" spans="1:9">
+      <c r="A9" s="36">
         <v>8</v>
       </c>
-      <c r="B9" s="35" t="s">
+      <c r="B9" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="36" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" s="39" t="s">
+      <c r="C9" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="E9" s="38" t="s">
+      <c r="E9" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="F9" s="38" t="s">
+      <c r="F9" s="40" t="s">
         <v>29</v>
       </c>
       <c r="H9" s="13" t="s">
@@ -2173,23 +2115,23 @@
         <v>20</v>
       </c>
     </row>
-    <row customHeight="1" ht="34.5" r="10" s="3" spans="1:9">
-      <c r="A10" s="34" t="n">
+    <row r="10" ht="34.5" customHeight="1" spans="1:9">
+      <c r="A10" s="36">
         <v>9</v>
       </c>
-      <c r="B10" s="35" t="s">
+      <c r="B10" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="36" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" s="39" t="s">
+      <c r="C10" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="E10" s="38" t="s">
+      <c r="E10" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="F10" s="38" t="s">
+      <c r="F10" s="40" t="s">
         <v>29</v>
       </c>
       <c r="H10" s="13" t="s">
@@ -2199,23 +2141,23 @@
         <v>20</v>
       </c>
     </row>
-    <row customHeight="1" ht="17.25" r="11" s="3" spans="1:9">
-      <c r="A11" s="34" t="n">
-        <v>10</v>
-      </c>
-      <c r="B11" s="35" t="s">
+    <row r="11" ht="17.25" customHeight="1" spans="1:9">
+      <c r="A11" s="36">
+        <v>10</v>
+      </c>
+      <c r="B11" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="36" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11" s="39" t="s">
+      <c r="C11" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="E11" s="38" t="s">
+      <c r="E11" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="F11" s="38" t="s">
+      <c r="F11" s="40" t="s">
         <v>29</v>
       </c>
       <c r="H11" s="13" t="s">
@@ -2225,23 +2167,23 @@
         <v>20</v>
       </c>
     </row>
-    <row customHeight="1" ht="34.5" r="12" s="3" spans="1:9">
-      <c r="A12" s="34" t="n">
+    <row r="12" ht="34.5" customHeight="1" spans="1:9">
+      <c r="A12" s="36">
         <v>11</v>
       </c>
-      <c r="B12" s="35" t="s">
+      <c r="B12" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="36" t="s">
-        <v>10</v>
-      </c>
-      <c r="D12" s="39" t="s">
+      <c r="C12" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="E12" s="38" t="s">
+      <c r="E12" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="F12" s="38" t="s">
+      <c r="F12" s="40" t="s">
         <v>29</v>
       </c>
       <c r="H12" s="13" t="s">
@@ -2251,23 +2193,23 @@
         <v>20</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="17.25" r="13" s="25" spans="1:9">
-      <c r="A13" s="34" t="n">
+    <row r="13" s="27" customFormat="1" ht="17.25" customHeight="1" spans="1:9">
+      <c r="A13" s="36">
         <v>12</v>
       </c>
-      <c r="B13" s="35" t="s">
+      <c r="B13" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="36" t="s">
-        <v>10</v>
-      </c>
-      <c r="D13" s="36" t="s">
+      <c r="C13" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E13" s="38" t="s">
+      <c r="E13" s="40" t="s">
         <v>43</v>
       </c>
-      <c r="F13" s="38" t="s">
+      <c r="F13" s="40" t="s">
         <v>44</v>
       </c>
       <c r="H13" s="13" t="s">
@@ -2277,23 +2219,23 @@
         <v>20</v>
       </c>
     </row>
-    <row customHeight="1" ht="34.5" r="14" s="3" spans="1:9">
-      <c r="A14" s="34" t="n">
+    <row r="14" ht="34.5" customHeight="1" spans="1:9">
+      <c r="A14" s="36">
         <v>13</v>
       </c>
-      <c r="B14" s="35" t="s">
+      <c r="B14" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="36" t="s">
-        <v>10</v>
-      </c>
-      <c r="D14" s="36" t="s">
+      <c r="C14" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="38" t="s">
         <v>45</v>
       </c>
-      <c r="E14" s="38" t="s">
+      <c r="E14" s="40" t="s">
         <v>46</v>
       </c>
-      <c r="F14" s="38" t="s">
+      <c r="F14" s="40" t="s">
         <v>47</v>
       </c>
       <c r="H14" s="13" t="s">
@@ -2303,23 +2245,23 @@
         <v>20</v>
       </c>
     </row>
-    <row customHeight="1" ht="34.5" r="15" s="3" spans="1:9">
-      <c r="A15" s="34" t="n">
+    <row r="15" ht="34.5" customHeight="1" spans="1:9">
+      <c r="A15" s="36">
         <v>14</v>
       </c>
-      <c r="B15" s="35" t="s">
+      <c r="B15" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="36" t="s">
-        <v>10</v>
-      </c>
-      <c r="D15" s="36" t="s">
+      <c r="C15" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="E15" s="38" t="s">
+      <c r="E15" s="40" t="s">
         <v>49</v>
       </c>
-      <c r="F15" s="38" t="s">
+      <c r="F15" s="40" t="s">
         <v>47</v>
       </c>
       <c r="H15" s="13" t="s">
@@ -2329,23 +2271,23 @@
         <v>20</v>
       </c>
     </row>
-    <row customHeight="1" ht="17.25" r="16" s="3" spans="1:9">
-      <c r="A16" s="34" t="n">
+    <row r="16" ht="17.25" customHeight="1" spans="1:9">
+      <c r="A16" s="36">
         <v>15</v>
       </c>
-      <c r="B16" s="35" t="s">
+      <c r="B16" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="36" t="s">
-        <v>10</v>
-      </c>
-      <c r="D16" s="36" t="s">
+      <c r="C16" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" s="38" t="s">
         <v>50</v>
       </c>
-      <c r="E16" s="38" t="s">
+      <c r="E16" s="40" t="s">
         <v>51</v>
       </c>
-      <c r="F16" s="38" t="s">
+      <c r="F16" s="40" t="s">
         <v>52</v>
       </c>
       <c r="H16" s="13" t="s">
@@ -2355,23 +2297,23 @@
         <v>16</v>
       </c>
     </row>
-    <row customHeight="1" ht="17.25" r="17" s="3" spans="1:9">
-      <c r="A17" s="34" t="n">
+    <row r="17" ht="17.25" customHeight="1" spans="1:9">
+      <c r="A17" s="36">
         <v>16</v>
       </c>
-      <c r="B17" s="35" t="s">
+      <c r="B17" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="36" t="s">
-        <v>10</v>
-      </c>
-      <c r="D17" s="36" t="s">
+      <c r="C17" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" s="38" t="s">
         <v>53</v>
       </c>
-      <c r="E17" s="38" t="s">
+      <c r="E17" s="40" t="s">
         <v>54</v>
       </c>
-      <c r="F17" s="38" t="s">
+      <c r="F17" s="40" t="s">
         <v>52</v>
       </c>
       <c r="H17" s="13" t="s">
@@ -2381,23 +2323,23 @@
         <v>16</v>
       </c>
     </row>
-    <row customHeight="1" ht="17.25" r="18" s="3" spans="1:9">
-      <c r="A18" s="34" t="n">
+    <row r="18" ht="17.25" customHeight="1" spans="1:9">
+      <c r="A18" s="36">
         <v>17</v>
       </c>
-      <c r="B18" s="35" t="s">
+      <c r="B18" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="C18" s="36" t="s">
-        <v>10</v>
-      </c>
-      <c r="D18" s="36" t="s">
+      <c r="C18" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" s="38" t="s">
         <v>55</v>
       </c>
-      <c r="E18" s="38" t="s">
+      <c r="E18" s="40" t="s">
         <v>56</v>
       </c>
-      <c r="F18" s="38" t="s">
+      <c r="F18" s="40" t="s">
         <v>52</v>
       </c>
       <c r="H18" s="13" t="s">
@@ -2407,23 +2349,23 @@
         <v>16</v>
       </c>
     </row>
-    <row customHeight="1" ht="17.25" r="19" s="3" spans="1:9">
-      <c r="A19" s="34" t="n">
+    <row r="19" ht="17.25" customHeight="1" spans="1:9">
+      <c r="A19" s="36">
         <v>18</v>
       </c>
-      <c r="B19" s="35" t="s">
+      <c r="B19" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="36" t="s">
-        <v>10</v>
-      </c>
-      <c r="D19" s="36" t="s">
+      <c r="C19" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" s="38" t="s">
         <v>57</v>
       </c>
-      <c r="E19" s="38" t="s">
+      <c r="E19" s="40" t="s">
         <v>58</v>
       </c>
-      <c r="F19" s="38" t="s">
+      <c r="F19" s="40" t="s">
         <v>52</v>
       </c>
       <c r="H19" s="13" t="s">
@@ -2435,43 +2377,41 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="/futureloan/mvc/api/member/register" ref="B13" r:id="rId1"/>
-    <hyperlink display="/futureloan/mvc/api/member/register" ref="B14" r:id="rId2"/>
-    <hyperlink display="/futureloan/mvc/api/member/register" ref="B15" r:id="rId3"/>
-    <hyperlink display="/futureloan/mvc/api/member/register" ref="B16" r:id="rId4"/>
-    <hyperlink display="/futureloan/mvc/api/member/register" ref="B17" r:id="rId5"/>
-    <hyperlink display="/futureloan/mvc/api/member/register" ref="B18" r:id="rId6"/>
-    <hyperlink display="/futureloan/mvc/api/member/register" ref="B19" r:id="rId7"/>
+    <hyperlink ref="B13" r:id="rId1" display="/futureloan/mvc/api/member/register"/>
+    <hyperlink ref="B14" r:id="rId1" display="/futureloan/mvc/api/member/register"/>
+    <hyperlink ref="B15" r:id="rId1" display="/futureloan/mvc/api/member/register"/>
+    <hyperlink ref="B16" r:id="rId1" display="/futureloan/mvc/api/member/register"/>
+    <hyperlink ref="B17" r:id="rId1" display="/futureloan/mvc/api/member/register"/>
+    <hyperlink ref="B18" r:id="rId1" display="/futureloan/mvc/api/member/register"/>
+    <hyperlink ref="B19" r:id="rId1" display="/futureloan/mvc/api/member/register"/>
   </hyperlinks>
-  <pageMargins bottom="1" footer="0.511805555555556" header="0.511805555555556" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:G17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11" defaultRowHeight="16.5" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.5" outlineLevelCol="6"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="21" width="11"/>
-    <col customWidth="1" max="2" min="2" style="21" width="36.875"/>
-    <col customWidth="1" max="3" min="3" style="21" width="11"/>
-    <col customWidth="1" max="4" min="4" style="21" width="18.75"/>
-    <col customWidth="1" max="5" min="5" style="21" width="61.875"/>
-    <col customWidth="1" max="6" min="6" style="21" width="71.375"/>
-    <col customWidth="1" max="7" min="7" style="21" width="38.75"/>
-    <col customWidth="1" max="16384" min="8" style="21" width="11"/>
+    <col min="1" max="1" width="11" style="23" customWidth="1"/>
+    <col min="2" max="2" width="36.875" style="23" customWidth="1"/>
+    <col min="3" max="3" width="11" style="23" customWidth="1"/>
+    <col min="4" max="4" width="18.75" style="23" customWidth="1"/>
+    <col min="5" max="5" width="61.875" style="23" customWidth="1"/>
+    <col min="6" max="6" width="71.375" style="23" customWidth="1"/>
+    <col min="7" max="7" width="38.75" style="23" customWidth="1"/>
+    <col min="8" max="16384" width="11" style="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="15" r="1" s="1" spans="1:7">
+    <row r="1" s="1" customFormat="1" ht="15" customHeight="1" spans="1:7">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -2494,8 +2434,8 @@
         <v>6</v>
       </c>
     </row>
-    <row customFormat="1" r="2" s="2" spans="1:7">
-      <c r="A2" s="7" t="n">
+    <row r="2" s="2" customFormat="1" spans="1:6">
+      <c r="A2" s="7">
         <v>1</v>
       </c>
       <c r="B2" s="9" t="s">
@@ -2514,8 +2454,8 @@
         <v>62</v>
       </c>
     </row>
-    <row customFormat="1" r="3" s="2" spans="1:7">
-      <c r="A3" s="7" t="n">
+    <row r="3" s="2" customFormat="1" spans="1:6">
+      <c r="A3" s="7">
         <v>2</v>
       </c>
       <c r="B3" s="9" t="s">
@@ -2534,8 +2474,8 @@
         <v>65</v>
       </c>
     </row>
-    <row customFormat="1" r="4" s="12" spans="1:7">
-      <c r="A4" s="7" t="n">
+    <row r="4" s="12" customFormat="1" spans="1:6">
+      <c r="A4" s="7">
         <v>3</v>
       </c>
       <c r="B4" s="9" t="s">
@@ -2554,8 +2494,8 @@
         <v>23</v>
       </c>
     </row>
-    <row customFormat="1" r="5" s="12" spans="1:7">
-      <c r="A5" s="7" t="n">
+    <row r="5" s="12" customFormat="1" spans="1:6">
+      <c r="A5" s="7">
         <v>4</v>
       </c>
       <c r="B5" s="9" t="s">
@@ -2564,7 +2504,7 @@
       <c r="C5" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="22" t="s">
+      <c r="D5" s="24" t="s">
         <v>30</v>
       </c>
       <c r="E5" s="10" t="s">
@@ -2574,8 +2514,8 @@
         <v>65</v>
       </c>
     </row>
-    <row customFormat="1" r="6" s="12" spans="1:7">
-      <c r="A6" s="7" t="n">
+    <row r="6" s="12" customFormat="1" spans="1:6">
+      <c r="A6" s="7">
         <v>5</v>
       </c>
       <c r="B6" s="9" t="s">
@@ -2584,7 +2524,7 @@
       <c r="C6" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="22" t="s">
+      <c r="D6" s="24" t="s">
         <v>32</v>
       </c>
       <c r="E6" s="10" t="s">
@@ -2594,8 +2534,8 @@
         <v>65</v>
       </c>
     </row>
-    <row customFormat="1" r="7" s="12" spans="1:7">
-      <c r="A7" s="7" t="n">
+    <row r="7" s="12" customFormat="1" spans="1:6">
+      <c r="A7" s="7">
         <v>6</v>
       </c>
       <c r="B7" s="9" t="s">
@@ -2604,7 +2544,7 @@
       <c r="C7" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="22" t="s">
+      <c r="D7" s="24" t="s">
         <v>34</v>
       </c>
       <c r="E7" s="10" t="s">
@@ -2614,8 +2554,8 @@
         <v>65</v>
       </c>
     </row>
-    <row customFormat="1" r="8" s="12" spans="1:7">
-      <c r="A8" s="7" t="n">
+    <row r="8" s="12" customFormat="1" spans="1:6">
+      <c r="A8" s="7">
         <v>7</v>
       </c>
       <c r="B8" s="9" t="s">
@@ -2624,7 +2564,7 @@
       <c r="C8" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="22" t="s">
+      <c r="D8" s="24" t="s">
         <v>36</v>
       </c>
       <c r="E8" s="10" t="s">
@@ -2634,8 +2574,8 @@
         <v>65</v>
       </c>
     </row>
-    <row customFormat="1" r="9" s="12" spans="1:7">
-      <c r="A9" s="7" t="n">
+    <row r="9" s="12" customFormat="1" spans="1:6">
+      <c r="A9" s="7">
         <v>8</v>
       </c>
       <c r="B9" s="9" t="s">
@@ -2644,7 +2584,7 @@
       <c r="C9" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="22" t="s">
+      <c r="D9" s="24" t="s">
         <v>38</v>
       </c>
       <c r="E9" s="10" t="s">
@@ -2654,8 +2594,8 @@
         <v>65</v>
       </c>
     </row>
-    <row customFormat="1" r="10" s="12" spans="1:7">
-      <c r="A10" s="7" t="n">
+    <row r="10" s="12" customFormat="1" spans="1:6">
+      <c r="A10" s="7">
         <v>9</v>
       </c>
       <c r="B10" s="9" t="s">
@@ -2664,7 +2604,7 @@
       <c r="C10" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="22" t="s">
+      <c r="D10" s="24" t="s">
         <v>40</v>
       </c>
       <c r="E10" s="10" t="s">
@@ -2674,8 +2614,8 @@
         <v>65</v>
       </c>
     </row>
-    <row customFormat="1" r="11" s="12" spans="1:7">
-      <c r="A11" s="7" t="n">
+    <row r="11" s="12" customFormat="1" spans="1:6">
+      <c r="A11" s="7">
         <v>10</v>
       </c>
       <c r="B11" s="9" t="s">
@@ -2694,8 +2634,8 @@
         <v>44</v>
       </c>
     </row>
-    <row customFormat="1" r="12" s="12" spans="1:7">
-      <c r="A12" s="7" t="n">
+    <row r="12" s="12" customFormat="1" spans="1:6">
+      <c r="A12" s="7">
         <v>11</v>
       </c>
       <c r="B12" s="9" t="s">
@@ -2710,12 +2650,12 @@
       <c r="E12" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="F12" s="23" t="s">
+      <c r="F12" s="25" t="s">
         <v>65</v>
       </c>
     </row>
-    <row customFormat="1" r="13" s="12" spans="1:7">
-      <c r="A13" s="7" t="n">
+    <row r="13" s="12" customFormat="1" spans="1:6">
+      <c r="A13" s="7">
         <v>12</v>
       </c>
       <c r="B13" s="9" t="s">
@@ -2730,12 +2670,12 @@
       <c r="E13" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="F13" s="23" t="s">
+      <c r="F13" s="25" t="s">
         <v>65</v>
       </c>
     </row>
-    <row customFormat="1" r="14" s="12" spans="1:7">
-      <c r="A14" s="7" t="n">
+    <row r="14" s="12" customFormat="1" spans="1:6">
+      <c r="A14" s="7">
         <v>13</v>
       </c>
       <c r="B14" s="9" t="s">
@@ -2750,12 +2690,12 @@
       <c r="E14" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="F14" s="23" t="s">
+      <c r="F14" s="25" t="s">
         <v>65</v>
       </c>
     </row>
-    <row customFormat="1" r="15" s="12" spans="1:7">
-      <c r="A15" s="7" t="n">
+    <row r="15" s="12" customFormat="1" spans="1:6">
+      <c r="A15" s="7">
         <v>14</v>
       </c>
       <c r="B15" s="9" t="s">
@@ -2770,12 +2710,12 @@
       <c r="E15" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="F15" s="23" t="s">
+      <c r="F15" s="25" t="s">
         <v>65</v>
       </c>
     </row>
-    <row customFormat="1" r="16" s="12" spans="1:7">
-      <c r="A16" s="7" t="n">
+    <row r="16" s="12" customFormat="1" spans="1:6">
+      <c r="A16" s="7">
         <v>15</v>
       </c>
       <c r="B16" s="9" t="s">
@@ -2790,12 +2730,12 @@
       <c r="E16" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="F16" s="23" t="s">
+      <c r="F16" s="25" t="s">
         <v>65</v>
       </c>
     </row>
-    <row customFormat="1" r="17" s="12" spans="1:7">
-      <c r="A17" s="7" t="n">
+    <row r="17" s="12" customFormat="1" spans="1:6">
+      <c r="A17" s="7">
         <v>16</v>
       </c>
       <c r="B17" s="9" t="s">
@@ -2810,40 +2750,40 @@
       <c r="E17" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="F17" s="23" t="s">
+      <c r="F17" s="25" t="s">
         <v>65</v>
       </c>
     </row>
-    <row customFormat="1" r="18" s="12" spans="1:7"/>
+    <row r="18" s="12" customFormat="1"/>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D3"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11" defaultRowHeight="13.5" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="3" width="7.875"/>
-    <col customWidth="1" max="2" min="2" style="3" width="31.875"/>
-    <col customWidth="1" max="3" min="3" style="3" width="14.375"/>
-    <col customWidth="1" max="4" min="4" style="19" width="21.75"/>
-    <col customWidth="1" max="5" min="5" style="3" width="48.5"/>
-    <col customWidth="1" max="6" min="6" style="20" width="15.125"/>
-    <col customWidth="1" max="7" min="7" style="3" width="31.125"/>
+    <col min="1" max="1" width="7.875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="31.875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="14.375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="21.75" style="21" customWidth="1"/>
+    <col min="5" max="5" width="48.5" style="3" customWidth="1"/>
+    <col min="6" max="6" width="15.125" style="22" customWidth="1"/>
+    <col min="7" max="7" width="31.125" style="3" customWidth="1"/>
+    <col min="8" max="8" width="68" style="3" customWidth="1"/>
+    <col min="9" max="9" width="20.625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="15" r="1" s="1" spans="1:10">
+    <row r="1" s="1" customFormat="1" ht="15" customHeight="1" spans="1:9">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -2872,8 +2812,8 @@
         <v>8</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="16.5" r="2" s="2" spans="1:10">
-      <c r="A2" s="7" t="n">
+    <row r="2" s="2" customFormat="1" ht="16.5" customHeight="1" spans="1:10">
+      <c r="A2" s="7">
         <v>1</v>
       </c>
       <c r="B2" s="9" t="s">
@@ -2888,7 +2828,7 @@
       <c r="E2" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="F2" s="10" t="n">
+      <c r="F2" s="10">
         <v>10001</v>
       </c>
       <c r="H2" t="s">
@@ -2901,8 +2841,8 @@
         <v>62</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="66" r="3" s="2" spans="1:10">
-      <c r="A3" s="7" t="n">
+    <row r="3" s="2" customFormat="1" ht="66" customHeight="1" spans="1:10">
+      <c r="A3" s="7">
         <v>2</v>
       </c>
       <c r="B3" s="9" t="s">
@@ -2917,14 +2857,14 @@
       <c r="E3" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="F3" s="10" t="n">
+      <c r="F3" s="10">
         <v>10001</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>88</v>
       </c>
       <c r="H3" t="s">
-        <v>237</v>
+        <v>89</v>
       </c>
       <c r="I3" t="s">
         <v>20</v>
@@ -2933,8 +2873,8 @@
         <v>90</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="16.5" r="4" s="12" spans="1:10">
-      <c r="A4" s="7" t="n">
+    <row r="4" s="12" customFormat="1" ht="16.5" customHeight="1" spans="1:10">
+      <c r="A4" s="7">
         <v>3</v>
       </c>
       <c r="B4" s="9" t="s">
@@ -2943,13 +2883,13 @@
       <c r="C4" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="16" t="s">
+      <c r="D4" s="17" t="s">
         <v>91</v>
       </c>
       <c r="E4" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="F4" s="15" t="n">
+      <c r="F4" s="15">
         <v>20104</v>
       </c>
       <c r="H4" t="s">
@@ -2962,8 +2902,8 @@
         <v>93</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="16.5" r="5" s="12" spans="1:10">
-      <c r="A5" s="7" t="n">
+    <row r="5" s="12" customFormat="1" ht="16.5" customHeight="1" spans="1:10">
+      <c r="A5" s="7">
         <v>4</v>
       </c>
       <c r="B5" s="9" t="s">
@@ -2972,21 +2912,27 @@
       <c r="C5" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="16" t="s">
+      <c r="D5" s="17" t="s">
         <v>21</v>
       </c>
       <c r="E5" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="F5" s="15" t="n">
+      <c r="F5" s="15">
         <v>20103</v>
+      </c>
+      <c r="H5" t="s">
+        <v>23</v>
+      </c>
+      <c r="I5" t="s">
+        <v>20</v>
       </c>
       <c r="J5" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="16.5" r="6" s="12" spans="1:10">
-      <c r="A6" s="7" t="n">
+    <row r="6" s="12" customFormat="1" ht="16.5" customHeight="1" spans="1:10">
+      <c r="A6" s="7">
         <v>5</v>
       </c>
       <c r="B6" s="9" t="s">
@@ -2995,13 +2941,13 @@
       <c r="C6" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="18" t="s">
+      <c r="D6" s="20" t="s">
         <v>30</v>
       </c>
       <c r="E6" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="F6" s="15" t="n">
+      <c r="F6" s="15">
         <v>20109</v>
       </c>
       <c r="H6" t="s">
@@ -3014,8 +2960,8 @@
         <v>29</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="16.5" r="7" s="12" spans="1:10">
-      <c r="A7" s="7" t="n">
+    <row r="7" s="12" customFormat="1" ht="16.5" customHeight="1" spans="1:10">
+      <c r="A7" s="7">
         <v>6</v>
       </c>
       <c r="B7" s="9" t="s">
@@ -3024,13 +2970,13 @@
       <c r="C7" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="18" t="s">
+      <c r="D7" s="20" t="s">
         <v>32</v>
       </c>
       <c r="E7" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="F7" s="15" t="n">
+      <c r="F7" s="15">
         <v>20109</v>
       </c>
       <c r="H7" t="s">
@@ -3043,8 +2989,8 @@
         <v>29</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="16.5" r="8" s="12" spans="1:10">
-      <c r="A8" s="7" t="n">
+    <row r="8" s="12" customFormat="1" ht="16.5" customHeight="1" spans="1:10">
+      <c r="A8" s="7">
         <v>7</v>
       </c>
       <c r="B8" s="9" t="s">
@@ -3053,13 +2999,13 @@
       <c r="C8" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="18" t="s">
+      <c r="D8" s="20" t="s">
         <v>34</v>
       </c>
       <c r="E8" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="F8" s="15" t="n">
+      <c r="F8" s="15">
         <v>20109</v>
       </c>
       <c r="H8" t="s">
@@ -3072,8 +3018,8 @@
         <v>29</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="16.5" r="9" s="12" spans="1:10">
-      <c r="A9" s="7" t="n">
+    <row r="9" s="12" customFormat="1" ht="16.5" customHeight="1" spans="1:10">
+      <c r="A9" s="7">
         <v>8</v>
       </c>
       <c r="B9" s="9" t="s">
@@ -3082,21 +3028,27 @@
       <c r="C9" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="18" t="s">
+      <c r="D9" s="20" t="s">
         <v>36</v>
       </c>
       <c r="E9" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="F9" s="15" t="n">
+      <c r="F9" s="15">
         <v>20109</v>
+      </c>
+      <c r="H9" t="s">
+        <v>29</v>
+      </c>
+      <c r="I9" t="s">
+        <v>20</v>
       </c>
       <c r="J9" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="16.5" r="10" s="12" spans="1:10">
-      <c r="A10" s="7" t="n">
+    <row r="10" s="12" customFormat="1" ht="16.5" customHeight="1" spans="1:10">
+      <c r="A10" s="7">
         <v>9</v>
       </c>
       <c r="B10" s="9" t="s">
@@ -3105,13 +3057,13 @@
       <c r="C10" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="18" t="s">
+      <c r="D10" s="20" t="s">
         <v>38</v>
       </c>
       <c r="E10" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="F10" s="15" t="n">
+      <c r="F10" s="15">
         <v>20109</v>
       </c>
       <c r="H10" t="s">
@@ -3124,8 +3076,8 @@
         <v>29</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="16.5" r="11" s="12" spans="1:10">
-      <c r="A11" s="7" t="n">
+    <row r="11" s="12" customFormat="1" ht="16.5" customHeight="1" spans="1:10">
+      <c r="A11" s="7">
         <v>10</v>
       </c>
       <c r="B11" s="9" t="s">
@@ -3134,13 +3086,13 @@
       <c r="C11" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="18" t="s">
+      <c r="D11" s="20" t="s">
         <v>40</v>
       </c>
       <c r="E11" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="F11" s="15" t="n">
+      <c r="F11" s="15">
         <v>20109</v>
       </c>
       <c r="H11" t="s">
@@ -3153,8 +3105,8 @@
         <v>29</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="16.5" r="12" s="12" spans="1:10">
-      <c r="A12" s="7" t="n">
+    <row r="12" s="12" customFormat="1" ht="16.5" customHeight="1" spans="1:10">
+      <c r="A12" s="7">
         <v>11</v>
       </c>
       <c r="B12" s="9" t="s">
@@ -3163,13 +3115,13 @@
       <c r="C12" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="16" t="s">
+      <c r="D12" s="17" t="s">
         <v>101</v>
       </c>
       <c r="E12" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="F12" s="15" t="n">
+      <c r="F12" s="15">
         <v>20115</v>
       </c>
       <c r="H12" t="s">
@@ -3182,8 +3134,8 @@
         <v>103</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="16.5" r="13" s="12" spans="1:10">
-      <c r="A13" s="7" t="n">
+    <row r="13" s="12" customFormat="1" ht="16.5" customHeight="1" spans="1:10">
+      <c r="A13" s="7">
         <v>12</v>
       </c>
       <c r="B13" s="9" t="s">
@@ -3192,13 +3144,13 @@
       <c r="C13" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="16" t="s">
+      <c r="D13" s="17" t="s">
         <v>104</v>
       </c>
       <c r="E13" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="F13" s="15" t="n">
+      <c r="F13" s="15">
         <v>20117</v>
       </c>
       <c r="H13" t="s">
@@ -3211,8 +3163,8 @@
         <v>106</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="16.5" r="14" s="12" spans="1:10">
-      <c r="A14" s="7" t="n">
+    <row r="14" s="12" customFormat="1" ht="16.5" customHeight="1" spans="1:10">
+      <c r="A14" s="7">
         <v>13</v>
       </c>
       <c r="B14" s="9" t="s">
@@ -3221,13 +3173,13 @@
       <c r="C14" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="16" t="s">
+      <c r="D14" s="17" t="s">
         <v>107</v>
       </c>
       <c r="E14" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="F14" s="15" t="n">
+      <c r="F14" s="15">
         <v>20117</v>
       </c>
       <c r="H14" t="s">
@@ -3240,8 +3192,8 @@
         <v>106</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="16.5" r="15" s="12" spans="1:10">
-      <c r="A15" s="7" t="n">
+    <row r="15" s="12" customFormat="1" ht="16.5" customHeight="1" spans="1:10">
+      <c r="A15" s="7">
         <v>14</v>
       </c>
       <c r="B15" s="9" t="s">
@@ -3250,13 +3202,13 @@
       <c r="C15" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D15" s="16" t="s">
+      <c r="D15" s="17" t="s">
         <v>109</v>
       </c>
       <c r="E15" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="F15" s="15" t="n">
+      <c r="F15" s="15">
         <v>20116</v>
       </c>
       <c r="H15" t="s">
@@ -3269,8 +3221,8 @@
         <v>111</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="16.5" r="16" s="12" spans="1:10">
-      <c r="A16" s="7" t="n">
+    <row r="16" s="12" customFormat="1" ht="16.5" customHeight="1" spans="1:10">
+      <c r="A16" s="7">
         <v>15</v>
       </c>
       <c r="B16" s="9" t="s">
@@ -3279,13 +3231,13 @@
       <c r="C16" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D16" s="16" t="s">
+      <c r="D16" s="17" t="s">
         <v>112</v>
       </c>
       <c r="E16" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="F16" s="15" t="n">
+      <c r="F16" s="15">
         <v>20118</v>
       </c>
       <c r="H16" t="s">
@@ -3299,1010 +3251,1046 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col customWidth="1" max="3" min="3" style="3" width="16.875"/>
-    <col customWidth="1" max="5" min="5" style="3" width="37.25"/>
-    <col customWidth="1" max="6" min="6" style="3" width="15.25"/>
-    <col customWidth="1" max="7" min="7" style="3" width="44.375"/>
-    <col customWidth="1" max="8" min="8" style="13" width="66.125"/>
-    <col customWidth="1" max="9" min="9" style="3" width="30.875"/>
+    <col min="2" max="2" width="16.875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="15.25" style="18" customWidth="1"/>
+    <col min="5" max="5" width="44.375" style="3" customWidth="1"/>
+    <col min="6" max="6" width="66.125" style="13" customWidth="1"/>
+    <col min="7" max="7" width="30.875" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="15" r="1" s="1" spans="1:9">
+    <row r="1" s="1" customFormat="1" ht="15" customHeight="1" spans="1:9">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" s="2" customFormat="1" ht="33" customHeight="1" spans="1:9">
+      <c r="A2" s="7">
+        <v>1</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="E2" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="C1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="5" t="s">
+      <c r="F2" s="10">
+        <v>10001</v>
+      </c>
+      <c r="H2" t="s">
+        <v>62</v>
+      </c>
+      <c r="I2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" s="2" customFormat="1" ht="66" customHeight="1" spans="1:9">
+      <c r="A3" s="7">
         <v>2</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="B3" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="C3" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="E3" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="F3" s="10">
+        <v>10001</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="H3" t="s">
+        <v>119</v>
+      </c>
+      <c r="I3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" s="12" customFormat="1" ht="33" customHeight="1" spans="1:9">
+      <c r="A4" s="7">
+        <v>3</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="F4" s="19">
+        <v>20104</v>
+      </c>
+      <c r="H4" t="s">
+        <v>121</v>
+      </c>
+      <c r="I4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" s="12" customFormat="1" ht="33" customHeight="1" spans="1:9">
+      <c r="A5" s="7">
         <v>4</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="B5" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="F5" s="19">
+        <v>20103</v>
+      </c>
+      <c r="H5" t="s">
+        <v>23</v>
+      </c>
+      <c r="I5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" s="12" customFormat="1" ht="33" customHeight="1" spans="1:9">
+      <c r="A6" s="7">
         <v>5</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="B6" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="F6" s="19">
+        <v>20109</v>
+      </c>
+      <c r="H6" t="s">
+        <v>29</v>
+      </c>
+      <c r="I6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" s="12" customFormat="1" ht="33" customHeight="1" spans="1:9">
+      <c r="A7" s="7">
         <v>6</v>
       </c>
-    </row>
-    <row customFormat="1" customHeight="1" ht="33" r="2" s="2" spans="1:9">
-      <c r="A2" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="F2" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="G2" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="H2" s="10" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row customFormat="1" customHeight="1" ht="66" r="3" s="2" spans="1:9">
-      <c r="A3" s="7" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="C3" s="9" t="s">
+      <c r="B7" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="F7" s="19">
+        <v>20109</v>
+      </c>
+      <c r="H7" t="s">
+        <v>29</v>
+      </c>
+      <c r="I7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" s="12" customFormat="1" ht="33" customHeight="1" spans="1:9">
+      <c r="A8" s="7">
+        <v>7</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="F8" s="19">
+        <v>20109</v>
+      </c>
+      <c r="H8" t="s">
+        <v>29</v>
+      </c>
+      <c r="I8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" s="12" customFormat="1" ht="33" customHeight="1" spans="1:9">
+      <c r="A9" s="7">
+        <v>8</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="D3" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="10" t="s">
+      <c r="F9" s="19">
+        <v>20109</v>
+      </c>
+      <c r="H9" t="s">
+        <v>29</v>
+      </c>
+      <c r="I9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" s="12" customFormat="1" ht="33" customHeight="1" spans="1:9">
+      <c r="A10" s="7">
+        <v>9</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="F10" s="19">
+        <v>20109</v>
+      </c>
+      <c r="H10" t="s">
+        <v>29</v>
+      </c>
+      <c r="I10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" s="12" customFormat="1" ht="33" customHeight="1" spans="1:9">
+      <c r="A11" s="7">
+        <v>10</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="F11" s="19">
+        <v>20109</v>
+      </c>
+      <c r="H11" t="s">
+        <v>29</v>
+      </c>
+      <c r="I11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" s="12" customFormat="1" ht="33" customHeight="1" spans="1:9">
+      <c r="A12" s="7">
+        <v>11</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="F12" s="15">
+        <v>20115</v>
+      </c>
+      <c r="H12" t="s">
+        <v>103</v>
+      </c>
+      <c r="I12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" s="12" customFormat="1" ht="33" customHeight="1" spans="1:9">
+      <c r="A13" s="7">
+        <v>12</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="F13" s="19">
+        <v>20117</v>
+      </c>
+      <c r="H13" t="s">
+        <v>106</v>
+      </c>
+      <c r="I13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" s="12" customFormat="1" ht="33" customHeight="1" spans="1:9">
+      <c r="A14" s="7">
+        <v>13</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="F14" s="19">
+        <v>20117</v>
+      </c>
+      <c r="H14" t="s">
+        <v>106</v>
+      </c>
+      <c r="I14" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" s="12" customFormat="1" ht="33" customHeight="1" spans="1:9">
+      <c r="A15" s="7">
+        <v>14</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="F15" s="19">
+        <v>20116</v>
+      </c>
+      <c r="H15" t="s">
+        <v>111</v>
+      </c>
+      <c r="I15" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" s="12" customFormat="1" ht="33" customHeight="1" spans="1:9">
+      <c r="A16" s="7">
+        <v>15</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="F16" s="15">
+        <v>20118</v>
+      </c>
+      <c r="H16" t="s">
+        <v>114</v>
+      </c>
+      <c r="I16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" s="12" customFormat="1" ht="33" customHeight="1" spans="1:9">
+      <c r="A17" s="7">
+        <v>16</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" s="17" t="s">
         <v>123</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="E17" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="F17" s="15">
+        <v>20119</v>
+      </c>
+      <c r="H17" t="s">
         <v>125</v>
       </c>
-      <c r="H3" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row customFormat="1" customHeight="1" ht="33" r="4" s="12" spans="1:9">
-      <c r="A4" s="7" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="F4" s="16" t="s">
-        <v>91</v>
-      </c>
-      <c r="G4" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="H4" s="17" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row customFormat="1" customHeight="1" ht="33" r="5" s="12" spans="1:9">
-      <c r="A5" s="7" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="F5" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="H5" s="17" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row customFormat="1" customHeight="1" ht="33" r="6" s="12" spans="1:9">
-      <c r="A6" s="7" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="F6" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="H6" s="17" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row customFormat="1" customHeight="1" ht="33" r="7" s="12" spans="1:9">
-      <c r="A7" s="7" t="n">
-        <v>6</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="F7" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="G7" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="H7" s="17" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row customFormat="1" customHeight="1" ht="33" r="8" s="12" spans="1:9">
-      <c r="A8" s="7" t="n">
-        <v>7</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="F8" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="G8" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="H8" s="17" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row customFormat="1" customHeight="1" ht="33" r="9" s="12" spans="1:9">
-      <c r="A9" s="7" t="n">
-        <v>8</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="F9" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="G9" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="H9" s="17" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row customFormat="1" customHeight="1" ht="33" r="10" s="12" spans="1:9">
-      <c r="A10" s="7" t="n">
-        <v>9</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="F10" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="G10" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="H10" s="17" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row customFormat="1" customHeight="1" ht="33" r="11" s="12" spans="1:9">
-      <c r="A11" s="7" t="n">
-        <v>10</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="F11" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="G11" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="H11" s="17" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row customFormat="1" customHeight="1" ht="33" r="12" s="12" spans="1:9">
-      <c r="A12" s="7" t="n">
-        <v>11</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="F12" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="G12" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row customFormat="1" customHeight="1" ht="33" r="13" s="12" spans="1:9">
-      <c r="A13" s="7" t="n">
-        <v>12</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" s="10" t="s">
-        <v>141</v>
-      </c>
-      <c r="F13" s="16" t="s">
-        <v>104</v>
-      </c>
-      <c r="G13" s="10" t="s">
-        <v>142</v>
-      </c>
-      <c r="H13" s="17" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row customFormat="1" customHeight="1" ht="33" r="14" s="12" spans="1:9">
-      <c r="A14" s="7" t="n">
-        <v>13</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="F14" s="16" t="s">
-        <v>107</v>
-      </c>
-      <c r="G14" s="10" t="s">
-        <v>144</v>
-      </c>
-      <c r="H14" s="17" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row customFormat="1" customHeight="1" ht="33" r="15" s="12" spans="1:9">
-      <c r="A15" s="7" t="n">
-        <v>14</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E15" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="F15" s="16" t="s">
-        <v>109</v>
-      </c>
-      <c r="G15" s="10" t="s">
-        <v>146</v>
-      </c>
-      <c r="H15" s="17" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row customFormat="1" customHeight="1" ht="33" r="16" s="12" spans="1:9">
-      <c r="A16" s="7" t="n">
-        <v>15</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E16" s="10" t="s">
-        <v>147</v>
-      </c>
-      <c r="F16" s="16" t="s">
-        <v>112</v>
-      </c>
-      <c r="G16" s="10" t="s">
-        <v>148</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row customFormat="1" customHeight="1" ht="33" r="17" s="12" spans="1:9">
-      <c r="A17" s="7" t="n">
-        <v>16</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E17" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="F17" s="12" t="s">
-        <v>150</v>
-      </c>
-      <c r="G17" s="10" t="s">
-        <v>151</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>152</v>
+      <c r="I17" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:I40"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col customWidth="1" max="3" min="3" style="3" width="21.875"/>
-    <col customWidth="1" max="5" min="5" style="3" width="22.125"/>
-    <col customWidth="1" max="6" min="6" style="3" width="14.75"/>
-    <col customWidth="1" max="7" min="7" style="3" width="45"/>
-    <col customWidth="1" max="8" min="8" style="13" width="47.375"/>
-    <col customWidth="1" max="9" min="9" style="3" width="41"/>
+    <col min="2" max="2" width="21.875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="14.75" style="16" customWidth="1"/>
+    <col min="5" max="5" width="45" style="3" customWidth="1"/>
+    <col min="6" max="6" width="47.375" style="13" customWidth="1"/>
+    <col min="7" max="7" width="41" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="15" r="1" s="1" spans="1:9">
+    <row r="1" s="1" customFormat="1" ht="15" customHeight="1" spans="1:9">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>115</v>
+        <v>1</v>
       </c>
       <c r="C1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" s="2" customFormat="1" ht="33" customHeight="1" spans="1:6">
+      <c r="A2" s="7">
         <v>1</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="B2" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" s="2" customFormat="1" ht="66" customHeight="1" spans="1:7">
+      <c r="A3" s="7">
         <v>2</v>
       </c>
-      <c r="E1" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="G1" s="5" t="s">
+      <c r="B3" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="4" s="12" customFormat="1" ht="66" customHeight="1" spans="1:6">
+      <c r="A4" s="7">
+        <v>3</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="5" s="12" customFormat="1" ht="66" customHeight="1" spans="1:6">
+      <c r="A5" s="7">
         <v>4</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="B5" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="6" s="12" customFormat="1" ht="66" customHeight="1" spans="1:6">
+      <c r="A6" s="7">
         <v>5</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="B6" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="7" s="12" customFormat="1" ht="66" customHeight="1" spans="1:6">
+      <c r="A7" s="7">
         <v>6</v>
       </c>
-    </row>
-    <row customFormat="1" customHeight="1" ht="33" r="2" s="2" spans="1:9">
-      <c r="A2" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="F2" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="G2" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="H2" s="10" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row customFormat="1" customHeight="1" ht="66" r="3" s="2" spans="1:9">
-      <c r="A3" s="7" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" s="8" t="s">
+      <c r="B7" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>141</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="8" s="12" customFormat="1" ht="66" customHeight="1" spans="1:6">
+      <c r="A8" s="7">
+        <v>7</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="9" s="12" customFormat="1" ht="66" customHeight="1" spans="1:6">
+      <c r="A9" s="7">
+        <v>8</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>146</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="10" s="12" customFormat="1" ht="66" customHeight="1" spans="1:6">
+      <c r="A10" s="7">
+        <v>9</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>148</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="11" s="12" customFormat="1" ht="66" customHeight="1" spans="1:6">
+      <c r="A11" s="7">
+        <v>10</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="12" s="12" customFormat="1" ht="66" customHeight="1" spans="1:6">
+      <c r="A12" s="7">
+        <v>11</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="17" t="s">
+        <v>152</v>
+      </c>
+      <c r="E12" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="F12" s="10" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="13" s="12" customFormat="1" ht="77" customHeight="1" spans="1:6">
+      <c r="A13" s="7">
+        <v>12</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="17" t="s">
         <v>154</v>
       </c>
-      <c r="D3" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="8" t="s">
+      <c r="E13" s="10" t="s">
         <v>155</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="F13" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="14" s="12" customFormat="1" ht="66" customHeight="1" spans="1:6">
+      <c r="A14" s="7">
+        <v>13</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="17" t="s">
         <v>156</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="E14" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="F14" s="2"/>
+    </row>
+    <row r="15" s="12" customFormat="1" ht="69" customHeight="1" spans="1:6">
+      <c r="A15" s="7">
+        <v>14</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="17" t="s">
         <v>157</v>
       </c>
-      <c r="H3" s="10" t="s">
+      <c r="E15" s="10" t="s">
         <v>158</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="F15" s="2"/>
+    </row>
+    <row r="16" s="12" customFormat="1" ht="63" customHeight="1" spans="1:6">
+      <c r="A16" s="7">
+        <v>15</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" s="17" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row customFormat="1" customHeight="1" ht="66" r="4" s="12" spans="1:9">
-      <c r="A4" s="7" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>154</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="12" t="s">
+      <c r="E16" s="10" t="s">
         <v>160</v>
       </c>
-      <c r="F4" s="12" t="s">
+      <c r="F16" s="2"/>
+    </row>
+    <row r="17" s="12" customFormat="1" ht="67" customHeight="1" spans="1:6">
+      <c r="A17" s="7">
+        <v>16</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" s="17" t="s">
         <v>161</v>
       </c>
-      <c r="G4" s="10" t="s">
+      <c r="E17" s="10" t="s">
         <v>162</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="F17" s="2"/>
+    </row>
+    <row r="18" s="12" customFormat="1" ht="66" spans="1:6">
+      <c r="A18" s="7">
+        <v>17</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" s="17" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row customFormat="1" customHeight="1" ht="66" r="5" s="12" spans="1:9">
-      <c r="A5" s="7" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>154</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="12" t="s">
+      <c r="E18" s="10" t="s">
         <v>164</v>
       </c>
-      <c r="F5" s="12" t="s">
+      <c r="F18" s="2"/>
+    </row>
+    <row r="19" s="12" customFormat="1" ht="69" customHeight="1" spans="1:6">
+      <c r="A19" s="7">
+        <v>18</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" s="17" t="s">
         <v>165</v>
       </c>
-      <c r="G5" s="10" t="s">
+      <c r="E19" s="10" t="s">
         <v>166</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="F19" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="20" s="12" customFormat="1" ht="78" customHeight="1" spans="1:6">
+      <c r="A20" s="7">
+        <v>19</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" s="17" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row customFormat="1" customHeight="1" ht="66" r="6" s="12" spans="1:9">
-      <c r="A6" s="7" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>154</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="12" t="s">
+      <c r="E20" s="10" t="s">
         <v>168</v>
       </c>
-      <c r="F6" s="12" t="s">
+      <c r="F20" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="G6" s="10" t="s">
+    </row>
+    <row r="21" s="12" customFormat="1" ht="67" customHeight="1" spans="1:6">
+      <c r="A21" s="7">
+        <v>20</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21" s="17" t="s">
         <v>170</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="E21" s="10" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row customFormat="1" customHeight="1" ht="66" r="7" s="12" spans="1:9">
-      <c r="A7" s="7" t="n">
-        <v>6</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>154</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="12" t="s">
-        <v>172</v>
-      </c>
-      <c r="F7" s="12" t="s">
-        <v>173</v>
-      </c>
-      <c r="G7" s="10" t="s">
-        <v>174</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row customFormat="1" customHeight="1" ht="66" r="8" s="12" spans="1:9">
-      <c r="A8" s="7" t="n">
-        <v>7</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>154</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="12" t="s">
-        <v>175</v>
-      </c>
-      <c r="F8" s="12" t="s">
-        <v>176</v>
-      </c>
-      <c r="G8" s="10" t="s">
-        <v>177</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row customFormat="1" customHeight="1" ht="66" r="9" s="12" spans="1:9">
-      <c r="A9" s="7" t="n">
-        <v>8</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>154</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" s="12" t="s">
-        <v>179</v>
-      </c>
-      <c r="F9" s="12" t="s">
-        <v>180</v>
-      </c>
-      <c r="G9" s="10" t="s">
-        <v>181</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row customFormat="1" customHeight="1" ht="66" r="10" s="12" spans="1:9">
-      <c r="A10" s="7" t="n">
-        <v>9</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>154</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" s="12" t="s">
-        <v>182</v>
-      </c>
-      <c r="F10" s="12" t="s">
-        <v>183</v>
-      </c>
-      <c r="G10" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="H10" s="10" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row customFormat="1" customHeight="1" ht="66" r="11" s="12" spans="1:9">
-      <c r="A11" s="7" t="n">
-        <v>10</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>154</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" s="12" t="s">
-        <v>185</v>
-      </c>
-      <c r="F11" s="12" t="s">
-        <v>186</v>
-      </c>
-      <c r="G11" s="10" t="s">
-        <v>187</v>
-      </c>
-      <c r="H11" s="10" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row customFormat="1" customHeight="1" ht="66" r="12" s="12" spans="1:9">
-      <c r="A12" s="7" t="n">
-        <v>11</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>154</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" s="12" t="s">
-        <v>188</v>
-      </c>
-      <c r="F12" s="12" t="s">
-        <v>189</v>
-      </c>
-      <c r="G12" s="10" t="s">
-        <v>190</v>
-      </c>
-      <c r="H12" s="10" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row customFormat="1" customHeight="1" ht="33" r="13" s="12" spans="1:9">
-      <c r="A13" s="7" t="n">
-        <v>12</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>154</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" s="12" t="s">
-        <v>191</v>
-      </c>
-      <c r="F13" s="12" t="s">
-        <v>192</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row customFormat="1" customHeight="1" ht="16.5" r="14" s="12" spans="1:9">
-      <c r="F14" s="12" t="s">
-        <v>193</v>
-      </c>
-      <c r="H14" s="2" t="n"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="16.5" r="15" s="12" spans="1:9">
-      <c r="F15" s="12" t="s">
-        <v>194</v>
-      </c>
-      <c r="H15" s="2" t="n"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="16.5" r="16" s="12" spans="1:9">
-      <c r="F16" s="12" t="s">
-        <v>195</v>
-      </c>
-      <c r="H16" s="2" t="n"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="16.5" r="17" s="12" spans="1:9">
-      <c r="F17" s="12" t="s">
-        <v>196</v>
-      </c>
-      <c r="H17" s="2" t="n"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="16.5" r="18" s="12" spans="1:9">
-      <c r="F18" s="12" t="s">
-        <v>197</v>
-      </c>
-      <c r="H18" s="2" t="n"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="33" r="19" s="12" spans="1:9">
-      <c r="F19" s="12" t="s">
-        <v>198</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row customFormat="1" customHeight="1" ht="33" r="20" s="12" spans="1:9">
-      <c r="F20" s="12" t="s">
-        <v>199</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row customFormat="1" customHeight="1" ht="33" r="21" s="12" spans="1:9">
-      <c r="F21" s="12" t="s">
-        <v>201</v>
-      </c>
-      <c r="H21" s="2" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row customFormat="1" customHeight="1" ht="16.5" r="22" s="12" spans="1:9">
-      <c r="H22" s="2" t="n"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="16.5" r="23" s="12" spans="1:9">
-      <c r="H23" s="2" t="n"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="16.5" r="24" s="12" spans="1:9">
-      <c r="H24" s="2" t="n"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="16.5" r="25" s="12" spans="1:9">
-      <c r="H25" s="2" t="n"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="16.5" r="26" s="12" spans="1:9">
-      <c r="H26" s="2" t="n"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="16.5" r="27" s="12" spans="1:9">
-      <c r="H27" s="2" t="n"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="16.5" r="28" s="12" spans="1:9">
-      <c r="H28" s="2" t="n"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="16.5" r="29" s="12" spans="1:9">
-      <c r="H29" s="2" t="n"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="16.5" r="30" s="12" spans="1:9">
-      <c r="H30" s="2" t="n"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="16.5" r="31" s="12" spans="1:9">
-      <c r="H31" s="2" t="n"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="16.5" r="32" s="12" spans="1:9">
-      <c r="H32" s="2" t="n"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="16.5" r="33" s="12" spans="1:9">
-      <c r="H33" s="2" t="n"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="16.5" r="34" s="12" spans="1:9">
-      <c r="H34" s="2" t="n"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="16.5" r="35" s="12" spans="1:9">
-      <c r="H35" s="2" t="n"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="16.5" r="36" s="12" spans="1:9">
-      <c r="H36" s="2" t="n"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="16.5" r="37" s="12" spans="1:9">
-      <c r="H37" s="2" t="n"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="16.5" r="38" s="12" spans="1:9">
-      <c r="H38" s="2" t="n"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="16.5" r="39" s="12" spans="1:9">
-      <c r="H39" s="2" t="n"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="16.5" r="40" s="12" spans="1:9">
-      <c r="H40" s="2" t="n"/>
+      <c r="F21" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="22" s="12" customFormat="1" ht="16.5" customHeight="1" spans="4:6">
+      <c r="D22" s="17"/>
+      <c r="F22" s="2"/>
+    </row>
+    <row r="23" s="12" customFormat="1" ht="16.5" customHeight="1" spans="4:6">
+      <c r="D23" s="17"/>
+      <c r="F23" s="2"/>
+    </row>
+    <row r="24" s="12" customFormat="1" ht="16.5" customHeight="1" spans="4:6">
+      <c r="D24" s="17"/>
+      <c r="F24" s="2"/>
+    </row>
+    <row r="25" s="12" customFormat="1" ht="16.5" customHeight="1" spans="4:6">
+      <c r="D25" s="17"/>
+      <c r="F25" s="2"/>
+    </row>
+    <row r="26" s="12" customFormat="1" ht="16.5" customHeight="1" spans="4:6">
+      <c r="D26" s="17"/>
+      <c r="F26" s="2"/>
+    </row>
+    <row r="27" s="12" customFormat="1" ht="16.5" customHeight="1" spans="4:6">
+      <c r="D27" s="17"/>
+      <c r="F27" s="2"/>
+    </row>
+    <row r="28" s="12" customFormat="1" ht="16.5" customHeight="1" spans="4:6">
+      <c r="D28" s="17"/>
+      <c r="F28" s="2"/>
+    </row>
+    <row r="29" s="12" customFormat="1" ht="16.5" customHeight="1" spans="4:6">
+      <c r="D29" s="17"/>
+      <c r="F29" s="2"/>
+    </row>
+    <row r="30" s="12" customFormat="1" ht="16.5" customHeight="1" spans="4:6">
+      <c r="D30" s="17"/>
+      <c r="F30" s="2"/>
+    </row>
+    <row r="31" s="12" customFormat="1" ht="16.5" customHeight="1" spans="4:6">
+      <c r="D31" s="17"/>
+      <c r="F31" s="2"/>
+    </row>
+    <row r="32" s="12" customFormat="1" ht="16.5" customHeight="1" spans="4:6">
+      <c r="D32" s="17"/>
+      <c r="F32" s="2"/>
+    </row>
+    <row r="33" s="12" customFormat="1" ht="16.5" customHeight="1" spans="4:6">
+      <c r="D33" s="17"/>
+      <c r="F33" s="2"/>
+    </row>
+    <row r="34" s="12" customFormat="1" ht="16.5" customHeight="1" spans="4:6">
+      <c r="D34" s="17"/>
+      <c r="F34" s="2"/>
+    </row>
+    <row r="35" s="12" customFormat="1" ht="16.5" customHeight="1" spans="4:6">
+      <c r="D35" s="17"/>
+      <c r="F35" s="2"/>
+    </row>
+    <row r="36" s="12" customFormat="1" ht="16.5" customHeight="1" spans="4:6">
+      <c r="D36" s="17"/>
+      <c r="F36" s="2"/>
+    </row>
+    <row r="37" s="12" customFormat="1" ht="16.5" customHeight="1" spans="4:6">
+      <c r="D37" s="17"/>
+      <c r="F37" s="2"/>
+    </row>
+    <row r="38" s="12" customFormat="1" ht="16.5" customHeight="1" spans="4:6">
+      <c r="D38" s="17"/>
+      <c r="F38" s="2"/>
+    </row>
+    <row r="39" s="12" customFormat="1" ht="16.5" customHeight="1" spans="4:6">
+      <c r="D39" s="17"/>
+      <c r="F39" s="2"/>
+    </row>
+    <row r="40" s="12" customFormat="1" ht="16.5" customHeight="1" spans="4:6">
+      <c r="D40" s="17"/>
+      <c r="F40" s="2"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:I19"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col customWidth="1" max="3" min="3" style="3" width="21.5"/>
-    <col customWidth="1" max="5" min="5" style="3" width="28.625"/>
-    <col customWidth="1" max="6" min="6" style="13" width="22.875"/>
-    <col customWidth="1" max="7" min="7" style="3" width="40.25"/>
-    <col customWidth="1" max="8" min="8" style="13" width="43.5"/>
-    <col customWidth="1" max="9" min="9" style="3" width="21.5"/>
+    <col min="3" max="3" width="21.5" style="3" customWidth="1"/>
+    <col min="5" max="5" width="28.625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="22.875" style="13" customWidth="1"/>
+    <col min="7" max="7" width="40.25" style="3" customWidth="1"/>
+    <col min="8" max="8" width="43.5" style="13" customWidth="1"/>
+    <col min="9" max="9" width="21.5" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="15" r="1" s="1" spans="1:9">
+    <row r="1" s="1" customFormat="1" ht="15" customHeight="1" spans="1:9">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>115</v>
+        <v>172</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>1</v>
@@ -4311,10 +4299,10 @@
         <v>2</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>116</v>
+        <v>173</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>117</v>
+        <v>174</v>
       </c>
       <c r="G1" s="5" t="s">
         <v>4</v>
@@ -4326,269 +4314,267 @@
         <v>6</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="16.5" r="2" s="2" spans="1:9">
-      <c r="A2" s="7" t="n">
+    <row r="2" s="2" customFormat="1" ht="16.5" customHeight="1" spans="1:8">
+      <c r="A2" s="7">
         <v>1</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>118</v>
+        <v>175</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>10</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>119</v>
+        <v>176</v>
       </c>
       <c r="F2" s="14" t="s">
         <v>60</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="H2" s="10" t="s">
         <v>62</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="33" r="3" s="12" spans="1:9">
-      <c r="A3" s="7" t="n">
+    <row r="3" s="12" customFormat="1" ht="33" customHeight="1" spans="1:9">
+      <c r="A3" s="7">
         <v>2</v>
       </c>
       <c r="B3" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="I3" s="12" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="4" s="12" customFormat="1" ht="33" customHeight="1" spans="1:8">
+      <c r="A4" s="7">
+        <v>3</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>184</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="5" s="12" customFormat="1" ht="33" customHeight="1" spans="1:8">
+      <c r="A5" s="7">
+        <v>4</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="6" s="12" customFormat="1" ht="33" customHeight="1" spans="1:8">
+      <c r="A6" s="7">
+        <v>5</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>192</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="7" s="12" customFormat="1" ht="33" customHeight="1" spans="1:8">
+      <c r="A7" s="7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="8" s="12" customFormat="1" ht="16.5" customHeight="1" spans="6:8">
+      <c r="F8" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="G8" s="15"/>
+      <c r="H8" s="2"/>
+    </row>
+    <row r="9" s="12" customFormat="1" ht="16.5" customHeight="1" spans="6:8">
+      <c r="F9" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="G9" s="15"/>
+      <c r="H9" s="2"/>
+    </row>
+    <row r="10" s="12" customFormat="1" ht="16.5" customHeight="1" spans="6:8">
+      <c r="F10" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="G10" s="15"/>
+      <c r="H10" s="2"/>
+    </row>
+    <row r="11" s="12" customFormat="1" ht="16.5" customHeight="1" spans="6:8">
+      <c r="F11" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="D3" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="10" t="s">
+      <c r="H11" s="2"/>
+    </row>
+    <row r="12" s="12" customFormat="1" ht="16.5" customHeight="1" spans="6:8">
+      <c r="F12" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="H12" s="2"/>
+    </row>
+    <row r="13" s="12" customFormat="1" ht="16.5" customHeight="1" spans="6:8">
+      <c r="F13" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="H13" s="2"/>
+    </row>
+    <row r="14" s="12" customFormat="1" ht="16.5" customHeight="1" spans="6:8">
+      <c r="F14" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H14" s="2"/>
+    </row>
+    <row r="15" s="12" customFormat="1" ht="16.5" customHeight="1" spans="6:8">
+      <c r="F15" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="I3" s="12" t="s">
+      <c r="H15" s="2"/>
+    </row>
+    <row r="16" s="12" customFormat="1" ht="33" customHeight="1" spans="6:8">
+      <c r="F16" s="2" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row customFormat="1" customHeight="1" ht="33" r="4" s="12" spans="1:9">
-      <c r="A4" s="7" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>202</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>203</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="12" t="s">
+      <c r="H16" s="2"/>
+    </row>
+    <row r="17" s="12" customFormat="1" ht="16.5" customHeight="1" spans="6:8">
+      <c r="F17" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="H17" s="2"/>
+    </row>
+    <row r="18" s="12" customFormat="1" ht="16.5" customHeight="1" spans="6:8">
+      <c r="F18" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="G4" s="10" t="s">
+      <c r="H18" s="2"/>
+    </row>
+    <row r="19" s="12" customFormat="1" ht="16.5" customHeight="1" spans="6:8">
+      <c r="F19" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="H4" s="2" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row customFormat="1" customHeight="1" ht="33" r="5" s="12" spans="1:9">
-      <c r="A5" s="7" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>202</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>203</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="12" t="s">
-        <v>213</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="G5" s="10" t="s">
-        <v>215</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row customFormat="1" customHeight="1" ht="33" r="6" s="12" spans="1:9">
-      <c r="A6" s="7" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" s="12" t="s">
-        <v>202</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>203</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="12" t="s">
-        <v>217</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="G6" s="10" t="s">
-        <v>219</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row customFormat="1" customHeight="1" ht="33" r="7" s="12" spans="1:9">
-      <c r="A7" s="7" t="n">
-        <v>6</v>
-      </c>
-      <c r="B7" s="12" t="s">
-        <v>202</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>203</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="12" t="s">
-        <v>221</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="G7" s="10" t="s">
-        <v>223</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row customFormat="1" customHeight="1" ht="16.5" r="8" s="12" spans="1:9">
-      <c r="F8" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="G8" s="15" t="n"/>
-      <c r="H8" s="2" t="n"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="16.5" r="9" s="12" spans="1:9">
-      <c r="F9" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="G9" s="15" t="n"/>
-      <c r="H9" s="2" t="n"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="16.5" r="10" s="12" spans="1:9">
-      <c r="F10" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="G10" s="15" t="n"/>
-      <c r="H10" s="2" t="n"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="16.5" r="11" s="12" spans="1:9">
-      <c r="F11" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="H11" s="2" t="n"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="16.5" r="12" s="12" spans="1:9">
-      <c r="F12" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="H12" s="2" t="n"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="16.5" r="13" s="12" spans="1:9">
-      <c r="F13" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="H13" s="2" t="n"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="16.5" r="14" s="12" spans="1:9">
-      <c r="F14" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="H14" s="2" t="n"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="16.5" r="15" s="12" spans="1:9">
-      <c r="F15" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="H15" s="2" t="n"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="33" r="16" s="12" spans="1:9">
-      <c r="F16" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="H16" s="2" t="n"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="16.5" r="17" s="12" spans="1:9">
-      <c r="F17" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="H17" s="2" t="n"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="16.5" r="18" s="12" spans="1:9">
-      <c r="F18" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="H18" s="2" t="n"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="16.5" r="19" s="12" spans="1:9">
-      <c r="F19" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="H19" s="2" t="n"/>
+      <c r="H19" s="2"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="0" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
   <cols>
-    <col customWidth="1" max="2" min="2" style="3" width="10.375"/>
-    <col customWidth="1" max="3" min="3" style="3" width="19.625"/>
-    <col customWidth="1" max="7" min="7" style="3" width="22.375"/>
-    <col customWidth="1" max="8" min="8" style="3" width="37.375"/>
-    <col customWidth="1" max="9" min="9" style="3" width="30"/>
+    <col min="2" max="2" width="10.375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="19.625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="22.375" style="3" customWidth="1"/>
+    <col min="8" max="8" width="37.375" style="3" customWidth="1"/>
+    <col min="9" max="9" width="30" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="30" r="1" s="1" spans="1:9">
+    <row r="1" s="1" customFormat="1" ht="30" customHeight="1" spans="1:9">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>115</v>
+        <v>172</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>1</v>
@@ -4597,10 +4583,10 @@
         <v>2</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>116</v>
+        <v>173</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>117</v>
+        <v>174</v>
       </c>
       <c r="G1" s="5" t="s">
         <v>4</v>
@@ -4612,36 +4598,37 @@
         <v>6</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="99" r="2" s="2" spans="1:9">
-      <c r="A2" s="7" t="n">
+    <row r="2" s="2" customFormat="1" ht="99" customHeight="1" spans="1:9">
+      <c r="A2" s="7">
         <v>1</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>121</v>
+        <v>212</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>10</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>123</v>
+        <v>213</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>125</v>
+        <v>214</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>126</v>
+        <v>215</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/python_api_test_qianchendai/test_data/test_case.xlsx
+++ b/python_api_test_qianchendai/test_data/test_case.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="631" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="631" uniqueCount="217">
   <si>
     <t>case_id</t>
   </si>
@@ -411,157 +411,160 @@
     <t>{"status":1,"code":"20119","data":null,"msg":"余额不足，请修改提现额度"}</t>
   </si>
   <si>
+    <t>/futureloan/mvc/api/loan/add</t>
+  </si>
+  <si>
+    <t>成功加标</t>
+  </si>
+  <si>
+    <t>{"memberId":"${memberId}","title":"${title}","amount":"200000","loanRate":"18","loanTerm":"6","loanDateType":"0","repaymemtWay":"4","biddingDays":"10"}</t>
+  </si>
+  <si>
+    <t>{"status": 1, "code": "10001","data": null,"msg": "加标成功"}</t>
+  </si>
+  <si>
+    <t>loan表中新增一条记录</t>
+  </si>
+  <si>
+    <t>用户id为空</t>
+  </si>
+  <si>
+    <t>{"memberId":"","title":"${title}","amount":"200000","loanRate":"18","loanTerm":"6","loanDateType":"0","repaymemtWay":"4","biddingDays":"10"}</t>
+  </si>
+  <si>
+    <t>{"status":0,"code":"20103","data":null,"msg":"所有参数不能为空"}</t>
+  </si>
+  <si>
+    <t>用户id不存在</t>
+  </si>
+  <si>
+    <t>{"memberId":"1111242","title":"${title}","amount":"200000","loanRate":"18","loanTerm":"6","loanDateType":"0","repaymemtWay":"4","biddingDays":"10"}</t>
+  </si>
+  <si>
+    <t>{"status":0,"code":"20105","data":null,"msg":"不存在该会员"}</t>
+  </si>
+  <si>
+    <t>用户id为浮点型</t>
+  </si>
+  <si>
+    <t>{"memberId":"1021.09","title":"${title}","amount":"200000","loanRate":"18","loanTerm":"6","loanDateType":"0","repaymemtWay":"4","biddingDays":"10"}</t>
+  </si>
+  <si>
+    <t>{"status":0,"code":"20109","data":null,"msg":"请根据数值参数的类型对应输入合法的数字"}</t>
+  </si>
+  <si>
+    <t>用户id非数字</t>
+  </si>
+  <si>
+    <t>{"memberId":"壹零贰壹零玖","title":"${title}","amount":"200000","loanRate":"18","loanTerm":"6","loanDateType":"0","repaymemtWay":"4","biddingDays":"10"}</t>
+  </si>
+  <si>
+    <t>用户id为负数</t>
+  </si>
+  <si>
+    <t>{"memberId":"-102109","title":"${title}","amount":"200000","loanRate":"18","loanTerm":"6","loanDateType":"0","repaymemtWay":"4","biddingDays":"10"}</t>
+  </si>
+  <si>
+    <t>{"status":0,"code":"20104","data":null,"msg":"参数错误：用户ID memberId必须是正整数"}</t>
+  </si>
+  <si>
+    <t>标题为空</t>
+  </si>
+  <si>
+    <t>{"memberId":"${memberId}","title":"","amount":"200000","loanRate":"18","loanTerm":"6","loanDateType":"0","repaymemtWay":"4","biddingDays":"10"}</t>
+  </si>
+  <si>
+    <t>标题重复</t>
+  </si>
+  <si>
+    <t>{"memberId":"${memberId}","title":"集资买胖五","amount":"1000","loanRate":"18","loanTerm":"6","loanDateType":"0","repaymemtWay":"4","biddingDays":"10"}</t>
+  </si>
+  <si>
+    <t>标题非字符串</t>
+  </si>
+  <si>
+    <t>{"memberId":"102109","title":111.111,"amount":"1000","loanRate":"18","loanTerm":"6","loanDateType":"0","repaymemtWay":"4","biddingDays":"10"}</t>
+  </si>
+  <si>
+    <t>标题为空格</t>
+  </si>
+  <si>
+    <t>{"memberId":"${memberId}","title":"  ","amount":"1000","loanRate":"18","loanTerm":"6","loanDateType":"0","repaymemtWay":"4","biddingDays":"10"}</t>
+  </si>
+  <si>
+    <t>借款金额为空</t>
+  </si>
+  <si>
+    <t>{"memberId":"${memberId}","title":"${title}","amount":"","loanRate":"18","loanTerm":"6","loanDateType":"0","repaymemtWay":"4","biddingDays":"10"}</t>
+  </si>
+  <si>
+    <t>借款金额为1000</t>
+  </si>
+  <si>
+    <t>{"memberId":"${memberId}","title":"${title}","amount":"1000","loanRate":"18","loanTerm":"6","loanDateType":"0","repaymemtWay":"4","biddingDays":"10"}</t>
+  </si>
+  <si>
+    <t>借款金额为1100.1</t>
+  </si>
+  <si>
+    <t>{"memberId":"${memberId}","title":"${title}","amount":"1100.1","loanRate":"18","loanTerm":"6","loanDateType":"0","repaymemtWay":"4","biddingDays":"10"}</t>
+  </si>
+  <si>
+    <t>借款金额为1001</t>
+  </si>
+  <si>
+    <t>{"memberId":"${memberId}","title":"${title}","amount":"1001","loanRate":"18","loanTerm":"6","loanDateType":"0","repaymemtWay":"4","biddingDays":"10"}</t>
+  </si>
+  <si>
+    <t>借款金额为-1100</t>
+  </si>
+  <si>
+    <t>{"memberId":"${memberId}","title":"${title}","amount":"-1100","loanRate":"18","loanTerm":"6","loanDateType":"0","repaymemtWay":"4","biddingDays":"10"}</t>
+  </si>
+  <si>
+    <t>借款金额为汉字一千</t>
+  </si>
+  <si>
+    <t>{"memberId":"${memberId}","title":"${title}","amount":"一千","loanRate":"18","loanTerm":"6","loanDateType":"0","repaymemtWay":"4","biddingDays":"10"}</t>
+  </si>
+  <si>
+    <t>年利率为空</t>
+  </si>
+  <si>
+    <t>{"memberId":"${memberId}","title":"${title}","amount":"200000","loanRate":"","loanTerm":"6","loanDateType":"0","repaymemtWay":"4","biddingDays":"10"}</t>
+  </si>
+  <si>
+    <t>年利率为0</t>
+  </si>
+  <si>
+    <t>{"memberId":"${memberId}","title":"${title}","amount":"200000","loanRate":"0","loanTerm":"6","loanDateType":"0","repaymemtWay":"4","biddingDays":"10"}</t>
+  </si>
+  <si>
+    <t>{"status":0,"code":"20107","data":null,"msg":"参数错误：借款利率loanRate值必须大于0小于或等于24"}</t>
+  </si>
+  <si>
+    <t>年利率为25</t>
+  </si>
+  <si>
+    <t>{"memberId":"${memberId}","title":"${title}","amount":"200000","loanRate":"25","loanTerm":"6","loanDateType":"0","repaymemtWay":"4","biddingDays":"10"}</t>
+  </si>
+  <si>
+    <t>接口功能</t>
+  </si>
+  <si>
+    <t>api_name</t>
+  </si>
+  <si>
+    <t>用例说明</t>
+  </si>
+  <si>
+    <t>登录</t>
+  </si>
+  <si>
+    <t>login_success</t>
+  </si>
+  <si>
     <t>{"mobilephone":"13201231230","pwd":"123456"}</t>
-  </si>
-  <si>
-    <t>/futureloan/mvc/api/loan/add</t>
-  </si>
-  <si>
-    <t>成功加标</t>
-  </si>
-  <si>
-    <t>{"memberId":"102109","title":"集资买胖五"，"amount":"200000","loanRate":"18","loanTerm":"6"，"loanDateType":"0","repaymemtWay":"4"，"biddingDays":"10"}</t>
-  </si>
-  <si>
-    <t>{"status": 1, "code": "10001","data": null,"msg": "加标成功"}</t>
-  </si>
-  <si>
-    <t>loan表中新增一条记录</t>
-  </si>
-  <si>
-    <t>用户id为空</t>
-  </si>
-  <si>
-    <t>{"memberId":"","title":"集资买胖五"，"amount":"200000","loanRate":"18","loanTerm":"6"，"loanDateType":"0","repaymemtWay":"4"，"biddingDays":"10"}</t>
-  </si>
-  <si>
-    <t>{"status":0,"code":"20103","data":null,"msg":"所有参数不能为空"}</t>
-  </si>
-  <si>
-    <t>用户id不存在</t>
-  </si>
-  <si>
-    <t>{"memberId":"1111242","title":"集资买胖五"，"amount":"200000","loanRate":"18","loanTerm":"6"，"loanDateType":"0","repaymemtWay":"4"，"biddingDays":"10"}</t>
-  </si>
-  <si>
-    <t>{"status":0,"code":"20105","data":null,"msg":"不存在该会员"}</t>
-  </si>
-  <si>
-    <t>用户id为浮点型</t>
-  </si>
-  <si>
-    <t>{"memberId":"1021.09","title":"集资买胖五"，"amount":"200000","loanRate":"18","loanTerm":"6"，"loanDateType":"0","repaymemtWay":"4"，"biddingDays":"10"}</t>
-  </si>
-  <si>
-    <t>{"status":0,"code":"20109","data":null,"msg":"请根据数值参数的类型对应输入合法的数字"}</t>
-  </si>
-  <si>
-    <t>用户id非数字</t>
-  </si>
-  <si>
-    <t>{"memberId":"壹零贰壹零玖","title":"集资买胖五"，"amount":"200000","loanRate":"18","loanTerm":"6"，"loanDateType":"0","repaymemtWay":"4"，"biddingDays":"10"}</t>
-  </si>
-  <si>
-    <t>用户id为负数</t>
-  </si>
-  <si>
-    <t>{"memberId":"-102109","title":"集资买胖五"，"amount":"200000","loanRate":"18","loanTerm":"6"，"loanDateType":"0","repaymemtWay":"4"，"biddingDays":"10"}</t>
-  </si>
-  <si>
-    <t>{"status":0,"code":"20104","data":null,"msg":"参数错误：用户ID memberId必须是正整数"}</t>
-  </si>
-  <si>
-    <t>标题为空</t>
-  </si>
-  <si>
-    <t>{"memberId":"102109","title":""，"amount":"200000","loanRate":"18","loanTerm":"6"，"loanDateType":"0","repaymemtWay":"4"，"biddingDays":"10"}</t>
-  </si>
-  <si>
-    <t>标题重复</t>
-  </si>
-  <si>
-    <t>{"memberId":"102109","title":"集资买胖五"，"amount":"1000","loanRate":"18","loanTerm":"6"，"loanDateType":"0","repaymemtWay":"4"，"biddingDays":"10"}</t>
-  </si>
-  <si>
-    <t>标题非字符串</t>
-  </si>
-  <si>
-    <t>{"memberId":"102109","title":111.111，"amount":"1000","loanRate":"18","loanTerm":"6"，"loanDateType":"0","repaymemtWay":"4"，"biddingDays":"10"}</t>
-  </si>
-  <si>
-    <t>标题为空格</t>
-  </si>
-  <si>
-    <t>{"memberId":"102109","title":"  "，"amount":"1000","loanRate":"18","loanTerm":"6"，"loanDateType":"0","repaymemtWay":"4"，"biddingDays":"10"}</t>
-  </si>
-  <si>
-    <t>借款金额为空</t>
-  </si>
-  <si>
-    <t>{"memberId":"102109","title":"集资买胖五"，"amount":"","loanRate":"18","loanTerm":"6"，"loanDateType":"0","repaymemtWay":"4"，"biddingDays":"10"}</t>
-  </si>
-  <si>
-    <t>借款金额为1000</t>
-  </si>
-  <si>
-    <t>借款金额为1100.1</t>
-  </si>
-  <si>
-    <t>{"memberId":"102109","title":"集资买胖五"，"amount":"1100.1","loanRate":"18","loanTerm":"6"，"loanDateType":"0","repaymemtWay":"4"，"biddingDays":"10"}</t>
-  </si>
-  <si>
-    <t>借款金额为1001</t>
-  </si>
-  <si>
-    <t>{"memberId":"102109","title":"集资买胖五"，"amount":"1001","loanRate":"18","loanTerm":"6"，"loanDateType":"0","repaymemtWay":"4"，"biddingDays":"10"}</t>
-  </si>
-  <si>
-    <t>借款金额为-1100</t>
-  </si>
-  <si>
-    <t>{"memberId":"102109","title":"集资买胖五"，"amount":"-1100","loanRate":"18","loanTerm":"6"，"loanDateType":"0","repaymemtWay":"4"，"biddingDays":"10"}</t>
-  </si>
-  <si>
-    <t>借款金额为汉字一千</t>
-  </si>
-  <si>
-    <t>{"memberId":"102109","title":"集资买胖五"，"amount":"一千","loanRate":"18","loanTerm":"6"，"loanDateType":"0","repaymemtWay":"4"，"biddingDays":"10"}</t>
-  </si>
-  <si>
-    <t>年利率为空</t>
-  </si>
-  <si>
-    <t>{"memberId":"102109","title":"集资买胖五"，"amount":"200000","loanRate":"","loanTerm":"6"，"loanDateType":"0","repaymemtWay":"4"，"biddingDays":"10"}</t>
-  </si>
-  <si>
-    <t>年利率为0</t>
-  </si>
-  <si>
-    <t>{"memberId":"102109","title":"集资买胖五"，"amount":"200000","loanRate":"0","loanTerm":"6"，"loanDateType":"0","repaymemtWay":"4"，"biddingDays":"10"}</t>
-  </si>
-  <si>
-    <t>{"status":0,"code":"20107","data":null,"msg":"参数错误：借款利率loanRate值必须大于0小于或等于24"}</t>
-  </si>
-  <si>
-    <t>年利率为25</t>
-  </si>
-  <si>
-    <t>{"memberId":"102109","title":"集资买胖五"，"amount":"200000","loanRate":"25","loanTerm":"6"，"loanDateType":"0","repaymemtWay":"4"，"biddingDays":"10"}</t>
-  </si>
-  <si>
-    <t>接口功能</t>
-  </si>
-  <si>
-    <t>api_name</t>
-  </si>
-  <si>
-    <t>用例说明</t>
-  </si>
-  <si>
-    <t>登录</t>
-  </si>
-  <si>
-    <t>login_success</t>
   </si>
   <si>
     <t>审核</t>
@@ -686,10 +689,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="28">
     <font>
@@ -754,7 +757,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -762,7 +788,37 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -778,66 +834,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -845,29 +842,6 @@
     <font>
       <b/>
       <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -882,8 +856,37 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -891,7 +894,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -912,19 +915,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -936,13 +981,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -954,25 +999,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -990,25 +1029,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1020,25 +1041,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1050,25 +1065,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1080,19 +1095,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1134,17 +1137,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1154,6 +1151,30 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1174,16 +1195,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1199,34 +1220,16 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -1237,10 +1240,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="3">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="8">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
@@ -1249,137 +1252,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="13" borderId="10">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="28" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="33" borderId="10">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="9">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0">
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="33" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="15" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1431,9 +1434,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -1858,66 +1858,66 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="13.6083333333333" style="28" customWidth="1"/>
-    <col min="2" max="2" width="39.0333333333333" style="29" customWidth="1"/>
-    <col min="3" max="3" width="10.5583333333333" style="29" customWidth="1"/>
-    <col min="4" max="4" width="21.9416666666667" style="30" customWidth="1"/>
-    <col min="5" max="5" width="80.8333333333333" style="29" customWidth="1"/>
-    <col min="6" max="6" width="61.3916666666667" style="31" customWidth="1"/>
-    <col min="7" max="7" width="43.4666666666667" style="32" customWidth="1"/>
-    <col min="8" max="8" width="72.2166666666667" style="32" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="32" customWidth="1"/>
+    <col min="1" max="1" width="13.6083333333333" style="27" customWidth="1"/>
+    <col min="2" max="2" width="39.0333333333333" style="28" customWidth="1"/>
+    <col min="3" max="3" width="10.5583333333333" style="28" customWidth="1"/>
+    <col min="4" max="4" width="21.9416666666667" style="29" customWidth="1"/>
+    <col min="5" max="5" width="80.8333333333333" style="28" customWidth="1"/>
+    <col min="6" max="6" width="61.3916666666667" style="30" customWidth="1"/>
+    <col min="7" max="7" width="43.4666666666667" style="31" customWidth="1"/>
+    <col min="8" max="8" width="72.2166666666667" style="31" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="31" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="26" customFormat="1" ht="18" customHeight="1" spans="1:9">
-      <c r="A1" s="33" t="s">
+    <row r="1" s="25" customFormat="1" ht="18" customHeight="1" spans="1:9">
+      <c r="A1" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="34" t="s">
+      <c r="C1" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="34" t="s">
+      <c r="D1" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="34" t="s">
+      <c r="E1" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="35" t="s">
+      <c r="F1" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="26" t="s">
+      <c r="G1" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="26" t="s">
+      <c r="H1" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="26" t="s">
+      <c r="I1" s="25" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" s="27" customFormat="1" ht="103.5" customHeight="1" spans="1:9">
-      <c r="A2" s="36">
+    <row r="2" s="26" customFormat="1" ht="103.5" customHeight="1" spans="1:9">
+      <c r="A2" s="35">
         <v>1</v>
       </c>
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="38" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="39" t="s">
+      <c r="C2" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="40" t="s">
+      <c r="E2" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="40" t="s">
+      <c r="F2" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="27" t="s">
+      <c r="G2" s="26" t="s">
         <v>14</v>
       </c>
       <c r="H2" s="13" t="s">
@@ -1927,26 +1927,26 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" s="27" customFormat="1" ht="103.5" customHeight="1" spans="1:9">
-      <c r="A3" s="36">
+    <row r="3" s="26" customFormat="1" ht="103.5" customHeight="1" spans="1:9">
+      <c r="A3" s="35">
         <v>2</v>
       </c>
-      <c r="B3" s="37" t="s">
+      <c r="B3" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="38" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="39" t="s">
+      <c r="C3" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="40" t="s">
+      <c r="E3" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="40" t="s">
+      <c r="F3" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="27" t="s">
+      <c r="G3" s="26" t="s">
         <v>19</v>
       </c>
       <c r="H3" s="13" t="s">
@@ -1956,26 +1956,26 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" s="27" customFormat="1" ht="17.25" customHeight="1" spans="1:9">
-      <c r="A4" s="36">
+    <row r="4" s="26" customFormat="1" ht="17.25" customHeight="1" spans="1:9">
+      <c r="A4" s="35">
         <v>3</v>
       </c>
-      <c r="B4" s="37" t="s">
+      <c r="B4" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="38" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="39" t="s">
+      <c r="C4" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="40" t="s">
+      <c r="E4" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="40" t="s">
+      <c r="F4" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="G4" s="27" t="s">
+      <c r="G4" s="26" t="s">
         <v>24</v>
       </c>
       <c r="H4" s="13" t="s">
@@ -1986,22 +1986,22 @@
       </c>
     </row>
     <row r="5" ht="17.25" customHeight="1" spans="1:9">
-      <c r="A5" s="36">
+      <c r="A5" s="35">
         <v>4</v>
       </c>
-      <c r="B5" s="37" t="s">
+      <c r="B5" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="38" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="41" t="s">
+      <c r="C5" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="40" t="s">
         <v>25</v>
       </c>
-      <c r="E5" s="40" t="s">
+      <c r="E5" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="F5" s="40" t="s">
+      <c r="F5" s="39" t="s">
         <v>15</v>
       </c>
       <c r="H5" s="13" t="s">
@@ -2012,22 +2012,22 @@
       </c>
     </row>
     <row r="6" ht="34.5" customHeight="1" spans="1:9">
-      <c r="A6" s="36">
+      <c r="A6" s="35">
         <v>5</v>
       </c>
-      <c r="B6" s="37" t="s">
+      <c r="B6" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="38" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="41" t="s">
+      <c r="C6" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="E6" s="40" t="s">
+      <c r="E6" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="F6" s="40" t="s">
+      <c r="F6" s="39" t="s">
         <v>29</v>
       </c>
       <c r="H6" s="13" t="s">
@@ -2038,22 +2038,22 @@
       </c>
     </row>
     <row r="7" ht="34.5" customHeight="1" spans="1:9">
-      <c r="A7" s="36">
+      <c r="A7" s="35">
         <v>6</v>
       </c>
-      <c r="B7" s="37" t="s">
+      <c r="B7" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="38" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="41" t="s">
+      <c r="C7" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="E7" s="40" t="s">
+      <c r="E7" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="F7" s="40" t="s">
+      <c r="F7" s="39" t="s">
         <v>29</v>
       </c>
       <c r="H7" s="13" t="s">
@@ -2064,22 +2064,22 @@
       </c>
     </row>
     <row r="8" ht="34.5" customHeight="1" spans="1:9">
-      <c r="A8" s="36">
+      <c r="A8" s="35">
         <v>7</v>
       </c>
-      <c r="B8" s="37" t="s">
+      <c r="B8" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="38" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="41" t="s">
+      <c r="C8" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="E8" s="40" t="s">
+      <c r="E8" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="F8" s="40" t="s">
+      <c r="F8" s="39" t="s">
         <v>29</v>
       </c>
       <c r="H8" s="13" t="s">
@@ -2090,22 +2090,22 @@
       </c>
     </row>
     <row r="9" ht="17.25" customHeight="1" spans="1:9">
-      <c r="A9" s="36">
+      <c r="A9" s="35">
         <v>8</v>
       </c>
-      <c r="B9" s="37" t="s">
+      <c r="B9" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="38" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" s="41" t="s">
+      <c r="C9" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="40" t="s">
         <v>34</v>
       </c>
-      <c r="E9" s="40" t="s">
+      <c r="E9" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="F9" s="40" t="s">
+      <c r="F9" s="39" t="s">
         <v>29</v>
       </c>
       <c r="H9" s="13" t="s">
@@ -2116,22 +2116,22 @@
       </c>
     </row>
     <row r="10" ht="34.5" customHeight="1" spans="1:9">
-      <c r="A10" s="36">
+      <c r="A10" s="35">
         <v>9</v>
       </c>
-      <c r="B10" s="37" t="s">
+      <c r="B10" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="38" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" s="41" t="s">
+      <c r="C10" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="E10" s="40" t="s">
+      <c r="E10" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="F10" s="40" t="s">
+      <c r="F10" s="39" t="s">
         <v>29</v>
       </c>
       <c r="H10" s="13" t="s">
@@ -2142,22 +2142,22 @@
       </c>
     </row>
     <row r="11" ht="17.25" customHeight="1" spans="1:9">
-      <c r="A11" s="36">
-        <v>10</v>
-      </c>
-      <c r="B11" s="37" t="s">
+      <c r="A11" s="35">
+        <v>10</v>
+      </c>
+      <c r="B11" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="38" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11" s="41" t="s">
+      <c r="C11" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="E11" s="40" t="s">
+      <c r="E11" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="F11" s="40" t="s">
+      <c r="F11" s="39" t="s">
         <v>29</v>
       </c>
       <c r="H11" s="13" t="s">
@@ -2168,22 +2168,22 @@
       </c>
     </row>
     <row r="12" ht="34.5" customHeight="1" spans="1:9">
-      <c r="A12" s="36">
+      <c r="A12" s="35">
         <v>11</v>
       </c>
-      <c r="B12" s="37" t="s">
+      <c r="B12" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="38" t="s">
-        <v>10</v>
-      </c>
-      <c r="D12" s="41" t="s">
+      <c r="C12" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="E12" s="40" t="s">
+      <c r="E12" s="39" t="s">
         <v>41</v>
       </c>
-      <c r="F12" s="40" t="s">
+      <c r="F12" s="39" t="s">
         <v>29</v>
       </c>
       <c r="H12" s="13" t="s">
@@ -2193,23 +2193,23 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" s="27" customFormat="1" ht="17.25" customHeight="1" spans="1:9">
-      <c r="A13" s="36">
+    <row r="13" s="26" customFormat="1" ht="17.25" customHeight="1" spans="1:9">
+      <c r="A13" s="35">
         <v>12</v>
       </c>
-      <c r="B13" s="37" t="s">
+      <c r="B13" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="38" t="s">
-        <v>10</v>
-      </c>
-      <c r="D13" s="38" t="s">
+      <c r="C13" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="E13" s="40" t="s">
+      <c r="E13" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="F13" s="40" t="s">
+      <c r="F13" s="39" t="s">
         <v>44</v>
       </c>
       <c r="H13" s="13" t="s">
@@ -2220,22 +2220,22 @@
       </c>
     </row>
     <row r="14" ht="34.5" customHeight="1" spans="1:9">
-      <c r="A14" s="36">
+      <c r="A14" s="35">
         <v>13</v>
       </c>
-      <c r="B14" s="37" t="s">
+      <c r="B14" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="38" t="s">
-        <v>10</v>
-      </c>
-      <c r="D14" s="38" t="s">
+      <c r="C14" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="37" t="s">
         <v>45</v>
       </c>
-      <c r="E14" s="40" t="s">
+      <c r="E14" s="39" t="s">
         <v>46</v>
       </c>
-      <c r="F14" s="40" t="s">
+      <c r="F14" s="39" t="s">
         <v>47</v>
       </c>
       <c r="H14" s="13" t="s">
@@ -2246,22 +2246,22 @@
       </c>
     </row>
     <row r="15" ht="34.5" customHeight="1" spans="1:9">
-      <c r="A15" s="36">
+      <c r="A15" s="35">
         <v>14</v>
       </c>
-      <c r="B15" s="37" t="s">
+      <c r="B15" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="38" t="s">
-        <v>10</v>
-      </c>
-      <c r="D15" s="38" t="s">
+      <c r="C15" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="37" t="s">
         <v>48</v>
       </c>
-      <c r="E15" s="40" t="s">
+      <c r="E15" s="39" t="s">
         <v>49</v>
       </c>
-      <c r="F15" s="40" t="s">
+      <c r="F15" s="39" t="s">
         <v>47</v>
       </c>
       <c r="H15" s="13" t="s">
@@ -2272,22 +2272,22 @@
       </c>
     </row>
     <row r="16" ht="17.25" customHeight="1" spans="1:9">
-      <c r="A16" s="36">
+      <c r="A16" s="35">
         <v>15</v>
       </c>
-      <c r="B16" s="37" t="s">
+      <c r="B16" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="38" t="s">
-        <v>10</v>
-      </c>
-      <c r="D16" s="38" t="s">
+      <c r="C16" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" s="37" t="s">
         <v>50</v>
       </c>
-      <c r="E16" s="40" t="s">
+      <c r="E16" s="39" t="s">
         <v>51</v>
       </c>
-      <c r="F16" s="40" t="s">
+      <c r="F16" s="39" t="s">
         <v>52</v>
       </c>
       <c r="H16" s="13" t="s">
@@ -2298,22 +2298,22 @@
       </c>
     </row>
     <row r="17" ht="17.25" customHeight="1" spans="1:9">
-      <c r="A17" s="36">
+      <c r="A17" s="35">
         <v>16</v>
       </c>
-      <c r="B17" s="37" t="s">
+      <c r="B17" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="38" t="s">
-        <v>10</v>
-      </c>
-      <c r="D17" s="38" t="s">
+      <c r="C17" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" s="37" t="s">
         <v>53</v>
       </c>
-      <c r="E17" s="40" t="s">
+      <c r="E17" s="39" t="s">
         <v>54</v>
       </c>
-      <c r="F17" s="40" t="s">
+      <c r="F17" s="39" t="s">
         <v>52</v>
       </c>
       <c r="H17" s="13" t="s">
@@ -2324,22 +2324,22 @@
       </c>
     </row>
     <row r="18" ht="17.25" customHeight="1" spans="1:9">
-      <c r="A18" s="36">
+      <c r="A18" s="35">
         <v>17</v>
       </c>
-      <c r="B18" s="37" t="s">
+      <c r="B18" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="C18" s="38" t="s">
-        <v>10</v>
-      </c>
-      <c r="D18" s="38" t="s">
+      <c r="C18" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" s="37" t="s">
         <v>55</v>
       </c>
-      <c r="E18" s="40" t="s">
+      <c r="E18" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="F18" s="40" t="s">
+      <c r="F18" s="39" t="s">
         <v>52</v>
       </c>
       <c r="H18" s="13" t="s">
@@ -2350,22 +2350,22 @@
       </c>
     </row>
     <row r="19" ht="17.25" customHeight="1" spans="1:9">
-      <c r="A19" s="36">
+      <c r="A19" s="35">
         <v>18</v>
       </c>
-      <c r="B19" s="37" t="s">
+      <c r="B19" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="38" t="s">
-        <v>10</v>
-      </c>
-      <c r="D19" s="38" t="s">
+      <c r="C19" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" s="37" t="s">
         <v>57</v>
       </c>
-      <c r="E19" s="40" t="s">
+      <c r="E19" s="39" t="s">
         <v>58</v>
       </c>
-      <c r="F19" s="40" t="s">
+      <c r="F19" s="39" t="s">
         <v>52</v>
       </c>
       <c r="H19" s="13" t="s">
@@ -2401,14 +2401,14 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.5" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="11" style="23" customWidth="1"/>
-    <col min="2" max="2" width="36.875" style="23" customWidth="1"/>
-    <col min="3" max="3" width="11" style="23" customWidth="1"/>
-    <col min="4" max="4" width="18.75" style="23" customWidth="1"/>
-    <col min="5" max="5" width="61.875" style="23" customWidth="1"/>
-    <col min="6" max="6" width="71.375" style="23" customWidth="1"/>
-    <col min="7" max="7" width="38.75" style="23" customWidth="1"/>
-    <col min="8" max="16384" width="11" style="23" customWidth="1"/>
+    <col min="1" max="1" width="11" style="22" customWidth="1"/>
+    <col min="2" max="2" width="36.875" style="22" customWidth="1"/>
+    <col min="3" max="3" width="11" style="22" customWidth="1"/>
+    <col min="4" max="4" width="18.75" style="22" customWidth="1"/>
+    <col min="5" max="5" width="61.875" style="22" customWidth="1"/>
+    <col min="6" max="6" width="71.375" style="22" customWidth="1"/>
+    <col min="7" max="7" width="38.75" style="22" customWidth="1"/>
+    <col min="8" max="16384" width="11" style="22" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="15" customHeight="1" spans="1:7">
@@ -2504,7 +2504,7 @@
       <c r="C5" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="24" t="s">
+      <c r="D5" s="23" t="s">
         <v>30</v>
       </c>
       <c r="E5" s="10" t="s">
@@ -2524,7 +2524,7 @@
       <c r="C6" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="24" t="s">
+      <c r="D6" s="23" t="s">
         <v>32</v>
       </c>
       <c r="E6" s="10" t="s">
@@ -2544,7 +2544,7 @@
       <c r="C7" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="24" t="s">
+      <c r="D7" s="23" t="s">
         <v>34</v>
       </c>
       <c r="E7" s="10" t="s">
@@ -2564,7 +2564,7 @@
       <c r="C8" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="24" t="s">
+      <c r="D8" s="23" t="s">
         <v>36</v>
       </c>
       <c r="E8" s="10" t="s">
@@ -2584,7 +2584,7 @@
       <c r="C9" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="24" t="s">
+      <c r="D9" s="23" t="s">
         <v>38</v>
       </c>
       <c r="E9" s="10" t="s">
@@ -2604,7 +2604,7 @@
       <c r="C10" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="24" t="s">
+      <c r="D10" s="23" t="s">
         <v>40</v>
       </c>
       <c r="E10" s="10" t="s">
@@ -2650,7 +2650,7 @@
       <c r="E12" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="F12" s="25" t="s">
+      <c r="F12" s="24" t="s">
         <v>65</v>
       </c>
     </row>
@@ -2670,7 +2670,7 @@
       <c r="E13" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="F13" s="25" t="s">
+      <c r="F13" s="24" t="s">
         <v>65</v>
       </c>
     </row>
@@ -2690,7 +2690,7 @@
       <c r="E14" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="F14" s="25" t="s">
+      <c r="F14" s="24" t="s">
         <v>65</v>
       </c>
     </row>
@@ -2710,7 +2710,7 @@
       <c r="E15" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="F15" s="25" t="s">
+      <c r="F15" s="24" t="s">
         <v>65</v>
       </c>
     </row>
@@ -2730,7 +2730,7 @@
       <c r="E16" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="F16" s="25" t="s">
+      <c r="F16" s="24" t="s">
         <v>65</v>
       </c>
     </row>
@@ -2750,7 +2750,7 @@
       <c r="E17" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="F17" s="25" t="s">
+      <c r="F17" s="24" t="s">
         <v>65</v>
       </c>
     </row>
@@ -2775,9 +2775,9 @@
     <col min="1" max="1" width="7.875" style="3" customWidth="1"/>
     <col min="2" max="2" width="31.875" style="3" customWidth="1"/>
     <col min="3" max="3" width="14.375" style="3" customWidth="1"/>
-    <col min="4" max="4" width="21.75" style="21" customWidth="1"/>
+    <col min="4" max="4" width="21.75" style="20" customWidth="1"/>
     <col min="5" max="5" width="48.5" style="3" customWidth="1"/>
-    <col min="6" max="6" width="15.125" style="22" customWidth="1"/>
+    <col min="6" max="6" width="15.125" style="21" customWidth="1"/>
     <col min="7" max="7" width="31.125" style="3" customWidth="1"/>
     <col min="8" max="8" width="68" style="3" customWidth="1"/>
     <col min="9" max="9" width="20.625" style="3" customWidth="1"/>
@@ -2941,7 +2941,7 @@
       <c r="C6" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="20" t="s">
+      <c r="D6" s="19" t="s">
         <v>30</v>
       </c>
       <c r="E6" s="10" t="s">
@@ -2970,7 +2970,7 @@
       <c r="C7" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="20" t="s">
+      <c r="D7" s="19" t="s">
         <v>32</v>
       </c>
       <c r="E7" s="10" t="s">
@@ -2999,7 +2999,7 @@
       <c r="C8" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="20" t="s">
+      <c r="D8" s="19" t="s">
         <v>34</v>
       </c>
       <c r="E8" s="10" t="s">
@@ -3028,7 +3028,7 @@
       <c r="C9" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="20" t="s">
+      <c r="D9" s="19" t="s">
         <v>36</v>
       </c>
       <c r="E9" s="10" t="s">
@@ -3057,7 +3057,7 @@
       <c r="C10" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="20" t="s">
+      <c r="D10" s="19" t="s">
         <v>38</v>
       </c>
       <c r="E10" s="10" t="s">
@@ -3086,7 +3086,7 @@
       <c r="C11" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="20" t="s">
+      <c r="D11" s="19" t="s">
         <v>40</v>
       </c>
       <c r="E11" s="10" t="s">
@@ -3262,13 +3262,13 @@
   <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="16.875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="15.25" style="18" customWidth="1"/>
+    <col min="4" max="4" width="15.25" style="16" customWidth="1"/>
     <col min="5" max="5" width="44.375" style="3" customWidth="1"/>
     <col min="6" max="6" width="66.125" style="13" customWidth="1"/>
     <col min="7" max="7" width="30.875" style="3" customWidth="1"/>
@@ -3374,7 +3374,7 @@
       <c r="E4" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="F4" s="19">
+      <c r="F4" s="18">
         <v>20104</v>
       </c>
       <c r="H4" t="s">
@@ -3400,7 +3400,7 @@
       <c r="E5" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="F5" s="19">
+      <c r="F5" s="18">
         <v>20103</v>
       </c>
       <c r="H5" t="s">
@@ -3420,13 +3420,13 @@
       <c r="C6" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="20" t="s">
+      <c r="D6" s="19" t="s">
         <v>30</v>
       </c>
       <c r="E6" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="F6" s="19">
+      <c r="F6" s="18">
         <v>20109</v>
       </c>
       <c r="H6" t="s">
@@ -3446,13 +3446,13 @@
       <c r="C7" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="20" t="s">
+      <c r="D7" s="19" t="s">
         <v>32</v>
       </c>
       <c r="E7" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="F7" s="19">
+      <c r="F7" s="18">
         <v>20109</v>
       </c>
       <c r="H7" t="s">
@@ -3472,13 +3472,13 @@
       <c r="C8" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="20" t="s">
+      <c r="D8" s="19" t="s">
         <v>34</v>
       </c>
       <c r="E8" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="F8" s="19">
+      <c r="F8" s="18">
         <v>20109</v>
       </c>
       <c r="H8" t="s">
@@ -3498,13 +3498,13 @@
       <c r="C9" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="20" t="s">
+      <c r="D9" s="19" t="s">
         <v>36</v>
       </c>
       <c r="E9" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="F9" s="19">
+      <c r="F9" s="18">
         <v>20109</v>
       </c>
       <c r="H9" t="s">
@@ -3524,13 +3524,13 @@
       <c r="C10" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="20" t="s">
+      <c r="D10" s="19" t="s">
         <v>38</v>
       </c>
       <c r="E10" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="F10" s="19">
+      <c r="F10" s="18">
         <v>20109</v>
       </c>
       <c r="H10" t="s">
@@ -3550,13 +3550,13 @@
       <c r="C11" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="20" t="s">
+      <c r="D11" s="19" t="s">
         <v>40</v>
       </c>
       <c r="E11" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="F11" s="19">
+      <c r="F11" s="18">
         <v>20109</v>
       </c>
       <c r="H11" t="s">
@@ -3608,7 +3608,7 @@
       <c r="E13" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="F13" s="19">
+      <c r="F13" s="18">
         <v>20117</v>
       </c>
       <c r="H13" t="s">
@@ -3634,7 +3634,7 @@
       <c r="E14" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="F14" s="19">
+      <c r="F14" s="18">
         <v>20117</v>
       </c>
       <c r="H14" t="s">
@@ -3660,7 +3660,7 @@
       <c r="E15" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="F15" s="19">
+      <c r="F15" s="18">
         <v>20116</v>
       </c>
       <c r="H15" t="s">
@@ -3747,17 +3747,17 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I40"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="21.875" style="3" customWidth="1"/>
     <col min="4" max="4" width="14.75" style="16" customWidth="1"/>
-    <col min="5" max="5" width="45" style="3" customWidth="1"/>
+    <col min="5" max="5" width="148.375" style="3" customWidth="1"/>
     <col min="6" max="6" width="47.375" style="13" customWidth="1"/>
     <col min="7" max="7" width="41" style="3" customWidth="1"/>
   </cols>
@@ -3805,7 +3805,7 @@
         <v>60</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="F2" s="10" t="s">
         <v>62</v>
@@ -3816,22 +3816,22 @@
         <v>2</v>
       </c>
       <c r="B3" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="C3" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="11" t="s">
+      <c r="E3" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="F3" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="G3" s="2" t="s">
         <v>130</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="4" s="12" customFormat="1" ht="66" customHeight="1" spans="1:6">
@@ -3839,19 +3839,19 @@
         <v>3</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>10</v>
       </c>
       <c r="D4" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="E4" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="F4" s="2" t="s">
         <v>133</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="5" s="12" customFormat="1" ht="66" customHeight="1" spans="1:6">
@@ -3859,19 +3859,19 @@
         <v>4</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>10</v>
       </c>
       <c r="D5" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="E5" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="F5" s="2" t="s">
         <v>136</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="6" s="12" customFormat="1" ht="66" customHeight="1" spans="1:6">
@@ -3879,19 +3879,19 @@
         <v>5</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>10</v>
       </c>
       <c r="D6" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="E6" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="E6" s="10" t="s">
+      <c r="F6" s="2" t="s">
         <v>139</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="7" s="12" customFormat="1" ht="66" customHeight="1" spans="1:6">
@@ -3899,19 +3899,19 @@
         <v>6</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C7" s="8" t="s">
         <v>10</v>
       </c>
       <c r="D7" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="E7" s="10" t="s">
         <v>141</v>
       </c>
-      <c r="E7" s="10" t="s">
-        <v>142</v>
-      </c>
       <c r="F7" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="8" s="12" customFormat="1" ht="66" customHeight="1" spans="1:6">
@@ -3919,19 +3919,19 @@
         <v>7</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C8" s="8" t="s">
         <v>10</v>
       </c>
       <c r="D8" s="17" t="s">
+        <v>142</v>
+      </c>
+      <c r="E8" s="10" t="s">
         <v>143</v>
       </c>
-      <c r="E8" s="10" t="s">
+      <c r="F8" s="2" t="s">
         <v>144</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="9" s="12" customFormat="1" ht="66" customHeight="1" spans="1:6">
@@ -3939,19 +3939,19 @@
         <v>8</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C9" s="8" t="s">
         <v>10</v>
       </c>
       <c r="D9" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="E9" s="10" t="s">
         <v>146</v>
       </c>
-      <c r="E9" s="10" t="s">
-        <v>147</v>
-      </c>
       <c r="F9" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="10" s="12" customFormat="1" ht="66" customHeight="1" spans="1:6">
@@ -3959,19 +3959,19 @@
         <v>9</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C10" s="8" t="s">
         <v>10</v>
       </c>
       <c r="D10" s="17" t="s">
+        <v>147</v>
+      </c>
+      <c r="E10" s="10" t="s">
         <v>148</v>
       </c>
-      <c r="E10" s="10" t="s">
-        <v>149</v>
-      </c>
       <c r="F10" s="10" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="11" s="12" customFormat="1" ht="66" customHeight="1" spans="1:6">
@@ -3979,19 +3979,19 @@
         <v>10</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C11" s="8" t="s">
         <v>10</v>
       </c>
       <c r="D11" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="E11" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="E11" s="10" t="s">
-        <v>151</v>
-      </c>
       <c r="F11" s="10" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="12" s="12" customFormat="1" ht="66" customHeight="1" spans="1:6">
@@ -3999,19 +3999,19 @@
         <v>11</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C12" s="8" t="s">
         <v>10</v>
       </c>
       <c r="D12" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="E12" s="10" t="s">
         <v>152</v>
       </c>
-      <c r="E12" s="10" t="s">
-        <v>153</v>
-      </c>
       <c r="F12" s="10" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="13" s="12" customFormat="1" ht="77" customHeight="1" spans="1:6">
@@ -4019,19 +4019,19 @@
         <v>12</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C13" s="8" t="s">
         <v>10</v>
       </c>
       <c r="D13" s="17" t="s">
+        <v>153</v>
+      </c>
+      <c r="E13" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="E13" s="10" t="s">
-        <v>155</v>
-      </c>
       <c r="F13" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="14" s="12" customFormat="1" ht="66" customHeight="1" spans="1:6">
@@ -4039,16 +4039,16 @@
         <v>13</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C14" s="8" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="17" t="s">
+        <v>155</v>
+      </c>
+      <c r="E14" s="10" t="s">
         <v>156</v>
-      </c>
-      <c r="E14" s="10" t="s">
-        <v>149</v>
       </c>
       <c r="F14" s="2"/>
     </row>
@@ -4057,7 +4057,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C15" s="8" t="s">
         <v>10</v>
@@ -4075,7 +4075,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C16" s="8" t="s">
         <v>10</v>
@@ -4093,7 +4093,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C17" s="8" t="s">
         <v>10</v>
@@ -4106,12 +4106,12 @@
       </c>
       <c r="F17" s="2"/>
     </row>
-    <row r="18" s="12" customFormat="1" ht="66" spans="1:6">
+    <row r="18" s="12" customFormat="1" ht="33" spans="1:6">
       <c r="A18" s="7">
         <v>17</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C18" s="8" t="s">
         <v>10</v>
@@ -4129,7 +4129,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C19" s="8" t="s">
         <v>10</v>
@@ -4141,7 +4141,7 @@
         <v>166</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="20" s="12" customFormat="1" ht="78" customHeight="1" spans="1:6">
@@ -4149,7 +4149,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C20" s="8" t="s">
         <v>10</v>
@@ -4169,7 +4169,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C21" s="8" t="s">
         <v>10</v>
@@ -4183,82 +4183,6 @@
       <c r="F21" s="2" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="22" s="12" customFormat="1" ht="16.5" customHeight="1" spans="4:6">
-      <c r="D22" s="17"/>
-      <c r="F22" s="2"/>
-    </row>
-    <row r="23" s="12" customFormat="1" ht="16.5" customHeight="1" spans="4:6">
-      <c r="D23" s="17"/>
-      <c r="F23" s="2"/>
-    </row>
-    <row r="24" s="12" customFormat="1" ht="16.5" customHeight="1" spans="4:6">
-      <c r="D24" s="17"/>
-      <c r="F24" s="2"/>
-    </row>
-    <row r="25" s="12" customFormat="1" ht="16.5" customHeight="1" spans="4:6">
-      <c r="D25" s="17"/>
-      <c r="F25" s="2"/>
-    </row>
-    <row r="26" s="12" customFormat="1" ht="16.5" customHeight="1" spans="4:6">
-      <c r="D26" s="17"/>
-      <c r="F26" s="2"/>
-    </row>
-    <row r="27" s="12" customFormat="1" ht="16.5" customHeight="1" spans="4:6">
-      <c r="D27" s="17"/>
-      <c r="F27" s="2"/>
-    </row>
-    <row r="28" s="12" customFormat="1" ht="16.5" customHeight="1" spans="4:6">
-      <c r="D28" s="17"/>
-      <c r="F28" s="2"/>
-    </row>
-    <row r="29" s="12" customFormat="1" ht="16.5" customHeight="1" spans="4:6">
-      <c r="D29" s="17"/>
-      <c r="F29" s="2"/>
-    </row>
-    <row r="30" s="12" customFormat="1" ht="16.5" customHeight="1" spans="4:6">
-      <c r="D30" s="17"/>
-      <c r="F30" s="2"/>
-    </row>
-    <row r="31" s="12" customFormat="1" ht="16.5" customHeight="1" spans="4:6">
-      <c r="D31" s="17"/>
-      <c r="F31" s="2"/>
-    </row>
-    <row r="32" s="12" customFormat="1" ht="16.5" customHeight="1" spans="4:6">
-      <c r="D32" s="17"/>
-      <c r="F32" s="2"/>
-    </row>
-    <row r="33" s="12" customFormat="1" ht="16.5" customHeight="1" spans="4:6">
-      <c r="D33" s="17"/>
-      <c r="F33" s="2"/>
-    </row>
-    <row r="34" s="12" customFormat="1" ht="16.5" customHeight="1" spans="4:6">
-      <c r="D34" s="17"/>
-      <c r="F34" s="2"/>
-    </row>
-    <row r="35" s="12" customFormat="1" ht="16.5" customHeight="1" spans="4:6">
-      <c r="D35" s="17"/>
-      <c r="F35" s="2"/>
-    </row>
-    <row r="36" s="12" customFormat="1" ht="16.5" customHeight="1" spans="4:6">
-      <c r="D36" s="17"/>
-      <c r="F36" s="2"/>
-    </row>
-    <row r="37" s="12" customFormat="1" ht="16.5" customHeight="1" spans="4:6">
-      <c r="D37" s="17"/>
-      <c r="F37" s="2"/>
-    </row>
-    <row r="38" s="12" customFormat="1" ht="16.5" customHeight="1" spans="4:6">
-      <c r="D38" s="17"/>
-      <c r="F38" s="2"/>
-    </row>
-    <row r="39" s="12" customFormat="1" ht="16.5" customHeight="1" spans="4:6">
-      <c r="D39" s="17"/>
-      <c r="F39" s="2"/>
-    </row>
-    <row r="40" s="12" customFormat="1" ht="16.5" customHeight="1" spans="4:6">
-      <c r="D40" s="17"/>
-      <c r="F40" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4331,7 +4255,7 @@
         <v>60</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>126</v>
+        <v>177</v>
       </c>
       <c r="H2" s="10" t="s">
         <v>62</v>
@@ -4342,28 +4266,28 @@
         <v>2</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D3" s="8" t="s">
         <v>10</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="I3" s="12" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="4" s="12" customFormat="1" ht="33" customHeight="1" spans="1:8">
@@ -4371,25 +4295,25 @@
         <v>3</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D4" s="8" t="s">
         <v>10</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="5" s="12" customFormat="1" ht="33" customHeight="1" spans="1:8">
@@ -4397,25 +4321,25 @@
         <v>4</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D5" s="8" t="s">
         <v>10</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="6" s="12" customFormat="1" ht="33" customHeight="1" spans="1:8">
@@ -4423,25 +4347,25 @@
         <v>5</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D6" s="8" t="s">
         <v>10</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="7" s="12" customFormat="1" ht="33" customHeight="1" spans="1:8">
@@ -4449,99 +4373,99 @@
         <v>6</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>10</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="8" s="12" customFormat="1" ht="16.5" customHeight="1" spans="6:8">
       <c r="F8" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="G8" s="15"/>
       <c r="H8" s="2"/>
     </row>
     <row r="9" s="12" customFormat="1" ht="16.5" customHeight="1" spans="6:8">
       <c r="F9" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="G9" s="15"/>
       <c r="H9" s="2"/>
     </row>
     <row r="10" s="12" customFormat="1" ht="16.5" customHeight="1" spans="6:8">
       <c r="F10" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="G10" s="15"/>
       <c r="H10" s="2"/>
     </row>
     <row r="11" s="12" customFormat="1" ht="16.5" customHeight="1" spans="6:8">
       <c r="F11" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="H11" s="2"/>
     </row>
     <row r="12" s="12" customFormat="1" ht="16.5" customHeight="1" spans="6:8">
       <c r="F12" s="2" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="H12" s="2"/>
     </row>
     <row r="13" s="12" customFormat="1" ht="16.5" customHeight="1" spans="6:8">
       <c r="F13" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="H13" s="2"/>
     </row>
     <row r="14" s="12" customFormat="1" ht="16.5" customHeight="1" spans="6:8">
       <c r="F14" s="2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="H14" s="2"/>
     </row>
     <row r="15" s="12" customFormat="1" ht="16.5" customHeight="1" spans="6:8">
       <c r="F15" s="2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="H15" s="2"/>
     </row>
     <row r="16" s="12" customFormat="1" ht="33" customHeight="1" spans="6:8">
       <c r="F16" s="2" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="H16" s="2"/>
     </row>
     <row r="17" s="12" customFormat="1" ht="16.5" customHeight="1" spans="6:8">
       <c r="F17" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="H17" s="2"/>
     </row>
     <row r="18" s="12" customFormat="1" ht="16.5" customHeight="1" spans="6:8">
       <c r="F18" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="H18" s="2"/>
     </row>
     <row r="19" s="12" customFormat="1" ht="16.5" customHeight="1" spans="6:8">
       <c r="F19" s="2" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="H19" s="2"/>
     </row>
@@ -4603,7 +4527,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C2" s="9" t="s">
         <v>116</v>
@@ -4612,16 +4536,16 @@
         <v>10</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="F2" s="11" t="s">
         <v>117</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>118</v>

--- a/python_api_test_qianchendai/test_data/test_case.xlsx
+++ b/python_api_test_qianchendai/test_data/test_case.xlsx
@@ -1,27 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540" activeTab="5"/>
+    <workbookView activeTab="6" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12540" windowWidth="28125"/>
   </bookViews>
   <sheets>
-    <sheet name="register" sheetId="1" r:id="rId1"/>
-    <sheet name="login" sheetId="2" r:id="rId2"/>
-    <sheet name="recharge" sheetId="3" r:id="rId3"/>
-    <sheet name="withdraw" sheetId="4" r:id="rId4"/>
-    <sheet name="list" sheetId="5" r:id="rId5"/>
-    <sheet name="add" sheetId="6" r:id="rId6"/>
-    <sheet name="audit" sheetId="7" r:id="rId7"/>
-    <sheet name="bidLoan" sheetId="8" r:id="rId8"/>
+    <sheet name="register" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="login" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="recharge" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="withdraw" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="list" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="add" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="audit" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="bidLoan" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <definedNames/>
+  <calcPr calcId="144525" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="631" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="224">
   <si>
     <t>case_id</t>
   </si>
@@ -420,7 +420,7 @@
     <t>{"memberId":"${memberId}","title":"${title}","amount":"200000","loanRate":"18","loanTerm":"6","loanDateType":"0","repaymemtWay":"4","biddingDays":"10"}</t>
   </si>
   <si>
-    <t>{"status": 1, "code": "10001","data": null,"msg": "加标成功"}</t>
+    <t>{"status":1,"code":"10001","data":null,"msg":"加标成功"}</t>
   </si>
   <si>
     <t>loan表中新增一条记录</t>
@@ -510,6 +510,9 @@
     <t>{"memberId":"${memberId}","title":"${title}","amount":"1100.1","loanRate":"18","loanTerm":"6","loanDateType":"0","repaymemtWay":"4","biddingDays":"10"}</t>
   </si>
   <si>
+    <t>{"status":0,"code":"20106","data":null,"msg":"参数错误：借款金额amount必须为大于1000并能被100整除的正整数"}</t>
+  </si>
+  <si>
     <t>借款金额为1001</t>
   </si>
   <si>
@@ -549,6 +552,138 @@
     <t>{"memberId":"${memberId}","title":"${title}","amount":"200000","loanRate":"25","loanTerm":"6","loanDateType":"0","repaymemtWay":"4","biddingDays":"10"}</t>
   </si>
   <si>
+    <t>/futureloan/mvc/api/loan/audit</t>
+  </si>
+  <si>
+    <t>审核成功</t>
+  </si>
+  <si>
+    <t>{"id":"${loan_id}","status":"2"}</t>
+  </si>
+  <si>
+    <t>{"status":1,"code":"10001","data":null,"msg":"更新状态成功：审核通过，当前标为二审(初审中)状态"}</t>
+  </si>
+  <si>
+    <t>loan表中的表的状态改变</t>
+  </si>
+  <si>
+    <t>标id为空</t>
+  </si>
+  <si>
+    <t>{"id":"","status":"2"}</t>
+  </si>
+  <si>
+    <t>{"status":0,"code":"20203","data":null,"msg":"参数错误：所有参数不能为空"}</t>
+  </si>
+  <si>
+    <t>{"status":0,"code":null,"data":null,"msg":"抱歉，请先登录。"}</t>
+  </si>
+  <si>
+    <t>标id错误</t>
+  </si>
+  <si>
+    <t>{"id":"7","status":"2"}</t>
+  </si>
+  <si>
+    <t>{"status":1,"code":"20206","data":null,"msg":"不存在该项目"}</t>
+  </si>
+  <si>
+    <t>标id非正整数</t>
+  </si>
+  <si>
+    <t>{"id":"-134317","status":"2"}</t>
+  </si>
+  <si>
+    <t>{"status":0,"code":"20204","data":null,"msg":"参数错误：错误的标id值"}</t>
+  </si>
+  <si>
+    <t>标id含非数字</t>
+  </si>
+  <si>
+    <t>{"id":"啦啦","status":"2"}</t>
+  </si>
+  <si>
+    <t>{"status":0,"code":"20212","data":null,"msg":"请根据数值参数的类型对应输入合法的数字"}</t>
+  </si>
+  <si>
+    <t>status为空</t>
+  </si>
+  <si>
+    <t>{"id":"${loan_id}","status":""}</t>
+  </si>
+  <si>
+    <t>status含空格</t>
+  </si>
+  <si>
+    <t>{"id":"${loan_id}","status":" 2 "}</t>
+  </si>
+  <si>
+    <t>status非数字</t>
+  </si>
+  <si>
+    <t>{"id":"${loan_id}","status":"二"}</t>
+  </si>
+  <si>
+    <t>status参数小于1</t>
+  </si>
+  <si>
+    <t>{"id":"${loan_id}","status":"0"}</t>
+  </si>
+  <si>
+    <t>{"status":0,"code":"20205","data":null,"msg":"参数错误：非法status参数，状态值1-11"}</t>
+  </si>
+  <si>
+    <t>status参数大于11</t>
+  </si>
+  <si>
+    <t>{"id":"${loan_id}","status":"12"}</t>
+  </si>
+  <si>
+    <t>status参数为负数</t>
+  </si>
+  <si>
+    <t>{"id":"${loan_id}","status":"-2"}</t>
+  </si>
+  <si>
+    <t>status参数为浮点数</t>
+  </si>
+  <si>
+    <t>{"id":"${loan_id}","status":"5.01"}</t>
+  </si>
+  <si>
+    <t>标已是该状态</t>
+  </si>
+  <si>
+    <t>{"status":0,"code":"20207","data":null,"msg":"修改失败，当前标已经是该状态"}</t>
+  </si>
+  <si>
+    <t>直接跟新状态到"还款中"</t>
+  </si>
+  <si>
+    <t>{"id":"${loan_id}","status":"7"}</t>
+  </si>
+  <si>
+    <t>{"status":0,"code":"20210","data":null,"msg":"不允许直接更新项目到还款中状态，请执行生成回款计划"}</t>
+  </si>
+  <si>
+    <t>审核不通过的标不允许修改状态</t>
+  </si>
+  <si>
+    <t>{"id":"${loan_id}","status":"8"}</t>
+  </si>
+  <si>
+    <t>流标的标不允许修改状态</t>
+  </si>
+  <si>
+    <t>{"id":"${loan_id}","status":"9"}</t>
+  </si>
+  <si>
+    <t>还款完成的标不允许修改状态</t>
+  </si>
+  <si>
+    <t>{"id":"${loan_id}","status":"10"}</t>
+  </si>
+  <si>
     <t>接口功能</t>
   </si>
   <si>
@@ -556,120 +691,6 @@
   </si>
   <si>
     <t>用例说明</t>
-  </si>
-  <si>
-    <t>登录</t>
-  </si>
-  <si>
-    <t>login_success</t>
-  </si>
-  <si>
-    <t>{"mobilephone":"13201231230","pwd":"123456"}</t>
-  </si>
-  <si>
-    <t>审核</t>
-  </si>
-  <si>
-    <t>/futureloan/mvc/api/loan/audit</t>
-  </si>
-  <si>
-    <t>audit_success</t>
-  </si>
-  <si>
-    <t>审核成功</t>
-  </si>
-  <si>
-    <t>{"id":"134317","status":"2"}</t>
-  </si>
-  <si>
-    <t>{"status":1,"code":"10001","data":null,"msg":"更新状态成功：审核通过，当前标为二审(初审中)状态"}</t>
-  </si>
-  <si>
-    <t>loan表中的表的状态改变</t>
-  </si>
-  <si>
-    <t>audit_fail_idIsNull</t>
-  </si>
-  <si>
-    <t>标id为空</t>
-  </si>
-  <si>
-    <t>{"id":"","status":"2"}</t>
-  </si>
-  <si>
-    <t>{"status":0,"code":"20203","data":null,"msg":"参数错误：所有参数不能为空"}</t>
-  </si>
-  <si>
-    <t>audit_fail_idIsError</t>
-  </si>
-  <si>
-    <t>标id错误</t>
-  </si>
-  <si>
-    <t>{"id":"7","status":"2"}</t>
-  </si>
-  <si>
-    <t>{"status":1,"code":"20206","data":null,"msg":"不存在该项目"}</t>
-  </si>
-  <si>
-    <t>audit_fail_idIsNotInt</t>
-  </si>
-  <si>
-    <t>标id非正整数</t>
-  </si>
-  <si>
-    <t>{"id":"-134317","status":"2"}</t>
-  </si>
-  <si>
-    <t>{"status":0,"code":"20204","data":null,"msg":"参数错误：错误的标id值"}</t>
-  </si>
-  <si>
-    <t>audit_fail_idIsNotdigit</t>
-  </si>
-  <si>
-    <t>标id含非数字</t>
-  </si>
-  <si>
-    <t>{"id":"啦啦","status":"2"}</t>
-  </si>
-  <si>
-    <t>{"status":0,"code":"20212","data":null,"msg":"请根据数值参数的类型对应输入合法的数字"}</t>
-  </si>
-  <si>
-    <t>status为空</t>
-  </si>
-  <si>
-    <t>status含空格</t>
-  </si>
-  <si>
-    <t>status非数字</t>
-  </si>
-  <si>
-    <t>status参数小于1</t>
-  </si>
-  <si>
-    <t>status参数大于11</t>
-  </si>
-  <si>
-    <t>status参数为负数</t>
-  </si>
-  <si>
-    <t>status参数为浮点数</t>
-  </si>
-  <si>
-    <t>标已是该状态</t>
-  </si>
-  <si>
-    <t>审核不通过的标不允许修改状态</t>
-  </si>
-  <si>
-    <t>流标的标不允许修改状态</t>
-  </si>
-  <si>
-    <t>还款完成的标不允许修改状态</t>
-  </si>
-  <si>
-    <t>直接跟新状态到"还款中"</t>
   </si>
   <si>
     <t>取现</t>
@@ -689,220 +710,220 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ " numFmtId="164"/>
+    <numFmt formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ " numFmtId="165"/>
+    <numFmt formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ " numFmtId="166"/>
+    <numFmt formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ " numFmtId="167"/>
   </numFmts>
   <fonts count="28">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color theme="1"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
+      <color theme="1"/>
+      <sz val="10"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
+      <color theme="1"/>
+      <sz val="11"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
+      <color rgb="FF000000"/>
+      <sz val="10"/>
     </font>
     <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="12"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
+      <color theme="1"/>
+      <sz val="12"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <color theme="1"/>
+      <sz val="12"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="12"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <color theme="0"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="18"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <u val="single"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <color rgb="FF9C0006"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="15"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <color rgb="FF006100"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <color rgb="FF9C6500"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="13"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <color rgb="FFFF0000"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <i val="1"/>
+      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <u val="single"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="34">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -927,7 +948,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -939,13 +984,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -957,91 +1044,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1059,25 +1062,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1089,13 +1092,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1137,11 +1158,37 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1151,6 +1198,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1166,30 +1228,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1211,355 +1249,339 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="13" borderId="10">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="25" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="33" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="164">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="9" fontId="9" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="9" fillId="27" fontId="23" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="165">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="166">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="15" fontId="9" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="10" fontId="16" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="167">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="6" fontId="11" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="15" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="27" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="7" fillId="14" fontId="0" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="20" fontId="11" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="13" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="22" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="14" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="26" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="17" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="21" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="8" fontId="11" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="5" fillId="0" fontId="13" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="23" fontId="11" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="3" fillId="5" fontId="10" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="9" fillId="5" fontId="24" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="8" fillId="19" fontId="18" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="4" fontId="9" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="18" fontId="11" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="10" fillId="0" fontId="25" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="4" fillId="0" fontId="12" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="22" fontId="19" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="26" fontId="20" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="25" fontId="9" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="30" fontId="11" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="13" fontId="9" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="17" fontId="9" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="24" fontId="9" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="12" fontId="9" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="21" fontId="11" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="29" fontId="11" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="28" fontId="9" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="33" fontId="9" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="11" fontId="11" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="3" fontId="9" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="16" fontId="11" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="7" fontId="11" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="32" fontId="9" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="31" fontId="11" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="41">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+  <cellXfs count="43">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="2" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="2" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="2" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="2" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="1" fillId="2" fontId="8" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="1" fillId="2" fontId="8" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="2" fillId="0" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle builtinId="0" name="常规" xfId="0"/>
+    <cellStyle builtinId="7" name="货币[0]" xfId="1"/>
+    <cellStyle builtinId="38" name="20% - 强调文字颜色 3" xfId="2"/>
+    <cellStyle builtinId="20" name="输入" xfId="3"/>
+    <cellStyle builtinId="4" name="货币" xfId="4"/>
+    <cellStyle builtinId="6" name="千位分隔[0]" xfId="5"/>
+    <cellStyle builtinId="39" name="40% - 强调文字颜色 3" xfId="6"/>
+    <cellStyle builtinId="27" name="差" xfId="7"/>
+    <cellStyle builtinId="3" name="千位分隔" xfId="8"/>
+    <cellStyle builtinId="40" name="60% - 强调文字颜色 3" xfId="9"/>
+    <cellStyle builtinId="8" name="超链接" xfId="10"/>
+    <cellStyle builtinId="5" name="百分比" xfId="11"/>
+    <cellStyle builtinId="9" name="已访问的超链接" xfId="12"/>
+    <cellStyle builtinId="10" name="注释" xfId="13"/>
+    <cellStyle builtinId="36" name="60% - 强调文字颜色 2" xfId="14"/>
+    <cellStyle builtinId="19" name="标题 4" xfId="15"/>
+    <cellStyle builtinId="11" name="警告文本" xfId="16"/>
+    <cellStyle builtinId="15" name="标题" xfId="17"/>
+    <cellStyle builtinId="53" name="解释性文本" xfId="18"/>
+    <cellStyle builtinId="16" name="标题 1" xfId="19"/>
+    <cellStyle builtinId="17" name="标题 2" xfId="20"/>
+    <cellStyle builtinId="32" name="60% - 强调文字颜色 1" xfId="21"/>
+    <cellStyle builtinId="18" name="标题 3" xfId="22"/>
+    <cellStyle builtinId="44" name="60% - 强调文字颜色 4" xfId="23"/>
+    <cellStyle builtinId="21" name="输出" xfId="24"/>
+    <cellStyle builtinId="22" name="计算" xfId="25"/>
+    <cellStyle builtinId="23" name="检查单元格" xfId="26"/>
+    <cellStyle builtinId="50" name="20% - 强调文字颜色 6" xfId="27"/>
+    <cellStyle builtinId="33" name="强调文字颜色 2" xfId="28"/>
+    <cellStyle builtinId="24" name="链接单元格" xfId="29"/>
+    <cellStyle builtinId="25" name="汇总" xfId="30"/>
+    <cellStyle builtinId="26" name="好" xfId="31"/>
+    <cellStyle builtinId="28" name="适中" xfId="32"/>
+    <cellStyle builtinId="46" name="20% - 强调文字颜色 5" xfId="33"/>
+    <cellStyle builtinId="29" name="强调文字颜色 1" xfId="34"/>
+    <cellStyle builtinId="30" name="20% - 强调文字颜色 1" xfId="35"/>
+    <cellStyle builtinId="31" name="40% - 强调文字颜色 1" xfId="36"/>
+    <cellStyle builtinId="34" name="20% - 强调文字颜色 2" xfId="37"/>
+    <cellStyle builtinId="35" name="40% - 强调文字颜色 2" xfId="38"/>
+    <cellStyle builtinId="37" name="强调文字颜色 3" xfId="39"/>
+    <cellStyle builtinId="41" name="强调文字颜色 4" xfId="40"/>
+    <cellStyle builtinId="42" name="20% - 强调文字颜色 4" xfId="41"/>
+    <cellStyle builtinId="43" name="40% - 强调文字颜色 4" xfId="42"/>
+    <cellStyle builtinId="45" name="强调文字颜色 5" xfId="43"/>
+    <cellStyle builtinId="47" name="40% - 强调文字颜色 5" xfId="44"/>
+    <cellStyle builtinId="48" name="60% - 强调文字颜色 5" xfId="45"/>
+    <cellStyle builtinId="49" name="强调文字颜色 6" xfId="46"/>
+    <cellStyle builtinId="51" name="40% - 强调文字颜色 6" xfId="47"/>
+    <cellStyle builtinId="52" name="60% - 强调文字颜色 6" xfId="48"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
 </file>
 
@@ -1848,76 +1870,79 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:I19"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScale="90" zoomScaleNormal="90">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="13.6083333333333" style="27" customWidth="1"/>
-    <col min="2" max="2" width="39.0333333333333" style="28" customWidth="1"/>
-    <col min="3" max="3" width="10.5583333333333" style="28" customWidth="1"/>
-    <col min="4" max="4" width="21.9416666666667" style="29" customWidth="1"/>
-    <col min="5" max="5" width="80.8333333333333" style="28" customWidth="1"/>
-    <col min="6" max="6" width="61.3916666666667" style="30" customWidth="1"/>
-    <col min="7" max="7" width="43.4666666666667" style="31" customWidth="1"/>
-    <col min="8" max="8" width="72.2166666666667" style="31" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="31" customWidth="1"/>
+    <col customWidth="1" max="1" min="1" style="29" width="13.6083333333333"/>
+    <col customWidth="1" max="2" min="2" style="30" width="39.0333333333333"/>
+    <col customWidth="1" max="3" min="3" style="30" width="10.5583333333333"/>
+    <col customWidth="1" max="4" min="4" style="31" width="21.9416666666667"/>
+    <col customWidth="1" max="5" min="5" style="30" width="80.8333333333333"/>
+    <col customWidth="1" max="6" min="6" style="32" width="61.3916666666667"/>
+    <col customWidth="1" max="7" min="7" style="33" width="43.4666666666667"/>
+    <col customWidth="1" max="8" min="8" style="33" width="72.2166666666667"/>
+    <col customWidth="1" max="16384" min="9" style="33" width="9"/>
   </cols>
   <sheetData>
-    <row r="1" s="25" customFormat="1" ht="18" customHeight="1" spans="1:9">
-      <c r="A1" s="32" t="s">
+    <row customFormat="1" customHeight="1" ht="18" r="1" s="27" spans="1:9">
+      <c r="A1" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="33" t="s">
+      <c r="C1" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="33" t="s">
+      <c r="D1" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="33" t="s">
+      <c r="E1" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="34" t="s">
+      <c r="F1" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="25" t="s">
+      <c r="G1" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="25" t="s">
+      <c r="H1" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="25" t="s">
+      <c r="I1" s="27" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" s="26" customFormat="1" ht="103.5" customHeight="1" spans="1:9">
-      <c r="A2" s="35">
+    <row customFormat="1" customHeight="1" ht="103.5" r="2" s="28" spans="1:9">
+      <c r="A2" s="37" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="37" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="38" t="s">
+      <c r="C2" s="39" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="39" t="s">
+      <c r="E2" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="39" t="s">
+      <c r="F2" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="26" t="s">
+      <c r="G2" s="28" t="s">
         <v>14</v>
       </c>
       <c r="H2" s="13" t="s">
@@ -1927,26 +1952,26 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" s="26" customFormat="1" ht="103.5" customHeight="1" spans="1:9">
-      <c r="A3" s="35">
+    <row customFormat="1" customHeight="1" ht="103.5" r="3" s="28" spans="1:9">
+      <c r="A3" s="37" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="36" t="s">
+      <c r="B3" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="37" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="38" t="s">
+      <c r="C3" s="39" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="39" t="s">
+      <c r="E3" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="39" t="s">
+      <c r="F3" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="26" t="s">
+      <c r="G3" s="28" t="s">
         <v>19</v>
       </c>
       <c r="H3" s="13" t="s">
@@ -1956,26 +1981,26 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" s="26" customFormat="1" ht="17.25" customHeight="1" spans="1:9">
-      <c r="A4" s="35">
+    <row customFormat="1" customHeight="1" ht="17.25" r="4" s="28" spans="1:9">
+      <c r="A4" s="37" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="36" t="s">
+      <c r="B4" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="37" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="38" t="s">
+      <c r="C4" s="39" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="39" t="s">
+      <c r="E4" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="39" t="s">
+      <c r="F4" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="G4" s="26" t="s">
+      <c r="G4" s="28" t="s">
         <v>24</v>
       </c>
       <c r="H4" s="13" t="s">
@@ -1985,23 +2010,23 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" ht="17.25" customHeight="1" spans="1:9">
-      <c r="A5" s="35">
+    <row customHeight="1" ht="17.25" r="5" s="3" spans="1:9">
+      <c r="A5" s="37" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="36" t="s">
+      <c r="B5" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="37" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="40" t="s">
+      <c r="C5" s="39" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="E5" s="39" t="s">
+      <c r="E5" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="F5" s="39" t="s">
+      <c r="F5" s="41" t="s">
         <v>15</v>
       </c>
       <c r="H5" s="13" t="s">
@@ -2011,23 +2036,23 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" ht="34.5" customHeight="1" spans="1:9">
-      <c r="A6" s="35">
+    <row customHeight="1" ht="34.5" r="6" s="3" spans="1:9">
+      <c r="A6" s="37" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="36" t="s">
+      <c r="B6" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="37" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="40" t="s">
+      <c r="C6" s="39" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="E6" s="39" t="s">
+      <c r="E6" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="F6" s="39" t="s">
+      <c r="F6" s="41" t="s">
         <v>29</v>
       </c>
       <c r="H6" s="13" t="s">
@@ -2037,23 +2062,23 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" ht="34.5" customHeight="1" spans="1:9">
-      <c r="A7" s="35">
+    <row customHeight="1" ht="34.5" r="7" s="3" spans="1:9">
+      <c r="A7" s="37" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="36" t="s">
+      <c r="B7" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="37" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="40" t="s">
+      <c r="C7" s="39" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="E7" s="39" t="s">
+      <c r="E7" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="F7" s="39" t="s">
+      <c r="F7" s="41" t="s">
         <v>29</v>
       </c>
       <c r="H7" s="13" t="s">
@@ -2063,23 +2088,23 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" ht="34.5" customHeight="1" spans="1:9">
-      <c r="A8" s="35">
+    <row customHeight="1" ht="34.5" r="8" s="3" spans="1:9">
+      <c r="A8" s="37" t="n">
         <v>7</v>
       </c>
-      <c r="B8" s="36" t="s">
+      <c r="B8" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="37" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="40" t="s">
+      <c r="C8" s="39" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="E8" s="39" t="s">
+      <c r="E8" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="F8" s="39" t="s">
+      <c r="F8" s="41" t="s">
         <v>29</v>
       </c>
       <c r="H8" s="13" t="s">
@@ -2089,23 +2114,23 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" ht="17.25" customHeight="1" spans="1:9">
-      <c r="A9" s="35">
+    <row customHeight="1" ht="17.25" r="9" s="3" spans="1:9">
+      <c r="A9" s="37" t="n">
         <v>8</v>
       </c>
-      <c r="B9" s="36" t="s">
+      <c r="B9" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="37" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" s="40" t="s">
+      <c r="C9" s="39" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="42" t="s">
         <v>34</v>
       </c>
-      <c r="E9" s="39" t="s">
+      <c r="E9" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="F9" s="39" t="s">
+      <c r="F9" s="41" t="s">
         <v>29</v>
       </c>
       <c r="H9" s="13" t="s">
@@ -2115,23 +2140,23 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" ht="34.5" customHeight="1" spans="1:9">
-      <c r="A10" s="35">
+    <row customHeight="1" ht="34.5" r="10" s="3" spans="1:9">
+      <c r="A10" s="37" t="n">
         <v>9</v>
       </c>
-      <c r="B10" s="36" t="s">
+      <c r="B10" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="37" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" s="40" t="s">
+      <c r="C10" s="39" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="E10" s="39" t="s">
+      <c r="E10" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="F10" s="39" t="s">
+      <c r="F10" s="41" t="s">
         <v>29</v>
       </c>
       <c r="H10" s="13" t="s">
@@ -2141,23 +2166,23 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" ht="17.25" customHeight="1" spans="1:9">
-      <c r="A11" s="35">
-        <v>10</v>
-      </c>
-      <c r="B11" s="36" t="s">
+    <row customHeight="1" ht="17.25" r="11" s="3" spans="1:9">
+      <c r="A11" s="37" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="37" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11" s="40" t="s">
+      <c r="C11" s="39" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="E11" s="39" t="s">
+      <c r="E11" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="F11" s="39" t="s">
+      <c r="F11" s="41" t="s">
         <v>29</v>
       </c>
       <c r="H11" s="13" t="s">
@@ -2167,23 +2192,23 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" ht="34.5" customHeight="1" spans="1:9">
-      <c r="A12" s="35">
+    <row customHeight="1" ht="34.5" r="12" s="3" spans="1:9">
+      <c r="A12" s="37" t="n">
         <v>11</v>
       </c>
-      <c r="B12" s="36" t="s">
+      <c r="B12" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="37" t="s">
-        <v>10</v>
-      </c>
-      <c r="D12" s="40" t="s">
+      <c r="C12" s="39" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="E12" s="39" t="s">
+      <c r="E12" s="41" t="s">
         <v>41</v>
       </c>
-      <c r="F12" s="39" t="s">
+      <c r="F12" s="41" t="s">
         <v>29</v>
       </c>
       <c r="H12" s="13" t="s">
@@ -2193,23 +2218,23 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" s="26" customFormat="1" ht="17.25" customHeight="1" spans="1:9">
-      <c r="A13" s="35">
+    <row customFormat="1" customHeight="1" ht="17.25" r="13" s="28" spans="1:9">
+      <c r="A13" s="37" t="n">
         <v>12</v>
       </c>
-      <c r="B13" s="36" t="s">
+      <c r="B13" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="37" t="s">
-        <v>10</v>
-      </c>
-      <c r="D13" s="37" t="s">
+      <c r="C13" s="39" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="E13" s="39" t="s">
+      <c r="E13" s="41" t="s">
         <v>43</v>
       </c>
-      <c r="F13" s="39" t="s">
+      <c r="F13" s="41" t="s">
         <v>44</v>
       </c>
       <c r="H13" s="13" t="s">
@@ -2219,23 +2244,23 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" ht="34.5" customHeight="1" spans="1:9">
-      <c r="A14" s="35">
+    <row customHeight="1" ht="34.5" r="14" s="3" spans="1:9">
+      <c r="A14" s="37" t="n">
         <v>13</v>
       </c>
-      <c r="B14" s="36" t="s">
+      <c r="B14" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="37" t="s">
-        <v>10</v>
-      </c>
-      <c r="D14" s="37" t="s">
+      <c r="C14" s="39" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="39" t="s">
         <v>45</v>
       </c>
-      <c r="E14" s="39" t="s">
+      <c r="E14" s="41" t="s">
         <v>46</v>
       </c>
-      <c r="F14" s="39" t="s">
+      <c r="F14" s="41" t="s">
         <v>47</v>
       </c>
       <c r="H14" s="13" t="s">
@@ -2245,23 +2270,23 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" ht="34.5" customHeight="1" spans="1:9">
-      <c r="A15" s="35">
+    <row customHeight="1" ht="34.5" r="15" s="3" spans="1:9">
+      <c r="A15" s="37" t="n">
         <v>14</v>
       </c>
-      <c r="B15" s="36" t="s">
+      <c r="B15" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="37" t="s">
-        <v>10</v>
-      </c>
-      <c r="D15" s="37" t="s">
+      <c r="C15" s="39" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="E15" s="39" t="s">
+      <c r="E15" s="41" t="s">
         <v>49</v>
       </c>
-      <c r="F15" s="39" t="s">
+      <c r="F15" s="41" t="s">
         <v>47</v>
       </c>
       <c r="H15" s="13" t="s">
@@ -2271,23 +2296,23 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" ht="17.25" customHeight="1" spans="1:9">
-      <c r="A16" s="35">
+    <row customHeight="1" ht="17.25" r="16" s="3" spans="1:9">
+      <c r="A16" s="37" t="n">
         <v>15</v>
       </c>
-      <c r="B16" s="36" t="s">
+      <c r="B16" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="37" t="s">
-        <v>10</v>
-      </c>
-      <c r="D16" s="37" t="s">
+      <c r="C16" s="39" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" s="39" t="s">
         <v>50</v>
       </c>
-      <c r="E16" s="39" t="s">
+      <c r="E16" s="41" t="s">
         <v>51</v>
       </c>
-      <c r="F16" s="39" t="s">
+      <c r="F16" s="41" t="s">
         <v>52</v>
       </c>
       <c r="H16" s="13" t="s">
@@ -2297,23 +2322,23 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" ht="17.25" customHeight="1" spans="1:9">
-      <c r="A17" s="35">
+    <row customHeight="1" ht="17.25" r="17" s="3" spans="1:9">
+      <c r="A17" s="37" t="n">
         <v>16</v>
       </c>
-      <c r="B17" s="36" t="s">
+      <c r="B17" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="37" t="s">
-        <v>10</v>
-      </c>
-      <c r="D17" s="37" t="s">
+      <c r="C17" s="39" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" s="39" t="s">
         <v>53</v>
       </c>
-      <c r="E17" s="39" t="s">
+      <c r="E17" s="41" t="s">
         <v>54</v>
       </c>
-      <c r="F17" s="39" t="s">
+      <c r="F17" s="41" t="s">
         <v>52</v>
       </c>
       <c r="H17" s="13" t="s">
@@ -2323,23 +2348,23 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" ht="17.25" customHeight="1" spans="1:9">
-      <c r="A18" s="35">
+    <row customHeight="1" ht="17.25" r="18" s="3" spans="1:9">
+      <c r="A18" s="37" t="n">
         <v>17</v>
       </c>
-      <c r="B18" s="36" t="s">
+      <c r="B18" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="C18" s="37" t="s">
-        <v>10</v>
-      </c>
-      <c r="D18" s="37" t="s">
+      <c r="C18" s="39" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" s="39" t="s">
         <v>55</v>
       </c>
-      <c r="E18" s="39" t="s">
+      <c r="E18" s="41" t="s">
         <v>56</v>
       </c>
-      <c r="F18" s="39" t="s">
+      <c r="F18" s="41" t="s">
         <v>52</v>
       </c>
       <c r="H18" s="13" t="s">
@@ -2349,23 +2374,23 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" ht="17.25" customHeight="1" spans="1:9">
-      <c r="A19" s="35">
+    <row customHeight="1" ht="17.25" r="19" s="3" spans="1:9">
+      <c r="A19" s="37" t="n">
         <v>18</v>
       </c>
-      <c r="B19" s="36" t="s">
+      <c r="B19" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="37" t="s">
-        <v>10</v>
-      </c>
-      <c r="D19" s="37" t="s">
+      <c r="C19" s="39" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="E19" s="39" t="s">
+      <c r="E19" s="41" t="s">
         <v>58</v>
       </c>
-      <c r="F19" s="39" t="s">
+      <c r="F19" s="41" t="s">
         <v>52</v>
       </c>
       <c r="H19" s="13" t="s">
@@ -2377,41 +2402,43 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B13" r:id="rId1" display="/futureloan/mvc/api/member/register"/>
-    <hyperlink ref="B14" r:id="rId1" display="/futureloan/mvc/api/member/register"/>
-    <hyperlink ref="B15" r:id="rId1" display="/futureloan/mvc/api/member/register"/>
-    <hyperlink ref="B16" r:id="rId1" display="/futureloan/mvc/api/member/register"/>
-    <hyperlink ref="B17" r:id="rId1" display="/futureloan/mvc/api/member/register"/>
-    <hyperlink ref="B18" r:id="rId1" display="/futureloan/mvc/api/member/register"/>
-    <hyperlink ref="B19" r:id="rId1" display="/futureloan/mvc/api/member/register"/>
+    <hyperlink display="/futureloan/mvc/api/member/register" ref="B13" r:id="rId1"/>
+    <hyperlink display="/futureloan/mvc/api/member/register" ref="B14" r:id="rId2"/>
+    <hyperlink display="/futureloan/mvc/api/member/register" ref="B15" r:id="rId3"/>
+    <hyperlink display="/futureloan/mvc/api/member/register" ref="B16" r:id="rId4"/>
+    <hyperlink display="/futureloan/mvc/api/member/register" ref="B17" r:id="rId5"/>
+    <hyperlink display="/futureloan/mvc/api/member/register" ref="B18" r:id="rId6"/>
+    <hyperlink display="/futureloan/mvc/api/member/register" ref="B19" r:id="rId7"/>
   </hyperlinks>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <pageMargins bottom="1" footer="0.511805555555556" header="0.511805555555556" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:G18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.5" outlineLevelCol="6"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11" defaultRowHeight="16.5" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="11" style="22" customWidth="1"/>
-    <col min="2" max="2" width="36.875" style="22" customWidth="1"/>
-    <col min="3" max="3" width="11" style="22" customWidth="1"/>
-    <col min="4" max="4" width="18.75" style="22" customWidth="1"/>
-    <col min="5" max="5" width="61.875" style="22" customWidth="1"/>
-    <col min="6" max="6" width="71.375" style="22" customWidth="1"/>
-    <col min="7" max="7" width="38.75" style="22" customWidth="1"/>
-    <col min="8" max="16384" width="11" style="22" customWidth="1"/>
+    <col customWidth="1" max="1" min="1" style="23" width="11"/>
+    <col customWidth="1" max="2" min="2" style="23" width="36.875"/>
+    <col customWidth="1" max="3" min="3" style="23" width="11"/>
+    <col customWidth="1" max="4" min="4" style="23" width="18.75"/>
+    <col customWidth="1" max="5" min="5" style="23" width="61.875"/>
+    <col customWidth="1" max="6" min="6" style="23" width="71.375"/>
+    <col customWidth="1" max="7" min="7" style="23" width="38.75"/>
+    <col customWidth="1" max="16384" min="8" style="23" width="11"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="15" customHeight="1" spans="1:7">
+    <row customFormat="1" customHeight="1" ht="15" r="1" s="1" spans="1:7">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -2434,8 +2461,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" s="2" customFormat="1" spans="1:6">
-      <c r="A2" s="7">
+    <row customFormat="1" r="2" s="2" spans="1:7">
+      <c r="A2" s="7" t="n">
         <v>1</v>
       </c>
       <c r="B2" s="9" t="s">
@@ -2444,7 +2471,7 @@
       <c r="C2" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="24" t="s">
         <v>60</v>
       </c>
       <c r="E2" s="10" t="s">
@@ -2454,8 +2481,8 @@
         <v>62</v>
       </c>
     </row>
-    <row r="3" s="2" customFormat="1" spans="1:6">
-      <c r="A3" s="7">
+    <row customFormat="1" r="3" s="2" spans="1:7">
+      <c r="A3" s="7" t="n">
         <v>2</v>
       </c>
       <c r="B3" s="9" t="s">
@@ -2474,8 +2501,8 @@
         <v>65</v>
       </c>
     </row>
-    <row r="4" s="12" customFormat="1" spans="1:6">
-      <c r="A4" s="7">
+    <row customFormat="1" r="4" s="12" spans="1:7">
+      <c r="A4" s="7" t="n">
         <v>3</v>
       </c>
       <c r="B4" s="9" t="s">
@@ -2494,8 +2521,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" s="12" customFormat="1" spans="1:6">
-      <c r="A5" s="7">
+    <row customFormat="1" r="5" s="12" spans="1:7">
+      <c r="A5" s="7" t="n">
         <v>4</v>
       </c>
       <c r="B5" s="9" t="s">
@@ -2504,7 +2531,7 @@
       <c r="C5" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="23" t="s">
+      <c r="D5" s="25" t="s">
         <v>30</v>
       </c>
       <c r="E5" s="10" t="s">
@@ -2514,8 +2541,8 @@
         <v>65</v>
       </c>
     </row>
-    <row r="6" s="12" customFormat="1" spans="1:6">
-      <c r="A6" s="7">
+    <row customFormat="1" r="6" s="12" spans="1:7">
+      <c r="A6" s="7" t="n">
         <v>5</v>
       </c>
       <c r="B6" s="9" t="s">
@@ -2524,7 +2551,7 @@
       <c r="C6" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="23" t="s">
+      <c r="D6" s="25" t="s">
         <v>32</v>
       </c>
       <c r="E6" s="10" t="s">
@@ -2534,8 +2561,8 @@
         <v>65</v>
       </c>
     </row>
-    <row r="7" s="12" customFormat="1" spans="1:6">
-      <c r="A7" s="7">
+    <row customFormat="1" r="7" s="12" spans="1:7">
+      <c r="A7" s="7" t="n">
         <v>6</v>
       </c>
       <c r="B7" s="9" t="s">
@@ -2544,7 +2571,7 @@
       <c r="C7" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="23" t="s">
+      <c r="D7" s="25" t="s">
         <v>34</v>
       </c>
       <c r="E7" s="10" t="s">
@@ -2554,8 +2581,8 @@
         <v>65</v>
       </c>
     </row>
-    <row r="8" s="12" customFormat="1" spans="1:6">
-      <c r="A8" s="7">
+    <row customFormat="1" r="8" s="12" spans="1:7">
+      <c r="A8" s="7" t="n">
         <v>7</v>
       </c>
       <c r="B8" s="9" t="s">
@@ -2564,7 +2591,7 @@
       <c r="C8" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="23" t="s">
+      <c r="D8" s="25" t="s">
         <v>36</v>
       </c>
       <c r="E8" s="10" t="s">
@@ -2574,8 +2601,8 @@
         <v>65</v>
       </c>
     </row>
-    <row r="9" s="12" customFormat="1" spans="1:6">
-      <c r="A9" s="7">
+    <row customFormat="1" r="9" s="12" spans="1:7">
+      <c r="A9" s="7" t="n">
         <v>8</v>
       </c>
       <c r="B9" s="9" t="s">
@@ -2584,7 +2611,7 @@
       <c r="C9" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="23" t="s">
+      <c r="D9" s="25" t="s">
         <v>38</v>
       </c>
       <c r="E9" s="10" t="s">
@@ -2594,8 +2621,8 @@
         <v>65</v>
       </c>
     </row>
-    <row r="10" s="12" customFormat="1" spans="1:6">
-      <c r="A10" s="7">
+    <row customFormat="1" r="10" s="12" spans="1:7">
+      <c r="A10" s="7" t="n">
         <v>9</v>
       </c>
       <c r="B10" s="9" t="s">
@@ -2604,7 +2631,7 @@
       <c r="C10" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="23" t="s">
+      <c r="D10" s="25" t="s">
         <v>40</v>
       </c>
       <c r="E10" s="10" t="s">
@@ -2614,8 +2641,8 @@
         <v>65</v>
       </c>
     </row>
-    <row r="11" s="12" customFormat="1" spans="1:6">
-      <c r="A11" s="7">
+    <row customFormat="1" r="11" s="12" spans="1:7">
+      <c r="A11" s="7" t="n">
         <v>10</v>
       </c>
       <c r="B11" s="9" t="s">
@@ -2634,8 +2661,8 @@
         <v>44</v>
       </c>
     </row>
-    <row r="12" s="12" customFormat="1" spans="1:6">
-      <c r="A12" s="7">
+    <row customFormat="1" r="12" s="12" spans="1:7">
+      <c r="A12" s="7" t="n">
         <v>11</v>
       </c>
       <c r="B12" s="9" t="s">
@@ -2650,12 +2677,12 @@
       <c r="E12" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="F12" s="24" t="s">
+      <c r="F12" s="26" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="13" s="12" customFormat="1" spans="1:6">
-      <c r="A13" s="7">
+    <row customFormat="1" r="13" s="12" spans="1:7">
+      <c r="A13" s="7" t="n">
         <v>12</v>
       </c>
       <c r="B13" s="9" t="s">
@@ -2670,12 +2697,12 @@
       <c r="E13" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="F13" s="24" t="s">
+      <c r="F13" s="26" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="14" s="12" customFormat="1" spans="1:6">
-      <c r="A14" s="7">
+    <row customFormat="1" r="14" s="12" spans="1:7">
+      <c r="A14" s="7" t="n">
         <v>13</v>
       </c>
       <c r="B14" s="9" t="s">
@@ -2690,12 +2717,12 @@
       <c r="E14" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="F14" s="24" t="s">
+      <c r="F14" s="26" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="15" s="12" customFormat="1" spans="1:6">
-      <c r="A15" s="7">
+    <row customFormat="1" r="15" s="12" spans="1:7">
+      <c r="A15" s="7" t="n">
         <v>14</v>
       </c>
       <c r="B15" s="9" t="s">
@@ -2710,12 +2737,12 @@
       <c r="E15" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="F15" s="24" t="s">
+      <c r="F15" s="26" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="16" s="12" customFormat="1" spans="1:6">
-      <c r="A16" s="7">
+    <row customFormat="1" r="16" s="12" spans="1:7">
+      <c r="A16" s="7" t="n">
         <v>15</v>
       </c>
       <c r="B16" s="9" t="s">
@@ -2730,12 +2757,12 @@
       <c r="E16" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="F16" s="24" t="s">
+      <c r="F16" s="26" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="17" s="12" customFormat="1" spans="1:6">
-      <c r="A17" s="7">
+    <row customFormat="1" r="17" s="12" spans="1:7">
+      <c r="A17" s="7" t="n">
         <v>16</v>
       </c>
       <c r="B17" s="9" t="s">
@@ -2750,40 +2777,42 @@
       <c r="E17" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="F17" s="24" t="s">
+      <c r="F17" s="26" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="18" s="12" customFormat="1"/>
+    <row customFormat="1" r="18" s="12" spans="1:7"/>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11" defaultRowHeight="13.5" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="7.875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="31.875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="14.375" style="3" customWidth="1"/>
-    <col min="4" max="4" width="21.75" style="20" customWidth="1"/>
-    <col min="5" max="5" width="48.5" style="3" customWidth="1"/>
-    <col min="6" max="6" width="15.125" style="21" customWidth="1"/>
-    <col min="7" max="7" width="31.125" style="3" customWidth="1"/>
-    <col min="8" max="8" width="68" style="3" customWidth="1"/>
-    <col min="9" max="9" width="20.625" style="3" customWidth="1"/>
+    <col customWidth="1" max="1" min="1" style="3" width="7.875"/>
+    <col customWidth="1" max="2" min="2" style="3" width="31.875"/>
+    <col customWidth="1" max="3" min="3" style="3" width="14.375"/>
+    <col customWidth="1" max="4" min="4" style="21" width="21.75"/>
+    <col customWidth="1" max="5" min="5" style="3" width="48.5"/>
+    <col customWidth="1" max="6" min="6" style="22" width="15.125"/>
+    <col customWidth="1" max="7" min="7" style="3" width="31.125"/>
+    <col customWidth="1" max="8" min="8" style="3" width="68"/>
+    <col customWidth="1" max="9" min="9" style="3" width="20.625"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="15" customHeight="1" spans="1:9">
+    <row customFormat="1" customHeight="1" ht="15" r="1" s="1" spans="1:10">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -2812,8 +2841,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" s="2" customFormat="1" ht="16.5" customHeight="1" spans="1:10">
-      <c r="A2" s="7">
+    <row customFormat="1" customHeight="1" ht="16.5" r="2" s="2" spans="1:10">
+      <c r="A2" s="7" t="n">
         <v>1</v>
       </c>
       <c r="B2" s="9" t="s">
@@ -2828,7 +2857,7 @@
       <c r="E2" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="F2" s="10">
+      <c r="F2" s="10" t="n">
         <v>10001</v>
       </c>
       <c r="H2" t="s">
@@ -2841,8 +2870,8 @@
         <v>62</v>
       </c>
     </row>
-    <row r="3" s="2" customFormat="1" ht="66" customHeight="1" spans="1:10">
-      <c r="A3" s="7">
+    <row customFormat="1" customHeight="1" ht="66" r="3" s="2" spans="1:10">
+      <c r="A3" s="7" t="n">
         <v>2</v>
       </c>
       <c r="B3" s="9" t="s">
@@ -2857,7 +2886,7 @@
       <c r="E3" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="F3" s="10">
+      <c r="F3" s="10" t="n">
         <v>10001</v>
       </c>
       <c r="G3" s="2" t="s">
@@ -2873,8 +2902,8 @@
         <v>90</v>
       </c>
     </row>
-    <row r="4" s="12" customFormat="1" ht="16.5" customHeight="1" spans="1:10">
-      <c r="A4" s="7">
+    <row customFormat="1" customHeight="1" ht="16.5" r="4" s="12" spans="1:10">
+      <c r="A4" s="7" t="n">
         <v>3</v>
       </c>
       <c r="B4" s="9" t="s">
@@ -2883,13 +2912,13 @@
       <c r="C4" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="17" t="s">
+      <c r="D4" s="18" t="s">
         <v>91</v>
       </c>
       <c r="E4" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="F4" s="15">
+      <c r="F4" s="15" t="n">
         <v>20104</v>
       </c>
       <c r="H4" t="s">
@@ -2902,8 +2931,8 @@
         <v>93</v>
       </c>
     </row>
-    <row r="5" s="12" customFormat="1" ht="16.5" customHeight="1" spans="1:10">
-      <c r="A5" s="7">
+    <row customFormat="1" customHeight="1" ht="16.5" r="5" s="12" spans="1:10">
+      <c r="A5" s="7" t="n">
         <v>4</v>
       </c>
       <c r="B5" s="9" t="s">
@@ -2912,13 +2941,13 @@
       <c r="C5" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="17" t="s">
+      <c r="D5" s="18" t="s">
         <v>21</v>
       </c>
       <c r="E5" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="F5" s="15">
+      <c r="F5" s="15" t="n">
         <v>20103</v>
       </c>
       <c r="H5" t="s">
@@ -2931,8 +2960,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" s="12" customFormat="1" ht="16.5" customHeight="1" spans="1:10">
-      <c r="A6" s="7">
+    <row customFormat="1" customHeight="1" ht="16.5" r="6" s="12" spans="1:10">
+      <c r="A6" s="7" t="n">
         <v>5</v>
       </c>
       <c r="B6" s="9" t="s">
@@ -2941,13 +2970,13 @@
       <c r="C6" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="19" t="s">
+      <c r="D6" s="20" t="s">
         <v>30</v>
       </c>
       <c r="E6" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="F6" s="15">
+      <c r="F6" s="15" t="n">
         <v>20109</v>
       </c>
       <c r="H6" t="s">
@@ -2960,8 +2989,8 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" s="12" customFormat="1" ht="16.5" customHeight="1" spans="1:10">
-      <c r="A7" s="7">
+    <row customFormat="1" customHeight="1" ht="16.5" r="7" s="12" spans="1:10">
+      <c r="A7" s="7" t="n">
         <v>6</v>
       </c>
       <c r="B7" s="9" t="s">
@@ -2970,13 +2999,13 @@
       <c r="C7" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="19" t="s">
+      <c r="D7" s="20" t="s">
         <v>32</v>
       </c>
       <c r="E7" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="F7" s="15">
+      <c r="F7" s="15" t="n">
         <v>20109</v>
       </c>
       <c r="H7" t="s">
@@ -2989,8 +3018,8 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" s="12" customFormat="1" ht="16.5" customHeight="1" spans="1:10">
-      <c r="A8" s="7">
+    <row customFormat="1" customHeight="1" ht="16.5" r="8" s="12" spans="1:10">
+      <c r="A8" s="7" t="n">
         <v>7</v>
       </c>
       <c r="B8" s="9" t="s">
@@ -2999,13 +3028,13 @@
       <c r="C8" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="19" t="s">
+      <c r="D8" s="20" t="s">
         <v>34</v>
       </c>
       <c r="E8" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="F8" s="15">
+      <c r="F8" s="15" t="n">
         <v>20109</v>
       </c>
       <c r="H8" t="s">
@@ -3018,8 +3047,8 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" s="12" customFormat="1" ht="16.5" customHeight="1" spans="1:10">
-      <c r="A9" s="7">
+    <row customFormat="1" customHeight="1" ht="16.5" r="9" s="12" spans="1:10">
+      <c r="A9" s="7" t="n">
         <v>8</v>
       </c>
       <c r="B9" s="9" t="s">
@@ -3028,13 +3057,13 @@
       <c r="C9" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="19" t="s">
+      <c r="D9" s="20" t="s">
         <v>36</v>
       </c>
       <c r="E9" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="F9" s="15">
+      <c r="F9" s="15" t="n">
         <v>20109</v>
       </c>
       <c r="H9" t="s">
@@ -3047,8 +3076,8 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" s="12" customFormat="1" ht="16.5" customHeight="1" spans="1:10">
-      <c r="A10" s="7">
+    <row customFormat="1" customHeight="1" ht="16.5" r="10" s="12" spans="1:10">
+      <c r="A10" s="7" t="n">
         <v>9</v>
       </c>
       <c r="B10" s="9" t="s">
@@ -3057,13 +3086,13 @@
       <c r="C10" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="19" t="s">
+      <c r="D10" s="20" t="s">
         <v>38</v>
       </c>
       <c r="E10" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="F10" s="15">
+      <c r="F10" s="15" t="n">
         <v>20109</v>
       </c>
       <c r="H10" t="s">
@@ -3076,8 +3105,8 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" s="12" customFormat="1" ht="16.5" customHeight="1" spans="1:10">
-      <c r="A11" s="7">
+    <row customFormat="1" customHeight="1" ht="16.5" r="11" s="12" spans="1:10">
+      <c r="A11" s="7" t="n">
         <v>10</v>
       </c>
       <c r="B11" s="9" t="s">
@@ -3086,13 +3115,13 @@
       <c r="C11" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="19" t="s">
+      <c r="D11" s="20" t="s">
         <v>40</v>
       </c>
       <c r="E11" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="F11" s="15">
+      <c r="F11" s="15" t="n">
         <v>20109</v>
       </c>
       <c r="H11" t="s">
@@ -3105,8 +3134,8 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" s="12" customFormat="1" ht="16.5" customHeight="1" spans="1:10">
-      <c r="A12" s="7">
+    <row customFormat="1" customHeight="1" ht="16.5" r="12" s="12" spans="1:10">
+      <c r="A12" s="7" t="n">
         <v>11</v>
       </c>
       <c r="B12" s="9" t="s">
@@ -3115,13 +3144,13 @@
       <c r="C12" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="17" t="s">
+      <c r="D12" s="18" t="s">
         <v>101</v>
       </c>
       <c r="E12" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="F12" s="15">
+      <c r="F12" s="15" t="n">
         <v>20115</v>
       </c>
       <c r="H12" t="s">
@@ -3134,8 +3163,8 @@
         <v>103</v>
       </c>
     </row>
-    <row r="13" s="12" customFormat="1" ht="16.5" customHeight="1" spans="1:10">
-      <c r="A13" s="7">
+    <row customFormat="1" customHeight="1" ht="16.5" r="13" s="12" spans="1:10">
+      <c r="A13" s="7" t="n">
         <v>12</v>
       </c>
       <c r="B13" s="9" t="s">
@@ -3144,13 +3173,13 @@
       <c r="C13" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="17" t="s">
+      <c r="D13" s="18" t="s">
         <v>104</v>
       </c>
       <c r="E13" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="F13" s="15">
+      <c r="F13" s="15" t="n">
         <v>20117</v>
       </c>
       <c r="H13" t="s">
@@ -3163,8 +3192,8 @@
         <v>106</v>
       </c>
     </row>
-    <row r="14" s="12" customFormat="1" ht="16.5" customHeight="1" spans="1:10">
-      <c r="A14" s="7">
+    <row customFormat="1" customHeight="1" ht="16.5" r="14" s="12" spans="1:10">
+      <c r="A14" s="7" t="n">
         <v>13</v>
       </c>
       <c r="B14" s="9" t="s">
@@ -3173,13 +3202,13 @@
       <c r="C14" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="17" t="s">
+      <c r="D14" s="18" t="s">
         <v>107</v>
       </c>
       <c r="E14" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="F14" s="15">
+      <c r="F14" s="15" t="n">
         <v>20117</v>
       </c>
       <c r="H14" t="s">
@@ -3192,8 +3221,8 @@
         <v>106</v>
       </c>
     </row>
-    <row r="15" s="12" customFormat="1" ht="16.5" customHeight="1" spans="1:10">
-      <c r="A15" s="7">
+    <row customFormat="1" customHeight="1" ht="16.5" r="15" s="12" spans="1:10">
+      <c r="A15" s="7" t="n">
         <v>14</v>
       </c>
       <c r="B15" s="9" t="s">
@@ -3202,13 +3231,13 @@
       <c r="C15" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D15" s="17" t="s">
+      <c r="D15" s="18" t="s">
         <v>109</v>
       </c>
       <c r="E15" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="F15" s="15">
+      <c r="F15" s="15" t="n">
         <v>20116</v>
       </c>
       <c r="H15" t="s">
@@ -3221,8 +3250,8 @@
         <v>111</v>
       </c>
     </row>
-    <row r="16" s="12" customFormat="1" ht="16.5" customHeight="1" spans="1:10">
-      <c r="A16" s="7">
+    <row customFormat="1" customHeight="1" ht="16.5" r="16" s="12" spans="1:10">
+      <c r="A16" s="7" t="n">
         <v>15</v>
       </c>
       <c r="B16" s="9" t="s">
@@ -3231,13 +3260,13 @@
       <c r="C16" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D16" s="17" t="s">
+      <c r="D16" s="18" t="s">
         <v>112</v>
       </c>
       <c r="E16" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="F16" s="15">
+      <c r="F16" s="15" t="n">
         <v>20118</v>
       </c>
       <c r="H16" t="s">
@@ -3251,30 +3280,32 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="0"/>
   <cols>
-    <col min="2" max="2" width="16.875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="15.25" style="16" customWidth="1"/>
-    <col min="5" max="5" width="44.375" style="3" customWidth="1"/>
-    <col min="6" max="6" width="66.125" style="13" customWidth="1"/>
-    <col min="7" max="7" width="30.875" style="3" customWidth="1"/>
+    <col customWidth="1" max="2" min="2" style="3" width="16.875"/>
+    <col customWidth="1" max="4" min="4" style="16" width="15.25"/>
+    <col customWidth="1" max="5" min="5" style="3" width="44.375"/>
+    <col customWidth="1" max="6" min="6" style="13" width="66.125"/>
+    <col customWidth="1" max="7" min="7" style="3" width="30.875"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="15" customHeight="1" spans="1:9">
+    <row customFormat="1" customHeight="1" ht="15" r="1" s="1" spans="1:9">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -3303,8 +3334,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" s="2" customFormat="1" ht="33" customHeight="1" spans="1:9">
-      <c r="A2" s="7">
+    <row customFormat="1" customHeight="1" ht="33" r="2" s="2" spans="1:9">
+      <c r="A2" s="7" t="n">
         <v>1</v>
       </c>
       <c r="B2" s="9" t="s">
@@ -3319,7 +3350,7 @@
       <c r="E2" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="F2" s="10">
+      <c r="F2" s="10" t="n">
         <v>10001</v>
       </c>
       <c r="H2" t="s">
@@ -3329,8 +3360,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" s="2" customFormat="1" ht="66" customHeight="1" spans="1:9">
-      <c r="A3" s="7">
+    <row customFormat="1" customHeight="1" ht="66" r="3" s="2" spans="1:9">
+      <c r="A3" s="7" t="n">
         <v>2</v>
       </c>
       <c r="B3" s="9" t="s">
@@ -3345,7 +3376,7 @@
       <c r="E3" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="F3" s="10">
+      <c r="F3" s="10" t="n">
         <v>10001</v>
       </c>
       <c r="G3" s="2" t="s">
@@ -3358,8 +3389,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" s="12" customFormat="1" ht="33" customHeight="1" spans="1:9">
-      <c r="A4" s="7">
+    <row customFormat="1" customHeight="1" ht="33" r="4" s="12" spans="1:9">
+      <c r="A4" s="7" t="n">
         <v>3</v>
       </c>
       <c r="B4" s="9" t="s">
@@ -3368,13 +3399,13 @@
       <c r="C4" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="17" t="s">
+      <c r="D4" s="18" t="s">
         <v>91</v>
       </c>
       <c r="E4" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="F4" s="18">
+      <c r="F4" s="19" t="n">
         <v>20104</v>
       </c>
       <c r="H4" t="s">
@@ -3384,8 +3415,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" s="12" customFormat="1" ht="33" customHeight="1" spans="1:9">
-      <c r="A5" s="7">
+    <row customFormat="1" customHeight="1" ht="33" r="5" s="12" spans="1:9">
+      <c r="A5" s="7" t="n">
         <v>4</v>
       </c>
       <c r="B5" s="9" t="s">
@@ -3394,13 +3425,13 @@
       <c r="C5" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="17" t="s">
+      <c r="D5" s="18" t="s">
         <v>21</v>
       </c>
       <c r="E5" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="F5" s="18">
+      <c r="F5" s="19" t="n">
         <v>20103</v>
       </c>
       <c r="H5" t="s">
@@ -3410,8 +3441,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" s="12" customFormat="1" ht="33" customHeight="1" spans="1:9">
-      <c r="A6" s="7">
+    <row customFormat="1" customHeight="1" ht="33" r="6" s="12" spans="1:9">
+      <c r="A6" s="7" t="n">
         <v>5</v>
       </c>
       <c r="B6" s="9" t="s">
@@ -3420,13 +3451,13 @@
       <c r="C6" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="19" t="s">
+      <c r="D6" s="20" t="s">
         <v>30</v>
       </c>
       <c r="E6" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="F6" s="18">
+      <c r="F6" s="19" t="n">
         <v>20109</v>
       </c>
       <c r="H6" t="s">
@@ -3436,8 +3467,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" s="12" customFormat="1" ht="33" customHeight="1" spans="1:9">
-      <c r="A7" s="7">
+    <row customFormat="1" customHeight="1" ht="33" r="7" s="12" spans="1:9">
+      <c r="A7" s="7" t="n">
         <v>6</v>
       </c>
       <c r="B7" s="9" t="s">
@@ -3446,13 +3477,13 @@
       <c r="C7" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="19" t="s">
+      <c r="D7" s="20" t="s">
         <v>32</v>
       </c>
       <c r="E7" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="F7" s="18">
+      <c r="F7" s="19" t="n">
         <v>20109</v>
       </c>
       <c r="H7" t="s">
@@ -3462,8 +3493,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" s="12" customFormat="1" ht="33" customHeight="1" spans="1:9">
-      <c r="A8" s="7">
+    <row customFormat="1" customHeight="1" ht="33" r="8" s="12" spans="1:9">
+      <c r="A8" s="7" t="n">
         <v>7</v>
       </c>
       <c r="B8" s="9" t="s">
@@ -3472,13 +3503,13 @@
       <c r="C8" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="19" t="s">
+      <c r="D8" s="20" t="s">
         <v>34</v>
       </c>
       <c r="E8" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="F8" s="18">
+      <c r="F8" s="19" t="n">
         <v>20109</v>
       </c>
       <c r="H8" t="s">
@@ -3488,8 +3519,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" s="12" customFormat="1" ht="33" customHeight="1" spans="1:9">
-      <c r="A9" s="7">
+    <row customFormat="1" customHeight="1" ht="33" r="9" s="12" spans="1:9">
+      <c r="A9" s="7" t="n">
         <v>8</v>
       </c>
       <c r="B9" s="9" t="s">
@@ -3498,13 +3529,13 @@
       <c r="C9" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="19" t="s">
+      <c r="D9" s="20" t="s">
         <v>36</v>
       </c>
       <c r="E9" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="F9" s="18">
+      <c r="F9" s="19" t="n">
         <v>20109</v>
       </c>
       <c r="H9" t="s">
@@ -3514,8 +3545,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" s="12" customFormat="1" ht="33" customHeight="1" spans="1:9">
-      <c r="A10" s="7">
+    <row customFormat="1" customHeight="1" ht="33" r="10" s="12" spans="1:9">
+      <c r="A10" s="7" t="n">
         <v>9</v>
       </c>
       <c r="B10" s="9" t="s">
@@ -3524,13 +3555,13 @@
       <c r="C10" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="19" t="s">
+      <c r="D10" s="20" t="s">
         <v>38</v>
       </c>
       <c r="E10" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="F10" s="18">
+      <c r="F10" s="19" t="n">
         <v>20109</v>
       </c>
       <c r="H10" t="s">
@@ -3540,8 +3571,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" s="12" customFormat="1" ht="33" customHeight="1" spans="1:9">
-      <c r="A11" s="7">
+    <row customFormat="1" customHeight="1" ht="33" r="11" s="12" spans="1:9">
+      <c r="A11" s="7" t="n">
         <v>10</v>
       </c>
       <c r="B11" s="9" t="s">
@@ -3550,13 +3581,13 @@
       <c r="C11" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="19" t="s">
+      <c r="D11" s="20" t="s">
         <v>40</v>
       </c>
       <c r="E11" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="F11" s="18">
+      <c r="F11" s="19" t="n">
         <v>20109</v>
       </c>
       <c r="H11" t="s">
@@ -3566,8 +3597,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" s="12" customFormat="1" ht="33" customHeight="1" spans="1:9">
-      <c r="A12" s="7">
+    <row customFormat="1" customHeight="1" ht="33" r="12" s="12" spans="1:9">
+      <c r="A12" s="7" t="n">
         <v>11</v>
       </c>
       <c r="B12" s="9" t="s">
@@ -3576,13 +3607,13 @@
       <c r="C12" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="17" t="s">
+      <c r="D12" s="18" t="s">
         <v>101</v>
       </c>
       <c r="E12" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="F12" s="15">
+      <c r="F12" s="15" t="n">
         <v>20115</v>
       </c>
       <c r="H12" t="s">
@@ -3592,8 +3623,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" s="12" customFormat="1" ht="33" customHeight="1" spans="1:9">
-      <c r="A13" s="7">
+    <row customFormat="1" customHeight="1" ht="33" r="13" s="12" spans="1:9">
+      <c r="A13" s="7" t="n">
         <v>12</v>
       </c>
       <c r="B13" s="9" t="s">
@@ -3602,13 +3633,13 @@
       <c r="C13" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="17" t="s">
+      <c r="D13" s="18" t="s">
         <v>104</v>
       </c>
       <c r="E13" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="F13" s="18">
+      <c r="F13" s="19" t="n">
         <v>20117</v>
       </c>
       <c r="H13" t="s">
@@ -3618,8 +3649,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" s="12" customFormat="1" ht="33" customHeight="1" spans="1:9">
-      <c r="A14" s="7">
+    <row customFormat="1" customHeight="1" ht="33" r="14" s="12" spans="1:9">
+      <c r="A14" s="7" t="n">
         <v>13</v>
       </c>
       <c r="B14" s="9" t="s">
@@ -3628,13 +3659,13 @@
       <c r="C14" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="17" t="s">
+      <c r="D14" s="18" t="s">
         <v>107</v>
       </c>
       <c r="E14" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="F14" s="18">
+      <c r="F14" s="19" t="n">
         <v>20117</v>
       </c>
       <c r="H14" t="s">
@@ -3644,8 +3675,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" s="12" customFormat="1" ht="33" customHeight="1" spans="1:9">
-      <c r="A15" s="7">
+    <row customFormat="1" customHeight="1" ht="33" r="15" s="12" spans="1:9">
+      <c r="A15" s="7" t="n">
         <v>14</v>
       </c>
       <c r="B15" s="9" t="s">
@@ -3654,13 +3685,13 @@
       <c r="C15" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D15" s="17" t="s">
+      <c r="D15" s="18" t="s">
         <v>109</v>
       </c>
       <c r="E15" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="F15" s="18">
+      <c r="F15" s="19" t="n">
         <v>20116</v>
       </c>
       <c r="H15" t="s">
@@ -3670,8 +3701,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" s="12" customFormat="1" ht="33" customHeight="1" spans="1:9">
-      <c r="A16" s="7">
+    <row customFormat="1" customHeight="1" ht="33" r="16" s="12" spans="1:9">
+      <c r="A16" s="7" t="n">
         <v>15</v>
       </c>
       <c r="B16" s="9" t="s">
@@ -3680,13 +3711,13 @@
       <c r="C16" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D16" s="17" t="s">
+      <c r="D16" s="18" t="s">
         <v>112</v>
       </c>
       <c r="E16" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="F16" s="15">
+      <c r="F16" s="15" t="n">
         <v>20118</v>
       </c>
       <c r="H16" t="s">
@@ -3696,8 +3727,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" s="12" customFormat="1" ht="33" customHeight="1" spans="1:9">
-      <c r="A17" s="7">
+    <row customFormat="1" customHeight="1" ht="33" r="17" s="12" spans="1:9">
+      <c r="A17" s="7" t="n">
         <v>16</v>
       </c>
       <c r="B17" s="9" t="s">
@@ -3706,13 +3737,13 @@
       <c r="C17" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D17" s="17" t="s">
+      <c r="D17" s="18" t="s">
         <v>123</v>
       </c>
       <c r="E17" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="F17" s="15">
+      <c r="F17" s="15" t="n">
         <v>20119</v>
       </c>
       <c r="H17" t="s">
@@ -3723,46 +3754,51 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="E38" sqref="E38"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="0"/>
   <cols>
-    <col min="2" max="2" width="21.875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="14.75" style="16" customWidth="1"/>
-    <col min="5" max="5" width="148.375" style="3" customWidth="1"/>
-    <col min="6" max="6" width="47.375" style="13" customWidth="1"/>
-    <col min="7" max="7" width="41" style="3" customWidth="1"/>
+    <col customWidth="1" max="2" min="2" style="3" width="21.875"/>
+    <col customWidth="1" max="4" min="4" style="16" width="14.75"/>
+    <col customWidth="1" max="5" min="5" style="3" width="66.375"/>
+    <col customWidth="1" max="6" min="6" style="17" width="32.5"/>
+    <col customWidth="1" max="7" min="7" style="3" width="41"/>
+    <col customWidth="1" max="8" min="8" style="13" width="29.125"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="15" customHeight="1" spans="1:9">
+    <row customFormat="1" customHeight="1" ht="15" r="1" s="1" spans="1:9">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -3791,8 +3827,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" s="2" customFormat="1" ht="33" customHeight="1" spans="1:6">
-      <c r="A2" s="7">
+    <row customFormat="1" customHeight="1" ht="33" r="2" s="2" spans="1:9">
+      <c r="A2" s="7" t="n">
         <v>1</v>
       </c>
       <c r="B2" s="9" t="s">
@@ -3810,9 +3846,15 @@
       <c r="F2" s="10" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="3" s="2" customFormat="1" ht="66" customHeight="1" spans="1:7">
-      <c r="A3" s="7">
+      <c r="H2" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="I2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row customFormat="1" customHeight="1" ht="66" r="3" s="2" spans="1:9">
+      <c r="A3" s="7" t="n">
         <v>2</v>
       </c>
       <c r="B3" s="9" t="s">
@@ -3833,9 +3875,15 @@
       <c r="G3" s="2" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="4" s="12" customFormat="1" ht="66" customHeight="1" spans="1:6">
-      <c r="A4" s="7">
+      <c r="H3" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="I3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row customFormat="1" customHeight="1" ht="66" r="4" s="12" spans="1:9">
+      <c r="A4" s="7" t="n">
         <v>3</v>
       </c>
       <c r="B4" s="9" t="s">
@@ -3844,7 +3892,7 @@
       <c r="C4" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="17" t="s">
+      <c r="D4" s="18" t="s">
         <v>131</v>
       </c>
       <c r="E4" s="10" t="s">
@@ -3853,9 +3901,15 @@
       <c r="F4" s="2" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="5" s="12" customFormat="1" ht="66" customHeight="1" spans="1:6">
-      <c r="A5" s="7">
+      <c r="H4" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="I4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row customFormat="1" customHeight="1" ht="66" r="5" s="12" spans="1:9">
+      <c r="A5" s="7" t="n">
         <v>4</v>
       </c>
       <c r="B5" s="9" t="s">
@@ -3864,7 +3918,7 @@
       <c r="C5" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="17" t="s">
+      <c r="D5" s="18" t="s">
         <v>134</v>
       </c>
       <c r="E5" s="10" t="s">
@@ -3873,9 +3927,15 @@
       <c r="F5" s="2" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="6" s="12" customFormat="1" ht="66" customHeight="1" spans="1:6">
-      <c r="A6" s="7">
+      <c r="H5" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="I5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row customFormat="1" customHeight="1" ht="66" r="6" s="12" spans="1:9">
+      <c r="A6" s="7" t="n">
         <v>5</v>
       </c>
       <c r="B6" s="9" t="s">
@@ -3884,7 +3944,7 @@
       <c r="C6" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="17" t="s">
+      <c r="D6" s="18" t="s">
         <v>137</v>
       </c>
       <c r="E6" s="10" t="s">
@@ -3893,9 +3953,15 @@
       <c r="F6" s="2" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="7" s="12" customFormat="1" ht="66" customHeight="1" spans="1:6">
-      <c r="A7" s="7">
+      <c r="H6" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="I6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row customFormat="1" customHeight="1" ht="66" r="7" s="12" spans="1:9">
+      <c r="A7" s="7" t="n">
         <v>6</v>
       </c>
       <c r="B7" s="9" t="s">
@@ -3904,7 +3970,7 @@
       <c r="C7" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="17" t="s">
+      <c r="D7" s="18" t="s">
         <v>140</v>
       </c>
       <c r="E7" s="10" t="s">
@@ -3913,9 +3979,15 @@
       <c r="F7" s="2" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="8" s="12" customFormat="1" ht="66" customHeight="1" spans="1:6">
-      <c r="A8" s="7">
+      <c r="H7" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="I7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row customFormat="1" customHeight="1" ht="66" r="8" s="12" spans="1:9">
+      <c r="A8" s="7" t="n">
         <v>7</v>
       </c>
       <c r="B8" s="9" t="s">
@@ -3924,7 +3996,7 @@
       <c r="C8" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="17" t="s">
+      <c r="D8" s="18" t="s">
         <v>142</v>
       </c>
       <c r="E8" s="10" t="s">
@@ -3933,9 +4005,15 @@
       <c r="F8" s="2" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="9" s="12" customFormat="1" ht="66" customHeight="1" spans="1:6">
-      <c r="A9" s="7">
+      <c r="H8" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="I8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row customFormat="1" customHeight="1" ht="66" r="9" s="12" spans="1:9">
+      <c r="A9" s="7" t="n">
         <v>8</v>
       </c>
       <c r="B9" s="9" t="s">
@@ -3944,7 +4022,7 @@
       <c r="C9" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="17" t="s">
+      <c r="D9" s="18" t="s">
         <v>145</v>
       </c>
       <c r="E9" s="10" t="s">
@@ -3953,9 +4031,15 @@
       <c r="F9" s="2" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="10" s="12" customFormat="1" ht="66" customHeight="1" spans="1:6">
-      <c r="A10" s="7">
+      <c r="H9" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="I9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row customFormat="1" customHeight="1" ht="66" r="10" s="12" spans="1:9">
+      <c r="A10" s="7" t="n">
         <v>9</v>
       </c>
       <c r="B10" s="9" t="s">
@@ -3964,18 +4048,27 @@
       <c r="C10" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="17" t="s">
+      <c r="D10" s="18" t="s">
         <v>147</v>
       </c>
       <c r="E10" s="10" t="s">
         <v>148</v>
       </c>
-      <c r="F10" s="10" t="s">
+      <c r="F10" s="2" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="11" s="12" customFormat="1" ht="66" customHeight="1" spans="1:6">
-      <c r="A11" s="7">
+      <c r="G10" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="H10" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="I10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row customFormat="1" customHeight="1" ht="66" r="11" s="12" spans="1:9">
+      <c r="A11" s="7" t="n">
         <v>10</v>
       </c>
       <c r="B11" s="9" t="s">
@@ -3984,18 +4077,27 @@
       <c r="C11" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="17" t="s">
+      <c r="D11" s="18" t="s">
         <v>149</v>
       </c>
       <c r="E11" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="F11" s="10" t="s">
+      <c r="F11" s="2" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="12" s="12" customFormat="1" ht="66" customHeight="1" spans="1:6">
-      <c r="A12" s="7">
+      <c r="G11" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="H11" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="I11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row customFormat="1" customHeight="1" ht="66" r="12" s="12" spans="1:9">
+      <c r="A12" s="7" t="n">
         <v>11</v>
       </c>
       <c r="B12" s="9" t="s">
@@ -4004,18 +4106,27 @@
       <c r="C12" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="17" t="s">
+      <c r="D12" s="18" t="s">
         <v>151</v>
       </c>
       <c r="E12" s="10" t="s">
         <v>152</v>
       </c>
-      <c r="F12" s="10" t="s">
+      <c r="F12" s="2" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="13" s="12" customFormat="1" ht="77" customHeight="1" spans="1:6">
-      <c r="A13" s="7">
+      <c r="G12" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="H12" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="I12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row customFormat="1" customHeight="1" ht="77" r="13" s="12" spans="1:9">
+      <c r="A13" s="7" t="n">
         <v>12</v>
       </c>
       <c r="B13" s="9" t="s">
@@ -4024,7 +4135,7 @@
       <c r="C13" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="17" t="s">
+      <c r="D13" s="18" t="s">
         <v>153</v>
       </c>
       <c r="E13" s="10" t="s">
@@ -4033,9 +4144,15 @@
       <c r="F13" s="2" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="14" s="12" customFormat="1" ht="66" customHeight="1" spans="1:6">
-      <c r="A14" s="7">
+      <c r="H13" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="I13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row customFormat="1" customHeight="1" ht="66" r="14" s="12" spans="1:9">
+      <c r="A14" s="7" t="n">
         <v>13</v>
       </c>
       <c r="B14" s="9" t="s">
@@ -4044,16 +4161,27 @@
       <c r="C14" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="17" t="s">
+      <c r="D14" s="18" t="s">
         <v>155</v>
       </c>
       <c r="E14" s="10" t="s">
         <v>156</v>
       </c>
-      <c r="F14" s="2"/>
-    </row>
-    <row r="15" s="12" customFormat="1" ht="69" customHeight="1" spans="1:6">
-      <c r="A15" s="7">
+      <c r="F14" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="H14" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="I14" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row customFormat="1" customHeight="1" ht="69" r="15" s="12" spans="1:9">
+      <c r="A15" s="7" t="n">
         <v>14</v>
       </c>
       <c r="B15" s="9" t="s">
@@ -4062,16 +4190,24 @@
       <c r="C15" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D15" s="17" t="s">
+      <c r="D15" s="18" t="s">
         <v>157</v>
       </c>
       <c r="E15" s="10" t="s">
         <v>158</v>
       </c>
-      <c r="F15" s="2"/>
-    </row>
-    <row r="16" s="12" customFormat="1" ht="63" customHeight="1" spans="1:6">
-      <c r="A16" s="7">
+      <c r="F15" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="H15" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="I15" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row customFormat="1" customHeight="1" ht="63" r="16" s="12" spans="1:9">
+      <c r="A16" s="7" t="n">
         <v>15</v>
       </c>
       <c r="B16" s="9" t="s">
@@ -4080,16 +4216,24 @@
       <c r="C16" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D16" s="17" t="s">
+      <c r="D16" s="18" t="s">
+        <v>160</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="F16" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="E16" s="10" t="s">
-        <v>160</v>
-      </c>
-      <c r="F16" s="2"/>
-    </row>
-    <row r="17" s="12" customFormat="1" ht="67" customHeight="1" spans="1:6">
-      <c r="A17" s="7">
+      <c r="H16" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="I16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row customFormat="1" customHeight="1" ht="67" r="17" s="12" spans="1:9">
+      <c r="A17" s="7" t="n">
         <v>16</v>
       </c>
       <c r="B17" s="9" t="s">
@@ -4098,16 +4242,24 @@
       <c r="C17" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D17" s="17" t="s">
-        <v>161</v>
+      <c r="D17" s="18" t="s">
+        <v>162</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>162</v>
-      </c>
-      <c r="F17" s="2"/>
-    </row>
-    <row r="18" s="12" customFormat="1" ht="33" spans="1:6">
-      <c r="A18" s="7">
+        <v>163</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="H17" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="I17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row customFormat="1" customHeight="1" ht="33" r="18" s="12" spans="1:9">
+      <c r="A18" s="7" t="n">
         <v>17</v>
       </c>
       <c r="B18" s="9" t="s">
@@ -4116,16 +4268,24 @@
       <c r="C18" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D18" s="17" t="s">
-        <v>163</v>
+      <c r="D18" s="18" t="s">
+        <v>164</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>164</v>
-      </c>
-      <c r="F18" s="2"/>
-    </row>
-    <row r="19" s="12" customFormat="1" ht="69" customHeight="1" spans="1:6">
-      <c r="A19" s="7">
+        <v>165</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="H18" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="I18" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row customFormat="1" customHeight="1" ht="69" r="19" s="12" spans="1:9">
+      <c r="A19" s="7" t="n">
         <v>18</v>
       </c>
       <c r="B19" s="9" t="s">
@@ -4134,18 +4294,24 @@
       <c r="C19" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D19" s="17" t="s">
-        <v>165</v>
+      <c r="D19" s="18" t="s">
+        <v>166</v>
       </c>
       <c r="E19" s="10" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="20" s="12" customFormat="1" ht="78" customHeight="1" spans="1:6">
-      <c r="A20" s="7">
+      <c r="H19" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="I19" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row customFormat="1" customHeight="1" ht="78" r="20" s="12" spans="1:9">
+      <c r="A20" s="7" t="n">
         <v>19</v>
       </c>
       <c r="B20" s="9" t="s">
@@ -4154,18 +4320,24 @@
       <c r="C20" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D20" s="17" t="s">
-        <v>167</v>
+      <c r="D20" s="18" t="s">
+        <v>168</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="21" s="12" customFormat="1" ht="67" customHeight="1" spans="1:6">
-      <c r="A21" s="7">
+        <v>170</v>
+      </c>
+      <c r="H20" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="I20" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row customFormat="1" customHeight="1" ht="67" r="21" s="12" spans="1:9">
+      <c r="A21" s="7" t="n">
         <v>20</v>
       </c>
       <c r="B21" s="9" t="s">
@@ -4174,331 +4346,515 @@
       <c r="C21" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D21" s="17" t="s">
+      <c r="D21" s="18" t="s">
+        <v>171</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="F21" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="E21" s="10" t="s">
-        <v>171</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>169</v>
+      <c r="H21" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="I21" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:I19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="0"/>
   <cols>
-    <col min="3" max="3" width="21.5" style="3" customWidth="1"/>
-    <col min="5" max="5" width="28.625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="22.875" style="13" customWidth="1"/>
-    <col min="7" max="7" width="40.25" style="3" customWidth="1"/>
-    <col min="8" max="8" width="43.5" style="13" customWidth="1"/>
-    <col min="9" max="9" width="21.5" style="3" customWidth="1"/>
+    <col customWidth="1" max="2" min="2" style="3" width="25.625"/>
+    <col customWidth="1" max="4" min="4" style="13" width="22.875"/>
+    <col customWidth="1" max="5" min="5" style="3" width="40.25"/>
+    <col customWidth="1" max="6" min="6" style="13" width="43.5"/>
+    <col customWidth="1" max="7" min="7" style="3" width="21.5"/>
+    <col customWidth="1" max="8" min="8" style="14" width="32"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="15" customHeight="1" spans="1:9">
+    <row customFormat="1" customHeight="1" ht="15" r="1" s="1" spans="1:9">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>172</v>
+        <v>1</v>
       </c>
       <c r="C1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row customFormat="1" customHeight="1" ht="33" r="2" s="2" spans="1:9">
+      <c r="A2" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="B2" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row customFormat="1" customHeight="1" ht="66" r="3" s="2" spans="1:9">
+      <c r="A3" s="7" t="n">
         <v>2</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="B3" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row customFormat="1" customHeight="1" ht="33" r="4" s="12" spans="1:9">
+      <c r="A4" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" s="9" t="s">
         <v>173</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="C4" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="E4" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="H4" s="2" t="n"/>
+    </row>
+    <row customFormat="1" customHeight="1" ht="33" r="5" s="12" spans="1:9">
+      <c r="A5" s="7" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row customFormat="1" customHeight="1" ht="33" r="6" s="12" spans="1:9">
+      <c r="A6" s="7" t="n">
         <v>4</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="B6" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row customFormat="1" customHeight="1" ht="33" r="7" s="12" spans="1:9">
+      <c r="A7" s="7" t="n">
         <v>5</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="B7" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row customFormat="1" customHeight="1" ht="33" r="8" s="12" spans="1:9">
+      <c r="A8" s="7" t="n">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" s="2" customFormat="1" ht="16.5" customHeight="1" spans="1:8">
-      <c r="A2" s="7">
-        <v>1</v>
-      </c>
-      <c r="B2" s="8" t="s">
+      <c r="B8" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row customFormat="1" customHeight="1" ht="33" r="9" s="12" spans="1:9">
+      <c r="A9" s="7" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>192</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="H9" s="2" t="n"/>
+    </row>
+    <row customFormat="1" customHeight="1" ht="33" r="10" s="12" spans="1:9">
+      <c r="A10" s="7" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>194</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="H10" s="2" t="n"/>
+    </row>
+    <row customFormat="1" customHeight="1" ht="33" r="11" s="12" spans="1:9">
+      <c r="A11" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>196</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="H11" s="2" t="n"/>
+    </row>
+    <row customFormat="1" customHeight="1" ht="33" r="12" s="12" spans="1:9">
+      <c r="A12" s="7" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>198</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="H12" s="2" t="n"/>
+    </row>
+    <row customFormat="1" customHeight="1" ht="33" r="13" s="12" spans="1:9">
+      <c r="A13" s="7" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>201</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="H13" s="2" t="n"/>
+    </row>
+    <row customFormat="1" customHeight="1" ht="33" r="14" s="12" spans="1:9">
+      <c r="A14" s="7" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>203</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="H14" s="2" t="n"/>
+    </row>
+    <row customFormat="1" customHeight="1" ht="33" r="15" s="12" spans="1:9">
+      <c r="A15" s="7" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>205</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="H15" s="2" t="n"/>
+    </row>
+    <row customFormat="1" customHeight="1" ht="33" r="16" s="12" spans="1:9">
+      <c r="A16" s="7" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="E16" s="12" t="s">
         <v>175</v>
       </c>
-      <c r="D2" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>176</v>
-      </c>
-      <c r="F2" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="G2" s="10" t="s">
-        <v>177</v>
-      </c>
-      <c r="H2" s="10" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="3" s="12" customFormat="1" ht="33" customHeight="1" spans="1:9">
-      <c r="A3" s="7">
-        <v>2</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>178</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>179</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>180</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="G3" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="I3" s="12" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="4" s="12" customFormat="1" ht="33" customHeight="1" spans="1:8">
-      <c r="A4" s="7">
-        <v>3</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>178</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>179</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>185</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="G4" s="10" t="s">
-        <v>187</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="5" s="12" customFormat="1" ht="33" customHeight="1" spans="1:8">
-      <c r="A5" s="7">
-        <v>4</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>178</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>179</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="12" t="s">
-        <v>189</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="G5" s="10" t="s">
-        <v>191</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="6" s="12" customFormat="1" ht="33" customHeight="1" spans="1:8">
-      <c r="A6" s="7">
-        <v>5</v>
-      </c>
-      <c r="B6" s="12" t="s">
-        <v>178</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>179</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="12" t="s">
-        <v>193</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="G6" s="10" t="s">
-        <v>195</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="7" s="12" customFormat="1" ht="33" customHeight="1" spans="1:8">
-      <c r="A7" s="7">
-        <v>6</v>
-      </c>
-      <c r="B7" s="12" t="s">
-        <v>178</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>179</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="12" t="s">
-        <v>197</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="G7" s="10" t="s">
-        <v>199</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="8" s="12" customFormat="1" ht="16.5" customHeight="1" spans="6:8">
-      <c r="F8" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="G8" s="15"/>
-      <c r="H8" s="2"/>
-    </row>
-    <row r="9" s="12" customFormat="1" ht="16.5" customHeight="1" spans="6:8">
-      <c r="F9" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="G9" s="15"/>
-      <c r="H9" s="2"/>
-    </row>
-    <row r="10" s="12" customFormat="1" ht="16.5" customHeight="1" spans="6:8">
-      <c r="F10" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="G10" s="15"/>
-      <c r="H10" s="2"/>
-    </row>
-    <row r="11" s="12" customFormat="1" ht="16.5" customHeight="1" spans="6:8">
-      <c r="F11" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="H11" s="2"/>
-    </row>
-    <row r="12" s="12" customFormat="1" ht="16.5" customHeight="1" spans="6:8">
-      <c r="F12" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="H12" s="2"/>
-    </row>
-    <row r="13" s="12" customFormat="1" ht="16.5" customHeight="1" spans="6:8">
-      <c r="F13" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="H13" s="2"/>
-    </row>
-    <row r="14" s="12" customFormat="1" ht="16.5" customHeight="1" spans="6:8">
-      <c r="F14" s="2" t="s">
+      <c r="F16" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="H14" s="2"/>
-    </row>
-    <row r="15" s="12" customFormat="1" ht="16.5" customHeight="1" spans="6:8">
-      <c r="F15" s="2" t="s">
+      <c r="H16" s="2" t="n"/>
+    </row>
+    <row customFormat="1" customHeight="1" ht="33" r="17" s="12" spans="1:9">
+      <c r="A17" s="7" t="n">
+        <v>18</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="H15" s="2"/>
-    </row>
-    <row r="16" s="12" customFormat="1" ht="33" customHeight="1" spans="6:8">
-      <c r="F16" s="2" t="s">
+      <c r="E17" s="12" t="s">
         <v>209</v>
       </c>
-      <c r="H16" s="2"/>
-    </row>
-    <row r="17" s="12" customFormat="1" ht="16.5" customHeight="1" spans="6:8">
       <c r="F17" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="H17" s="2"/>
-    </row>
-    <row r="18" s="12" customFormat="1" ht="16.5" customHeight="1" spans="6:8">
-      <c r="F18" s="2" t="s">
+      <c r="H17" s="2" t="n"/>
+    </row>
+    <row customFormat="1" customHeight="1" ht="33" r="18" s="12" spans="1:9">
+      <c r="A18" s="7" t="n">
+        <v>15</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="H18" s="2"/>
-    </row>
-    <row r="19" s="12" customFormat="1" ht="16.5" customHeight="1" spans="6:8">
-      <c r="F19" s="2" t="s">
+      <c r="E18" s="12" t="s">
         <v>212</v>
       </c>
-      <c r="H19" s="2"/>
+      <c r="F18" s="2" t="n"/>
+      <c r="H18" s="2" t="n"/>
+    </row>
+    <row customFormat="1" customHeight="1" ht="16.5" r="19" s="12" spans="1:9">
+      <c r="A19" s="7" t="n">
+        <v>16</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="E19" s="12" t="s">
+        <v>214</v>
+      </c>
+      <c r="F19" s="2" t="n"/>
+      <c r="H19" s="2" t="n"/>
+    </row>
+    <row customFormat="1" customHeight="1" ht="16.5" r="20" s="12" spans="1:9">
+      <c r="A20" s="7" t="n">
+        <v>17</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="E20" s="12" t="s">
+        <v>216</v>
+      </c>
+      <c r="F20" s="2" t="n"/>
+      <c r="H20" s="2" t="n"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="0" outlineLevelRow="1"/>
   <cols>
-    <col min="2" max="2" width="10.375" style="3" customWidth="1"/>
-    <col min="3" max="3" width="19.625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="22.375" style="3" customWidth="1"/>
-    <col min="8" max="8" width="37.375" style="3" customWidth="1"/>
-    <col min="9" max="9" width="30" style="3" customWidth="1"/>
+    <col customWidth="1" max="2" min="2" style="3" width="10.375"/>
+    <col customWidth="1" max="3" min="3" style="3" width="19.625"/>
+    <col customWidth="1" max="7" min="7" style="3" width="22.375"/>
+    <col customWidth="1" max="8" min="8" style="3" width="37.375"/>
+    <col customWidth="1" max="9" min="9" style="3" width="30"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="30" customHeight="1" spans="1:9">
+    <row customFormat="1" customHeight="1" ht="30" r="1" s="1" spans="1:9">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>172</v>
+        <v>217</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>1</v>
@@ -4507,10 +4863,10 @@
         <v>2</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>173</v>
+        <v>218</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>174</v>
+        <v>219</v>
       </c>
       <c r="G1" s="5" t="s">
         <v>4</v>
@@ -4522,12 +4878,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" s="2" customFormat="1" ht="99" customHeight="1" spans="1:9">
-      <c r="A2" s="7">
+    <row customFormat="1" customHeight="1" ht="99" r="2" s="2" spans="1:9">
+      <c r="A2" s="7" t="n">
         <v>1</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="C2" s="9" t="s">
         <v>116</v>
@@ -4536,23 +4892,22 @@
         <v>10</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="F2" s="11" t="s">
         <v>117</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>118</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/python_api_test_qianchendai/test_data/test_case.xlsx
+++ b/python_api_test_qianchendai/test_data/test_case.xlsx
@@ -552,6 +552,9 @@
     <t>{"memberId":"${memberId}","title":"${title}","amount":"200000","loanRate":"25","loanTerm":"6","loanDateType":"0","repaymemtWay":"4","biddingDays":"10"}</t>
   </si>
   <si>
+    <t>{"status":1,"code":"10001","data":null,"msg":"更新状态成功：审核通过，当前标为二审(初审中)状态"}</t>
+  </si>
+  <si>
     <t>/futureloan/mvc/api/loan/audit</t>
   </si>
   <si>
@@ -561,9 +564,6 @@
     <t>{"id":"${loan_id}","status":"2"}</t>
   </si>
   <si>
-    <t>{"status":1,"code":"10001","data":null,"msg":"更新状态成功：审核通过，当前标为二审(初审中)状态"}</t>
-  </si>
-  <si>
     <t>loan表中的表的状态改变</t>
   </si>
   <si>
@@ -576,9 +576,6 @@
     <t>{"status":0,"code":"20203","data":null,"msg":"参数错误：所有参数不能为空"}</t>
   </si>
   <si>
-    <t>{"status":0,"code":null,"data":null,"msg":"抱歉，请先登录。"}</t>
-  </si>
-  <si>
     <t>标id错误</t>
   </si>
   <si>
@@ -670,6 +667,9 @@
   </si>
   <si>
     <t>{"id":"${loan_id}","status":"8"}</t>
+  </si>
+  <si>
+    <t>{"status":0,"code":"20211","data":null,"msg":"当前接口暂未开放该状态值更新"}</t>
   </si>
   <si>
     <t>流标的标不允许修改状态</t>
@@ -787,7 +787,30 @@
       <name val="宋体"/>
       <charset val="0"/>
       <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
       <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="13"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FFFF0000"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -801,8 +824,8 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <b val="1"/>
-      <color theme="1"/>
+      <i val="1"/>
+      <color rgb="FF7F7F7F"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -811,6 +834,35 @@
       <charset val="134"/>
       <b val="1"/>
       <color theme="3"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF9C0006"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF9C6500"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FFFA7D00"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -832,54 +884,10 @@
     </font>
     <font>
       <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF9C0006"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
       <charset val="134"/>
       <b val="1"/>
       <color theme="3"/>
       <sz val="15"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFFFFFF"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF006100"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF9C6500"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="13"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FFFF0000"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -900,24 +908,16 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <color rgb="FFFA7D00"/>
+      <b val="1"/>
+      <color rgb="FFFFFFFF"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <i val="1"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF006100"/>
       <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF800080"/>
-      <sz val="11"/>
-      <u val="single"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -936,13 +936,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -954,19 +954,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -984,25 +978,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1020,7 +1008,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1032,13 +1086,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1050,73 +1110,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1158,6 +1158,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1175,11 +1186,18 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
-      </top>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1189,15 +1207,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1217,21 +1226,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1247,11 +1241,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1261,10 +1261,10 @@
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="164">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="9" fontId="9" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="8" fontId="9" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="27" fontId="23" numFmtId="0">
+    <xf applyAlignment="1" borderId="9" fillId="17" fontId="24" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="165">
@@ -1273,133 +1273,133 @@
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="166">
       <alignment vertical="center"/>
     </xf>
+    <xf applyAlignment="1" borderId="0" fillId="13" fontId="9" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="9" fontId="18" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="167">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="12" fontId="14" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="22" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="17" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="8" fillId="16" fontId="0" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="21" fontId="14" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="16" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="13" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="21" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="15" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="5" fillId="0" fontId="23" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="5" fillId="0" fontId="12" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="11" fontId="14" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="7" fillId="0" fontId="16" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="25" fontId="14" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="4" fillId="5" fontId="11" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="9" fillId="5" fontId="25" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="10" fillId="29" fontId="26" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="28" fontId="9" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="27" fontId="14" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="20" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="3" fillId="0" fontId="10" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="33" fontId="27" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="10" fontId="19" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf applyAlignment="1" borderId="0" fillId="15" fontId="9" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="10" fontId="16" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="20" fontId="14" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="167">
+    <xf applyAlignment="1" borderId="0" fillId="26" fontId="9" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="6" fontId="11" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="24" fontId="9" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="15" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="27" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="7" fillId="14" fontId="0" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="20" fontId="11" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="13" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="22" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="14" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="26" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="17" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="21" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="8" fontId="11" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="5" fillId="0" fontId="13" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="23" fontId="11" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="3" fillId="5" fontId="10" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="9" fillId="5" fontId="24" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="8" fillId="19" fontId="18" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="32" fontId="9" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="4" fontId="9" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="18" fontId="11" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="31" fontId="14" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="10" fillId="0" fontId="25" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="7" fontId="14" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="4" fillId="0" fontId="12" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="30" fontId="9" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="22" fontId="19" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="23" fontId="9" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="26" fontId="20" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="6" fontId="14" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="25" fontId="9" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="19" fontId="9" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="30" fontId="11" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="14" fontId="14" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="13" fontId="9" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="17" fontId="9" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="24" fontId="9" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="12" fontId="9" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="21" fontId="11" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="29" fontId="11" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="28" fontId="9" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="33" fontId="9" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="11" fontId="11" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="22" fontId="14" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="3" fontId="9" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="16" fontId="11" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="7" fontId="11" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="32" fontId="9" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="31" fontId="11" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="18" fontId="14" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -4375,8 +4375,8 @@
   </sheetPr>
   <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18:F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="0"/>
@@ -4437,6 +4437,12 @@
       <c r="F2" s="10" t="s">
         <v>62</v>
       </c>
+      <c r="H2" t="s">
+        <v>62</v>
+      </c>
+      <c r="I2" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="66" r="3" s="2" spans="1:9">
       <c r="A3" s="7" t="n">
@@ -4460,25 +4466,31 @@
       <c r="G3" s="2" t="s">
         <v>130</v>
       </c>
+      <c r="H3" t="s">
+        <v>173</v>
+      </c>
+      <c r="I3" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="33" r="4" s="12" spans="1:9">
       <c r="A4" s="7" t="n">
         <v>2</v>
       </c>
       <c r="B4" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>173</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>175</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>176</v>
       </c>
       <c r="G4" s="12" t="s">
         <v>177</v>
@@ -4490,7 +4502,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>10</v>
@@ -4505,7 +4517,10 @@
         <v>180</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
+      </c>
+      <c r="I5" t="s">
+        <v>20</v>
       </c>
     </row>
     <row customFormat="1" customHeight="1" ht="33" r="6" s="12" spans="1:9">
@@ -4513,22 +4528,25 @@
         <v>4</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>10</v>
       </c>
       <c r="D6" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="E6" s="10" t="s">
         <v>182</v>
       </c>
-      <c r="E6" s="10" t="s">
+      <c r="F6" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="F6" s="2" t="s">
-        <v>184</v>
-      </c>
       <c r="H6" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
+      </c>
+      <c r="I6" t="s">
+        <v>20</v>
       </c>
     </row>
     <row customFormat="1" customHeight="1" ht="33" r="7" s="12" spans="1:9">
@@ -4536,22 +4554,25 @@
         <v>5</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C7" s="8" t="s">
         <v>10</v>
       </c>
       <c r="D7" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="E7" s="10" t="s">
         <v>185</v>
       </c>
-      <c r="E7" s="10" t="s">
+      <c r="F7" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="F7" s="2" t="s">
-        <v>187</v>
-      </c>
       <c r="H7" s="2" t="s">
-        <v>181</v>
+        <v>186</v>
+      </c>
+      <c r="I7" t="s">
+        <v>20</v>
       </c>
     </row>
     <row customFormat="1" customHeight="1" ht="33" r="8" s="12" spans="1:9">
@@ -4559,22 +4580,25 @@
         <v>6</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C8" s="8" t="s">
         <v>10</v>
       </c>
       <c r="D8" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="E8" s="10" t="s">
         <v>188</v>
       </c>
-      <c r="E8" s="10" t="s">
+      <c r="F8" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="F8" s="2" t="s">
-        <v>190</v>
-      </c>
       <c r="H8" s="2" t="s">
-        <v>181</v>
+        <v>189</v>
+      </c>
+      <c r="I8" t="s">
+        <v>20</v>
       </c>
     </row>
     <row customFormat="1" customHeight="1" ht="33" r="9" s="12" spans="1:9">
@@ -4582,215 +4606,267 @@
         <v>7</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C9" s="8" t="s">
         <v>10</v>
       </c>
       <c r="D9" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="E9" s="15" t="s">
         <v>191</v>
-      </c>
-      <c r="E9" s="15" t="s">
-        <v>192</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="H9" s="2" t="n"/>
+      <c r="H9" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="I9" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="33" r="10" s="12" spans="1:9">
       <c r="A10" s="7" t="n">
         <v>8</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C10" s="8" t="s">
         <v>10</v>
       </c>
       <c r="D10" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="E10" s="15" t="s">
         <v>193</v>
       </c>
-      <c r="E10" s="15" t="s">
-        <v>194</v>
-      </c>
       <c r="F10" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="H10" s="2" t="n"/>
+        <v>189</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="I10" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="33" r="11" s="12" spans="1:9">
       <c r="A11" s="7" t="n">
         <v>9</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C11" s="8" t="s">
         <v>10</v>
       </c>
       <c r="D11" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="E11" s="15" t="s">
         <v>195</v>
       </c>
-      <c r="E11" s="15" t="s">
-        <v>196</v>
-      </c>
       <c r="F11" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="H11" s="2" t="n"/>
+        <v>189</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="I11" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="33" r="12" s="12" spans="1:9">
       <c r="A12" s="7" t="n">
         <v>10</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C12" s="8" t="s">
         <v>10</v>
       </c>
       <c r="D12" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="E12" s="12" t="s">
         <v>197</v>
       </c>
-      <c r="E12" s="12" t="s">
+      <c r="F12" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="F12" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="H12" s="2" t="n"/>
+      <c r="H12" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="I12" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="33" r="13" s="12" spans="1:9">
       <c r="A13" s="7" t="n">
         <v>11</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C13" s="8" t="s">
         <v>10</v>
       </c>
       <c r="D13" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="E13" s="12" t="s">
         <v>200</v>
       </c>
-      <c r="E13" s="12" t="s">
-        <v>201</v>
-      </c>
       <c r="F13" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="H13" s="2" t="n"/>
+        <v>198</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="I13" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="33" r="14" s="12" spans="1:9">
       <c r="A14" s="7" t="n">
         <v>12</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C14" s="8" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="E14" s="12" t="s">
         <v>202</v>
       </c>
-      <c r="E14" s="12" t="s">
-        <v>203</v>
-      </c>
       <c r="F14" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="H14" s="2" t="n"/>
+        <v>198</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="I14" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="33" r="15" s="12" spans="1:9">
       <c r="A15" s="7" t="n">
         <v>13</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C15" s="8" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="E15" s="12" t="s">
         <v>204</v>
       </c>
-      <c r="E15" s="12" t="s">
-        <v>205</v>
-      </c>
       <c r="F15" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="H15" s="2" t="n"/>
+        <v>189</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="I15" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="33" r="16" s="12" spans="1:9">
       <c r="A16" s="7" t="n">
         <v>14</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C16" s="8" t="s">
         <v>10</v>
       </c>
       <c r="D16" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="F16" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="E16" s="12" t="s">
-        <v>175</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="H16" s="2" t="n"/>
+      <c r="H16" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="I16" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="33" r="17" s="12" spans="1:9">
       <c r="A17" s="7" t="n">
         <v>18</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C17" s="8" t="s">
         <v>10</v>
       </c>
       <c r="D17" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="E17" s="12" t="s">
         <v>208</v>
       </c>
-      <c r="E17" s="12" t="s">
+      <c r="F17" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="F17" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="H17" s="2" t="n"/>
+      <c r="H17" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="I17" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="33" r="18" s="12" spans="1:9">
       <c r="A18" s="7" t="n">
         <v>15</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C18" s="8" t="s">
         <v>10</v>
       </c>
       <c r="D18" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="E18" s="12" t="s">
         <v>211</v>
       </c>
-      <c r="E18" s="12" t="s">
+      <c r="F18" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="F18" s="2" t="n"/>
-      <c r="H18" s="2" t="n"/>
+      <c r="H18" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="I18" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="16.5" r="19" s="12" spans="1:9">
       <c r="A19" s="7" t="n">
         <v>16</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C19" s="8" t="s">
         <v>10</v>
@@ -4801,15 +4877,22 @@
       <c r="E19" s="12" t="s">
         <v>214</v>
       </c>
-      <c r="F19" s="2" t="n"/>
-      <c r="H19" s="2" t="n"/>
+      <c r="F19" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="I19" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="16.5" r="20" s="12" spans="1:9">
       <c r="A20" s="7" t="n">
         <v>17</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C20" s="8" t="s">
         <v>10</v>
@@ -4820,8 +4903,15 @@
       <c r="E20" s="12" t="s">
         <v>216</v>
       </c>
-      <c r="F20" s="2" t="n"/>
-      <c r="H20" s="2" t="n"/>
+      <c r="F20" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="I20" t="s">
+        <v>20</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/python_api_test_qianchendai/test_data/test_case.xlsx
+++ b/python_api_test_qianchendai/test_data/test_case.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="6" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12540" windowWidth="28125"/>
+    <workbookView activeTab="7" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12540" windowWidth="28125"/>
   </bookViews>
   <sheets>
     <sheet name="register" sheetId="1" state="visible" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="227">
   <si>
     <t>case_id</t>
   </si>
@@ -684,25 +684,34 @@
     <t>{"id":"${loan_id}","status":"10"}</t>
   </si>
   <si>
-    <t>接口功能</t>
-  </si>
-  <si>
-    <t>api_name</t>
-  </si>
-  <si>
-    <t>用例说明</t>
-  </si>
-  <si>
-    <t>取现</t>
-  </si>
-  <si>
-    <t>withdraw_success</t>
-  </si>
-  <si>
-    <t>{"mobilephone":"13201231230","amount":"100"}</t>
-  </si>
-  <si>
-    <t>{"status":1,"code":"10001","data":{"id":102109,"regname":"小蜜蜂","pwd":"E10ADC3949BA59ABBE56E057F20F883E","mobilephone":"13201231230","leaveamount":"1000.00","type":"1","regtime":"2019-07-17 15:54:46.0"},"msg":"取现成功"}</t>
+    <t>{"mobilephone":"${admin_name}","pwd":"${admin_pwd}"}</t>
+  </si>
+  <si>
+    <t>{"memberId":"${borrower_memberid}","title":"${title}","amount":"200000","loanRate":"18","loanTerm":"6","loanDateType":"0","repaymemtWay":"4","biddingDays":"10"}</t>
+  </si>
+  <si>
+    <t>{"id":"${loan_id}","status":"3"}</t>
+  </si>
+  <si>
+    <t>{"status":1,"code":"10001","data":null,"msg":"更新状态成功：审核通过，当前标为三审(复审中)状态"}</t>
+  </si>
+  <si>
+    <t>{"id":"${loan_id}","status":"4"}</t>
+  </si>
+  <si>
+    <t>{"status":1,"code":"10001","data":null,"msg":"更新状态成功：竞标开始，当前标为竞标中状态"}</t>
+  </si>
+  <si>
+    <t>/futureloan/mvc/api/member/bidLoan</t>
+  </si>
+  <si>
+    <t>投资成功</t>
+  </si>
+  <si>
+    <t>{"memberId":"${memberId}","password":"${pwd}","loanId":"${loan_id}","amount":"1000"}</t>
+  </si>
+  <si>
+    <t>{"status":1,"code":"10001","data":null,"msg":"竞标成功"}</t>
   </si>
 </sst>
 </file>
@@ -779,6 +788,7 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
+      <b val="1"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
@@ -787,7 +797,7 @@
       <name val="宋体"/>
       <charset val="0"/>
       <b val="1"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -801,10 +811,25 @@
     </font>
     <font>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <b val="1"/>
-      <color theme="3"/>
-      <sz val="13"/>
+      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -824,8 +849,21 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <i val="1"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C6500"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF9C0006"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -839,6 +877,14 @@
     </font>
     <font>
       <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="15"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
       <charset val="0"/>
       <color rgb="FF800080"/>
       <sz val="11"/>
@@ -847,16 +893,10 @@
     </font>
     <font>
       <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF9C0006"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF9C6500"/>
-      <sz val="11"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="13"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -868,18 +908,10 @@
     </font>
     <font>
       <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="18"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
       <charset val="0"/>
-      <color rgb="FF0000FF"/>
+      <i val="1"/>
+      <color rgb="FF7F7F7F"/>
       <sz val="11"/>
-      <u val="single"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -887,30 +919,7 @@
       <charset val="134"/>
       <b val="1"/>
       <color theme="3"/>
-      <sz val="15"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF3F3F76"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFFFFFF"/>
-      <sz val="11"/>
+      <sz val="18"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -936,13 +945,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -954,13 +957,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -978,7 +1011,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -990,19 +1065,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1014,49 +1095,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1068,55 +1119,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1170,48 +1179,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -1241,6 +1208,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1255,16 +1237,43 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="164">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="8" fontId="9" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="12" fontId="18" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="17" fontId="24" numFmtId="0">
+    <xf applyAlignment="1" borderId="5" fillId="6" fontId="14" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="165">
@@ -1273,137 +1282,137 @@
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="166">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="13" fontId="9" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf applyAlignment="1" borderId="0" fillId="9" fontId="18" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf applyAlignment="1" borderId="0" fillId="13" fontId="19" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="167">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="12" fontId="14" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="16" fontId="16" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="13" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="22" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0">
+    <xf applyAlignment="1" borderId="4" fillId="3" fontId="0" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="17" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="19" fontId="16" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="16" fontId="0" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="21" fontId="14" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="16" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="13" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="21" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="20" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="15" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="5" fillId="0" fontId="23" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="26" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="5" fillId="0" fontId="12" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="25" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="11" fontId="14" numFmtId="0">
+    <xf applyAlignment="1" borderId="9" fillId="0" fontId="21" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="7" fillId="0" fontId="16" numFmtId="0">
+    <xf applyAlignment="1" borderId="9" fillId="0" fontId="23" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="25" fontId="14" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="22" fontId="16" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="4" fillId="5" fontId="11" numFmtId="0">
+    <xf applyAlignment="1" borderId="8" fillId="0" fontId="20" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="5" fontId="25" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="25" fontId="16" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="10" fillId="29" fontId="26" numFmtId="0">
+    <xf applyAlignment="1" borderId="6" fillId="4" fontId="11" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="28" fontId="9" numFmtId="0">
+    <xf applyAlignment="1" borderId="5" fillId="4" fontId="10" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="27" fontId="14" numFmtId="0">
+    <xf applyAlignment="1" borderId="7" fillId="5" fontId="12" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="20" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="28" fontId="18" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="3" fillId="0" fontId="10" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="24" fontId="16" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="33" fontId="27" numFmtId="0">
+    <xf applyAlignment="1" borderId="10" fillId="0" fontId="24" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="10" fontId="19" numFmtId="0">
+    <xf applyAlignment="1" borderId="3" fillId="0" fontId="9" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="15" fontId="9" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="29" fontId="27" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="20" fontId="14" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="8" fontId="17" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="26" fontId="9" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="27" fontId="18" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="24" fontId="9" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="15" fontId="16" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="32" fontId="9" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="32" fontId="18" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="4" fontId="9" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="31" fontId="18" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="31" fontId="14" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="21" fontId="18" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="7" fontId="14" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="11" fontId="18" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="30" fontId="9" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="10" fontId="16" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="23" fontId="9" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="18" fontId="16" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="6" fontId="14" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="14" fontId="18" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="19" fontId="9" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="17" fontId="18" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="14" fontId="14" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="23" fontId="16" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="22" fontId="14" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="20" fontId="18" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="3" fontId="9" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="7" fontId="16" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="18" fontId="14" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="26" fontId="16" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf applyAlignment="1" borderId="0" fillId="30" fontId="18" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="33" fontId="16" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="44">
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1413,7 +1422,13 @@
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf applyAlignment="1" borderId="0" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1427,19 +1442,16 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf applyAlignment="1" borderId="1" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center" wrapText="1"/>
+    <xf applyAlignment="1" borderId="2" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf applyAlignment="1" borderId="1" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="2" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
@@ -1883,517 +1895,517 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="0"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="29" width="13.6083333333333"/>
-    <col customWidth="1" max="2" min="2" style="30" width="39.0333333333333"/>
-    <col customWidth="1" max="3" min="3" style="30" width="10.5583333333333"/>
-    <col customWidth="1" max="4" min="4" style="31" width="21.9416666666667"/>
-    <col customWidth="1" max="5" min="5" style="30" width="80.8333333333333"/>
-    <col customWidth="1" max="6" min="6" style="32" width="61.3916666666667"/>
-    <col customWidth="1" max="7" min="7" style="33" width="43.4666666666667"/>
-    <col customWidth="1" max="8" min="8" style="33" width="72.2166666666667"/>
-    <col customWidth="1" max="16384" min="9" style="33" width="9"/>
+    <col customWidth="1" max="1" min="1" style="30" width="13.6083333333333"/>
+    <col customWidth="1" max="2" min="2" style="31" width="39.0333333333333"/>
+    <col customWidth="1" max="3" min="3" style="31" width="10.5583333333333"/>
+    <col customWidth="1" max="4" min="4" style="32" width="21.9416666666667"/>
+    <col customWidth="1" max="5" min="5" style="31" width="80.8333333333333"/>
+    <col customWidth="1" max="6" min="6" style="33" width="61.3916666666667"/>
+    <col customWidth="1" max="7" min="7" style="34" width="43.4666666666667"/>
+    <col customWidth="1" max="8" min="8" style="34" width="72.2166666666667"/>
+    <col customWidth="1" max="16384" min="9" style="34" width="9"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="18" r="1" s="27" spans="1:9">
-      <c r="A1" s="34" t="s">
+    <row customFormat="1" customHeight="1" ht="18" r="1" s="28" spans="1:9">
+      <c r="A1" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="35" t="s">
+      <c r="C1" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="35" t="s">
+      <c r="D1" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="35" t="s">
+      <c r="E1" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="36" t="s">
+      <c r="F1" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="27" t="s">
+      <c r="G1" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="27" t="s">
+      <c r="H1" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="27" t="s">
+      <c r="I1" s="28" t="s">
         <v>8</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="103.5" r="2" s="28" spans="1:9">
-      <c r="A2" s="37" t="n">
+    <row customFormat="1" customHeight="1" ht="103.5" r="2" s="29" spans="1:9">
+      <c r="A2" s="38" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="39" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="40" t="s">
+      <c r="C2" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="41" t="s">
+      <c r="E2" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="41" t="s">
+      <c r="F2" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="28" t="s">
+      <c r="G2" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="13" t="s">
+      <c r="H2" s="14" t="s">
         <v>15</v>
       </c>
       <c r="I2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="103.5" r="3" s="28" spans="1:9">
-      <c r="A3" s="37" t="n">
+    <row customFormat="1" customHeight="1" ht="103.5" r="3" s="29" spans="1:9">
+      <c r="A3" s="38" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="38" t="s">
+      <c r="B3" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="39" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="40" t="s">
+      <c r="C3" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="41" t="s">
+      <c r="E3" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="41" t="s">
+      <c r="F3" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="28" t="s">
+      <c r="G3" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="13" t="s">
+      <c r="H3" s="14" t="s">
         <v>13</v>
       </c>
       <c r="I3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="17.25" r="4" s="28" spans="1:9">
-      <c r="A4" s="37" t="n">
+    <row customFormat="1" customHeight="1" ht="17.25" r="4" s="29" spans="1:9">
+      <c r="A4" s="38" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="38" t="s">
+      <c r="B4" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="39" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="40" t="s">
+      <c r="C4" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="41" t="s">
+      <c r="E4" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="41" t="s">
+      <c r="F4" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="G4" s="28" t="s">
+      <c r="G4" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="H4" s="13" t="s">
+      <c r="H4" s="14" t="s">
         <v>23</v>
       </c>
       <c r="I4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row customHeight="1" ht="17.25" r="5" s="3" spans="1:9">
-      <c r="A5" s="37" t="n">
+    <row customHeight="1" ht="17.25" r="5" s="4" spans="1:9">
+      <c r="A5" s="38" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="38" t="s">
+      <c r="B5" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="39" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="42" t="s">
+      <c r="C5" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="E5" s="41" t="s">
+      <c r="E5" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="F5" s="41" t="s">
+      <c r="F5" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="H5" s="13" t="s">
+      <c r="H5" s="14" t="s">
         <v>15</v>
       </c>
       <c r="I5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row customHeight="1" ht="34.5" r="6" s="3" spans="1:9">
-      <c r="A6" s="37" t="n">
+    <row customHeight="1" ht="34.5" r="6" s="4" spans="1:9">
+      <c r="A6" s="38" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="38" t="s">
+      <c r="B6" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="39" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="42" t="s">
+      <c r="C6" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="E6" s="41" t="s">
+      <c r="E6" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="F6" s="41" t="s">
+      <c r="F6" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="H6" s="13" t="s">
+      <c r="H6" s="14" t="s">
         <v>29</v>
       </c>
       <c r="I6" t="s">
         <v>20</v>
       </c>
     </row>
-    <row customHeight="1" ht="34.5" r="7" s="3" spans="1:9">
-      <c r="A7" s="37" t="n">
+    <row customHeight="1" ht="34.5" r="7" s="4" spans="1:9">
+      <c r="A7" s="38" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="38" t="s">
+      <c r="B7" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="39" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="42" t="s">
+      <c r="C7" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="E7" s="41" t="s">
+      <c r="E7" s="42" t="s">
         <v>31</v>
       </c>
-      <c r="F7" s="41" t="s">
+      <c r="F7" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="H7" s="13" t="s">
+      <c r="H7" s="14" t="s">
         <v>29</v>
       </c>
       <c r="I7" t="s">
         <v>20</v>
       </c>
     </row>
-    <row customHeight="1" ht="34.5" r="8" s="3" spans="1:9">
-      <c r="A8" s="37" t="n">
+    <row customHeight="1" ht="34.5" r="8" s="4" spans="1:9">
+      <c r="A8" s="38" t="n">
         <v>7</v>
       </c>
-      <c r="B8" s="38" t="s">
+      <c r="B8" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="39" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="42" t="s">
+      <c r="C8" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="E8" s="41" t="s">
+      <c r="E8" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="F8" s="41" t="s">
+      <c r="F8" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="H8" s="13" t="s">
+      <c r="H8" s="14" t="s">
         <v>29</v>
       </c>
       <c r="I8" t="s">
         <v>20</v>
       </c>
     </row>
-    <row customHeight="1" ht="17.25" r="9" s="3" spans="1:9">
-      <c r="A9" s="37" t="n">
+    <row customHeight="1" ht="17.25" r="9" s="4" spans="1:9">
+      <c r="A9" s="38" t="n">
         <v>8</v>
       </c>
-      <c r="B9" s="38" t="s">
+      <c r="B9" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="39" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" s="42" t="s">
+      <c r="C9" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="E9" s="41" t="s">
+      <c r="E9" s="42" t="s">
         <v>35</v>
       </c>
-      <c r="F9" s="41" t="s">
+      <c r="F9" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="H9" s="13" t="s">
+      <c r="H9" s="14" t="s">
         <v>29</v>
       </c>
       <c r="I9" t="s">
         <v>20</v>
       </c>
     </row>
-    <row customHeight="1" ht="34.5" r="10" s="3" spans="1:9">
-      <c r="A10" s="37" t="n">
+    <row customHeight="1" ht="34.5" r="10" s="4" spans="1:9">
+      <c r="A10" s="38" t="n">
         <v>9</v>
       </c>
-      <c r="B10" s="38" t="s">
+      <c r="B10" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="39" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" s="42" t="s">
+      <c r="C10" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="E10" s="41" t="s">
+      <c r="E10" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="F10" s="41" t="s">
+      <c r="F10" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="H10" s="13" t="s">
+      <c r="H10" s="14" t="s">
         <v>29</v>
       </c>
       <c r="I10" t="s">
         <v>20</v>
       </c>
     </row>
-    <row customHeight="1" ht="17.25" r="11" s="3" spans="1:9">
-      <c r="A11" s="37" t="n">
-        <v>10</v>
-      </c>
-      <c r="B11" s="38" t="s">
+    <row customHeight="1" ht="17.25" r="11" s="4" spans="1:9">
+      <c r="A11" s="38" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="39" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11" s="42" t="s">
+      <c r="C11" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="E11" s="41" t="s">
+      <c r="E11" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="F11" s="41" t="s">
+      <c r="F11" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="H11" s="13" t="s">
+      <c r="H11" s="14" t="s">
         <v>29</v>
       </c>
       <c r="I11" t="s">
         <v>20</v>
       </c>
     </row>
-    <row customHeight="1" ht="34.5" r="12" s="3" spans="1:9">
-      <c r="A12" s="37" t="n">
+    <row customHeight="1" ht="34.5" r="12" s="4" spans="1:9">
+      <c r="A12" s="38" t="n">
         <v>11</v>
       </c>
-      <c r="B12" s="38" t="s">
+      <c r="B12" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="39" t="s">
-        <v>10</v>
-      </c>
-      <c r="D12" s="42" t="s">
+      <c r="C12" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="43" t="s">
         <v>40</v>
       </c>
-      <c r="E12" s="41" t="s">
+      <c r="E12" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="F12" s="41" t="s">
+      <c r="F12" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="H12" s="13" t="s">
+      <c r="H12" s="14" t="s">
         <v>29</v>
       </c>
       <c r="I12" t="s">
         <v>20</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="17.25" r="13" s="28" spans="1:9">
-      <c r="A13" s="37" t="n">
+    <row customFormat="1" customHeight="1" ht="17.25" r="13" s="29" spans="1:9">
+      <c r="A13" s="38" t="n">
         <v>12</v>
       </c>
-      <c r="B13" s="38" t="s">
+      <c r="B13" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="39" t="s">
-        <v>10</v>
-      </c>
-      <c r="D13" s="39" t="s">
+      <c r="C13" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="40" t="s">
         <v>42</v>
       </c>
-      <c r="E13" s="41" t="s">
+      <c r="E13" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="F13" s="41" t="s">
+      <c r="F13" s="42" t="s">
         <v>44</v>
       </c>
-      <c r="H13" s="13" t="s">
+      <c r="H13" s="14" t="s">
         <v>44</v>
       </c>
       <c r="I13" t="s">
         <v>20</v>
       </c>
     </row>
-    <row customHeight="1" ht="34.5" r="14" s="3" spans="1:9">
-      <c r="A14" s="37" t="n">
+    <row customHeight="1" ht="34.5" r="14" s="4" spans="1:9">
+      <c r="A14" s="38" t="n">
         <v>13</v>
       </c>
-      <c r="B14" s="38" t="s">
+      <c r="B14" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="39" t="s">
-        <v>10</v>
-      </c>
-      <c r="D14" s="39" t="s">
+      <c r="C14" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="40" t="s">
         <v>45</v>
       </c>
-      <c r="E14" s="41" t="s">
+      <c r="E14" s="42" t="s">
         <v>46</v>
       </c>
-      <c r="F14" s="41" t="s">
+      <c r="F14" s="42" t="s">
         <v>47</v>
       </c>
-      <c r="H14" s="13" t="s">
+      <c r="H14" s="14" t="s">
         <v>47</v>
       </c>
       <c r="I14" t="s">
         <v>20</v>
       </c>
     </row>
-    <row customHeight="1" ht="34.5" r="15" s="3" spans="1:9">
-      <c r="A15" s="37" t="n">
+    <row customHeight="1" ht="34.5" r="15" s="4" spans="1:9">
+      <c r="A15" s="38" t="n">
         <v>14</v>
       </c>
-      <c r="B15" s="38" t="s">
+      <c r="B15" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="39" t="s">
-        <v>10</v>
-      </c>
-      <c r="D15" s="39" t="s">
+      <c r="C15" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="40" t="s">
         <v>48</v>
       </c>
-      <c r="E15" s="41" t="s">
+      <c r="E15" s="42" t="s">
         <v>49</v>
       </c>
-      <c r="F15" s="41" t="s">
+      <c r="F15" s="42" t="s">
         <v>47</v>
       </c>
-      <c r="H15" s="13" t="s">
+      <c r="H15" s="14" t="s">
         <v>47</v>
       </c>
       <c r="I15" t="s">
         <v>20</v>
       </c>
     </row>
-    <row customHeight="1" ht="17.25" r="16" s="3" spans="1:9">
-      <c r="A16" s="37" t="n">
+    <row customHeight="1" ht="17.25" r="16" s="4" spans="1:9">
+      <c r="A16" s="38" t="n">
         <v>15</v>
       </c>
-      <c r="B16" s="38" t="s">
+      <c r="B16" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="39" t="s">
-        <v>10</v>
-      </c>
-      <c r="D16" s="39" t="s">
+      <c r="C16" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" s="40" t="s">
         <v>50</v>
       </c>
-      <c r="E16" s="41" t="s">
+      <c r="E16" s="42" t="s">
         <v>51</v>
       </c>
-      <c r="F16" s="41" t="s">
+      <c r="F16" s="42" t="s">
         <v>52</v>
       </c>
-      <c r="H16" s="13" t="s">
+      <c r="H16" s="14" t="s">
         <v>13</v>
       </c>
       <c r="I16" t="s">
         <v>16</v>
       </c>
     </row>
-    <row customHeight="1" ht="17.25" r="17" s="3" spans="1:9">
-      <c r="A17" s="37" t="n">
+    <row customHeight="1" ht="17.25" r="17" s="4" spans="1:9">
+      <c r="A17" s="38" t="n">
         <v>16</v>
       </c>
-      <c r="B17" s="38" t="s">
+      <c r="B17" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="39" t="s">
-        <v>10</v>
-      </c>
-      <c r="D17" s="39" t="s">
+      <c r="C17" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" s="40" t="s">
         <v>53</v>
       </c>
-      <c r="E17" s="41" t="s">
+      <c r="E17" s="42" t="s">
         <v>54</v>
       </c>
-      <c r="F17" s="41" t="s">
+      <c r="F17" s="42" t="s">
         <v>52</v>
       </c>
-      <c r="H17" s="13" t="s">
+      <c r="H17" s="14" t="s">
         <v>13</v>
       </c>
       <c r="I17" t="s">
         <v>16</v>
       </c>
     </row>
-    <row customHeight="1" ht="17.25" r="18" s="3" spans="1:9">
-      <c r="A18" s="37" t="n">
+    <row customHeight="1" ht="17.25" r="18" s="4" spans="1:9">
+      <c r="A18" s="38" t="n">
         <v>17</v>
       </c>
-      <c r="B18" s="38" t="s">
+      <c r="B18" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="C18" s="39" t="s">
-        <v>10</v>
-      </c>
-      <c r="D18" s="39" t="s">
+      <c r="C18" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" s="40" t="s">
         <v>55</v>
       </c>
-      <c r="E18" s="41" t="s">
+      <c r="E18" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="F18" s="41" t="s">
+      <c r="F18" s="42" t="s">
         <v>52</v>
       </c>
-      <c r="H18" s="13" t="s">
+      <c r="H18" s="14" t="s">
         <v>13</v>
       </c>
       <c r="I18" t="s">
         <v>16</v>
       </c>
     </row>
-    <row customHeight="1" ht="17.25" r="19" s="3" spans="1:9">
-      <c r="A19" s="37" t="n">
+    <row customHeight="1" ht="17.25" r="19" s="4" spans="1:9">
+      <c r="A19" s="38" t="n">
         <v>18</v>
       </c>
-      <c r="B19" s="38" t="s">
+      <c r="B19" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="39" t="s">
-        <v>10</v>
-      </c>
-      <c r="D19" s="39" t="s">
+      <c r="C19" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" s="40" t="s">
         <v>57</v>
       </c>
-      <c r="E19" s="41" t="s">
+      <c r="E19" s="42" t="s">
         <v>58</v>
       </c>
-      <c r="F19" s="41" t="s">
+      <c r="F19" s="42" t="s">
         <v>52</v>
       </c>
-      <c r="H19" s="13" t="s">
+      <c r="H19" s="14" t="s">
         <v>13</v>
       </c>
       <c r="I19" t="s">
@@ -2428,33 +2440,33 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="11" defaultRowHeight="16.5" outlineLevelCol="0"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="23" width="11"/>
-    <col customWidth="1" max="2" min="2" style="23" width="36.875"/>
-    <col customWidth="1" max="3" min="3" style="23" width="11"/>
-    <col customWidth="1" max="4" min="4" style="23" width="18.75"/>
-    <col customWidth="1" max="5" min="5" style="23" width="61.875"/>
-    <col customWidth="1" max="6" min="6" style="23" width="71.375"/>
-    <col customWidth="1" max="7" min="7" style="23" width="38.75"/>
-    <col customWidth="1" max="16384" min="8" style="23" width="11"/>
+    <col customWidth="1" max="1" min="1" style="24" width="11"/>
+    <col customWidth="1" max="2" min="2" style="24" width="36.875"/>
+    <col customWidth="1" max="3" min="3" style="24" width="11"/>
+    <col customWidth="1" max="4" min="4" style="24" width="18.75"/>
+    <col customWidth="1" max="5" min="5" style="24" width="61.875"/>
+    <col customWidth="1" max="6" min="6" style="24" width="71.375"/>
+    <col customWidth="1" max="7" min="7" style="24" width="38.75"/>
+    <col customWidth="1" max="16384" min="8" style="24" width="11"/>
   </cols>
   <sheetData>
     <row customFormat="1" customHeight="1" ht="15" r="1" s="1" spans="1:7">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="8" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
@@ -2462,326 +2474,326 @@
       </c>
     </row>
     <row customFormat="1" r="2" s="2" spans="1:7">
-      <c r="A2" s="7" t="n">
+      <c r="A2" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="C2" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="24" t="s">
+      <c r="C2" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="13" t="s">
         <v>62</v>
       </c>
     </row>
     <row customFormat="1" r="3" s="2" spans="1:7">
-      <c r="A3" s="7" t="n">
+      <c r="A3" s="9" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="C3" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="12" t="s">
+      <c r="C3" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="F3" s="15" t="s">
+      <c r="F3" s="16" t="s">
         <v>65</v>
       </c>
     </row>
-    <row customFormat="1" r="4" s="12" spans="1:7">
-      <c r="A4" s="7" t="n">
+    <row customFormat="1" r="4" s="3" spans="1:7">
+      <c r="A4" s="9" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="C4" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="12" t="s">
+      <c r="C4" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="F4" s="12" t="s">
+      <c r="F4" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row customFormat="1" r="5" s="12" spans="1:7">
-      <c r="A5" s="7" t="n">
+    <row customFormat="1" r="5" s="3" spans="1:7">
+      <c r="A5" s="9" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="C5" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="25" t="s">
+      <c r="C5" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="E5" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="F5" s="12" t="s">
+      <c r="F5" s="3" t="s">
         <v>65</v>
       </c>
     </row>
-    <row customFormat="1" r="6" s="12" spans="1:7">
-      <c r="A6" s="7" t="n">
+    <row customFormat="1" r="6" s="3" spans="1:7">
+      <c r="A6" s="9" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="C6" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="25" t="s">
+      <c r="C6" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="E6" s="10" t="s">
+      <c r="E6" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="F6" s="15" t="s">
+      <c r="F6" s="16" t="s">
         <v>65</v>
       </c>
     </row>
-    <row customFormat="1" r="7" s="12" spans="1:7">
-      <c r="A7" s="7" t="n">
+    <row customFormat="1" r="7" s="3" spans="1:7">
+      <c r="A7" s="9" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="C7" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="25" t="s">
+      <c r="C7" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="E7" s="10" t="s">
+      <c r="E7" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="F7" s="15" t="s">
+      <c r="F7" s="16" t="s">
         <v>65</v>
       </c>
     </row>
-    <row customFormat="1" r="8" s="12" spans="1:7">
-      <c r="A8" s="7" t="n">
+    <row customFormat="1" r="8" s="3" spans="1:7">
+      <c r="A8" s="9" t="n">
         <v>7</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="C8" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="25" t="s">
+      <c r="C8" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="E8" s="10" t="s">
+      <c r="E8" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="F8" s="15" t="s">
+      <c r="F8" s="16" t="s">
         <v>65</v>
       </c>
     </row>
-    <row customFormat="1" r="9" s="12" spans="1:7">
-      <c r="A9" s="7" t="n">
+    <row customFormat="1" r="9" s="3" spans="1:7">
+      <c r="A9" s="9" t="n">
         <v>8</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="C9" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" s="25" t="s">
+      <c r="C9" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="10" t="s">
+      <c r="E9" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="F9" s="15" t="s">
+      <c r="F9" s="16" t="s">
         <v>65</v>
       </c>
     </row>
-    <row customFormat="1" r="10" s="12" spans="1:7">
-      <c r="A10" s="7" t="n">
+    <row customFormat="1" r="10" s="3" spans="1:7">
+      <c r="A10" s="9" t="n">
         <v>9</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="C10" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" s="25" t="s">
+      <c r="C10" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="E10" s="10" t="s">
+      <c r="E10" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="F10" s="15" t="s">
+      <c r="F10" s="16" t="s">
         <v>65</v>
       </c>
     </row>
-    <row customFormat="1" r="11" s="12" spans="1:7">
-      <c r="A11" s="7" t="n">
-        <v>10</v>
-      </c>
-      <c r="B11" s="9" t="s">
+    <row customFormat="1" r="11" s="3" spans="1:7">
+      <c r="A11" s="9" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="C11" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11" s="8" t="s">
+      <c r="C11" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="E11" s="10" t="s">
+      <c r="E11" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="F11" s="12" t="s">
+      <c r="F11" s="3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row customFormat="1" r="12" s="12" spans="1:7">
-      <c r="A12" s="7" t="n">
+    <row customFormat="1" r="12" s="3" spans="1:7">
+      <c r="A12" s="9" t="n">
         <v>11</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="C12" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D12" s="8" t="s">
+      <c r="C12" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="E12" s="10" t="s">
+      <c r="E12" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="F12" s="26" t="s">
+      <c r="F12" s="27" t="s">
         <v>65</v>
       </c>
     </row>
-    <row customFormat="1" r="13" s="12" spans="1:7">
-      <c r="A13" s="7" t="n">
+    <row customFormat="1" r="13" s="3" spans="1:7">
+      <c r="A13" s="9" t="n">
         <v>12</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="C13" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D13" s="8" t="s">
+      <c r="C13" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="E13" s="10" t="s">
+      <c r="E13" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="F13" s="26" t="s">
+      <c r="F13" s="27" t="s">
         <v>65</v>
       </c>
     </row>
-    <row customFormat="1" r="14" s="12" spans="1:7">
-      <c r="A14" s="7" t="n">
+    <row customFormat="1" r="14" s="3" spans="1:7">
+      <c r="A14" s="9" t="n">
         <v>13</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="C14" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D14" s="8" t="s">
+      <c r="C14" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="E14" s="10" t="s">
+      <c r="E14" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="F14" s="26" t="s">
+      <c r="F14" s="27" t="s">
         <v>65</v>
       </c>
     </row>
-    <row customFormat="1" r="15" s="12" spans="1:7">
-      <c r="A15" s="7" t="n">
+    <row customFormat="1" r="15" s="3" spans="1:7">
+      <c r="A15" s="9" t="n">
         <v>14</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="C15" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D15" s="8" t="s">
+      <c r="C15" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="E15" s="10" t="s">
+      <c r="E15" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="F15" s="26" t="s">
+      <c r="F15" s="27" t="s">
         <v>65</v>
       </c>
     </row>
-    <row customFormat="1" r="16" s="12" spans="1:7">
-      <c r="A16" s="7" t="n">
+    <row customFormat="1" r="16" s="3" spans="1:7">
+      <c r="A16" s="9" t="n">
         <v>15</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="C16" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D16" s="8" t="s">
+      <c r="C16" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="E16" s="10" t="s">
+      <c r="E16" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="F16" s="26" t="s">
+      <c r="F16" s="27" t="s">
         <v>65</v>
       </c>
     </row>
-    <row customFormat="1" r="17" s="12" spans="1:7">
-      <c r="A17" s="7" t="n">
+    <row customFormat="1" r="17" s="3" spans="1:7">
+      <c r="A17" s="9" t="n">
         <v>16</v>
       </c>
-      <c r="B17" s="9" t="s">
+      <c r="B17" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="C17" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D17" s="8" t="s">
+      <c r="C17" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="E17" s="10" t="s">
+      <c r="E17" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="F17" s="26" t="s">
+      <c r="F17" s="27" t="s">
         <v>65</v>
       </c>
     </row>
-    <row customFormat="1" r="18" s="12" spans="1:7"/>
+    <row customFormat="1" r="18" s="3" spans="1:7"/>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -2801,34 +2813,34 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="11" defaultRowHeight="13.5" outlineLevelCol="0"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="3" width="7.875"/>
-    <col customWidth="1" max="2" min="2" style="3" width="31.875"/>
-    <col customWidth="1" max="3" min="3" style="3" width="14.375"/>
-    <col customWidth="1" max="4" min="4" style="21" width="21.75"/>
-    <col customWidth="1" max="5" min="5" style="3" width="48.5"/>
-    <col customWidth="1" max="6" min="6" style="22" width="15.125"/>
-    <col customWidth="1" max="7" min="7" style="3" width="31.125"/>
-    <col customWidth="1" max="8" min="8" style="3" width="68"/>
-    <col customWidth="1" max="9" min="9" style="3" width="20.625"/>
+    <col customWidth="1" max="1" min="1" style="4" width="7.875"/>
+    <col customWidth="1" max="2" min="2" style="4" width="31.875"/>
+    <col customWidth="1" max="3" min="3" style="4" width="14.375"/>
+    <col customWidth="1" max="4" min="4" style="22" width="21.75"/>
+    <col customWidth="1" max="5" min="5" style="4" width="48.5"/>
+    <col customWidth="1" max="6" min="6" style="23" width="15.125"/>
+    <col customWidth="1" max="7" min="7" style="4" width="31.125"/>
+    <col customWidth="1" max="8" min="8" style="4" width="68"/>
+    <col customWidth="1" max="9" min="9" style="4" width="20.625"/>
   </cols>
   <sheetData>
     <row customFormat="1" customHeight="1" ht="15" r="1" s="1" spans="1:10">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="8" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
@@ -2842,22 +2854,22 @@
       </c>
     </row>
     <row customFormat="1" customHeight="1" ht="16.5" r="2" s="2" spans="1:10">
-      <c r="A2" s="7" t="n">
+      <c r="A2" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="C2" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="11" t="s">
+      <c r="C2" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="F2" s="10" t="n">
+      <c r="F2" s="13" t="n">
         <v>10001</v>
       </c>
       <c r="H2" t="s">
@@ -2866,27 +2878,27 @@
       <c r="I2" t="s">
         <v>20</v>
       </c>
-      <c r="J2" s="10" t="s">
+      <c r="J2" s="13" t="s">
         <v>62</v>
       </c>
     </row>
     <row customFormat="1" customHeight="1" ht="66" r="3" s="2" spans="1:10">
-      <c r="A3" s="7" t="n">
+      <c r="A3" s="9" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="C3" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="11" t="s">
+      <c r="C3" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="F3" s="10" t="n">
+      <c r="F3" s="13" t="n">
         <v>10001</v>
       </c>
       <c r="G3" s="2" t="s">
@@ -2898,27 +2910,27 @@
       <c r="I3" t="s">
         <v>20</v>
       </c>
-      <c r="J3" s="10" t="s">
+      <c r="J3" s="13" t="s">
         <v>90</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="16.5" r="4" s="12" spans="1:10">
-      <c r="A4" s="7" t="n">
+    <row customFormat="1" customHeight="1" ht="16.5" r="4" s="3" spans="1:10">
+      <c r="A4" s="9" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="C4" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="18" t="s">
+      <c r="C4" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="F4" s="15" t="n">
+      <c r="F4" s="16" t="n">
         <v>20104</v>
       </c>
       <c r="H4" t="s">
@@ -2931,23 +2943,23 @@
         <v>93</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="16.5" r="5" s="12" spans="1:10">
-      <c r="A5" s="7" t="n">
+    <row customFormat="1" customHeight="1" ht="16.5" r="5" s="3" spans="1:10">
+      <c r="A5" s="9" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="C5" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="18" t="s">
+      <c r="C5" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="E5" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="F5" s="15" t="n">
+      <c r="F5" s="16" t="n">
         <v>20103</v>
       </c>
       <c r="H5" t="s">
@@ -2960,23 +2972,23 @@
         <v>23</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="16.5" r="6" s="12" spans="1:10">
-      <c r="A6" s="7" t="n">
+    <row customFormat="1" customHeight="1" ht="16.5" r="6" s="3" spans="1:10">
+      <c r="A6" s="9" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="C6" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="20" t="s">
+      <c r="C6" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="E6" s="10" t="s">
+      <c r="E6" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="F6" s="15" t="n">
+      <c r="F6" s="16" t="n">
         <v>20109</v>
       </c>
       <c r="H6" t="s">
@@ -2989,23 +3001,23 @@
         <v>29</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="16.5" r="7" s="12" spans="1:10">
-      <c r="A7" s="7" t="n">
+    <row customFormat="1" customHeight="1" ht="16.5" r="7" s="3" spans="1:10">
+      <c r="A7" s="9" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="C7" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="20" t="s">
+      <c r="C7" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="E7" s="10" t="s">
+      <c r="E7" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="F7" s="15" t="n">
+      <c r="F7" s="16" t="n">
         <v>20109</v>
       </c>
       <c r="H7" t="s">
@@ -3018,23 +3030,23 @@
         <v>29</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="16.5" r="8" s="12" spans="1:10">
-      <c r="A8" s="7" t="n">
+    <row customFormat="1" customHeight="1" ht="16.5" r="8" s="3" spans="1:10">
+      <c r="A8" s="9" t="n">
         <v>7</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="C8" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="20" t="s">
+      <c r="C8" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="E8" s="10" t="s">
+      <c r="E8" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="F8" s="15" t="n">
+      <c r="F8" s="16" t="n">
         <v>20109</v>
       </c>
       <c r="H8" t="s">
@@ -3047,23 +3059,23 @@
         <v>29</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="16.5" r="9" s="12" spans="1:10">
-      <c r="A9" s="7" t="n">
+    <row customFormat="1" customHeight="1" ht="16.5" r="9" s="3" spans="1:10">
+      <c r="A9" s="9" t="n">
         <v>8</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="C9" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" s="20" t="s">
+      <c r="C9" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="E9" s="10" t="s">
+      <c r="E9" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="F9" s="15" t="n">
+      <c r="F9" s="16" t="n">
         <v>20109</v>
       </c>
       <c r="H9" t="s">
@@ -3076,23 +3088,23 @@
         <v>29</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="16.5" r="10" s="12" spans="1:10">
-      <c r="A10" s="7" t="n">
+    <row customFormat="1" customHeight="1" ht="16.5" r="10" s="3" spans="1:10">
+      <c r="A10" s="9" t="n">
         <v>9</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="C10" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" s="20" t="s">
+      <c r="C10" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="E10" s="10" t="s">
+      <c r="E10" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="F10" s="15" t="n">
+      <c r="F10" s="16" t="n">
         <v>20109</v>
       </c>
       <c r="H10" t="s">
@@ -3105,23 +3117,23 @@
         <v>29</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="16.5" r="11" s="12" spans="1:10">
-      <c r="A11" s="7" t="n">
-        <v>10</v>
-      </c>
-      <c r="B11" s="9" t="s">
+    <row customFormat="1" customHeight="1" ht="16.5" r="11" s="3" spans="1:10">
+      <c r="A11" s="9" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="C11" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11" s="20" t="s">
+      <c r="C11" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="E11" s="10" t="s">
+      <c r="E11" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="F11" s="15" t="n">
+      <c r="F11" s="16" t="n">
         <v>20109</v>
       </c>
       <c r="H11" t="s">
@@ -3134,23 +3146,23 @@
         <v>29</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="16.5" r="12" s="12" spans="1:10">
-      <c r="A12" s="7" t="n">
+    <row customFormat="1" customHeight="1" ht="16.5" r="12" s="3" spans="1:10">
+      <c r="A12" s="9" t="n">
         <v>11</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="C12" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D12" s="18" t="s">
+      <c r="C12" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="19" t="s">
         <v>101</v>
       </c>
-      <c r="E12" s="10" t="s">
+      <c r="E12" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="F12" s="15" t="n">
+      <c r="F12" s="16" t="n">
         <v>20115</v>
       </c>
       <c r="H12" t="s">
@@ -3163,23 +3175,23 @@
         <v>103</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="16.5" r="13" s="12" spans="1:10">
-      <c r="A13" s="7" t="n">
+    <row customFormat="1" customHeight="1" ht="16.5" r="13" s="3" spans="1:10">
+      <c r="A13" s="9" t="n">
         <v>12</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="C13" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D13" s="18" t="s">
+      <c r="C13" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="19" t="s">
         <v>104</v>
       </c>
-      <c r="E13" s="10" t="s">
+      <c r="E13" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="F13" s="15" t="n">
+      <c r="F13" s="16" t="n">
         <v>20117</v>
       </c>
       <c r="H13" t="s">
@@ -3192,23 +3204,23 @@
         <v>106</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="16.5" r="14" s="12" spans="1:10">
-      <c r="A14" s="7" t="n">
+    <row customFormat="1" customHeight="1" ht="16.5" r="14" s="3" spans="1:10">
+      <c r="A14" s="9" t="n">
         <v>13</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="C14" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D14" s="18" t="s">
+      <c r="C14" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="19" t="s">
         <v>107</v>
       </c>
-      <c r="E14" s="10" t="s">
+      <c r="E14" s="13" t="s">
         <v>108</v>
       </c>
-      <c r="F14" s="15" t="n">
+      <c r="F14" s="16" t="n">
         <v>20117</v>
       </c>
       <c r="H14" t="s">
@@ -3221,23 +3233,23 @@
         <v>106</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="16.5" r="15" s="12" spans="1:10">
-      <c r="A15" s="7" t="n">
+    <row customFormat="1" customHeight="1" ht="16.5" r="15" s="3" spans="1:10">
+      <c r="A15" s="9" t="n">
         <v>14</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="C15" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D15" s="18" t="s">
+      <c r="C15" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="E15" s="10" t="s">
+      <c r="E15" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="F15" s="15" t="n">
+      <c r="F15" s="16" t="n">
         <v>20116</v>
       </c>
       <c r="H15" t="s">
@@ -3250,23 +3262,23 @@
         <v>111</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="16.5" r="16" s="12" spans="1:10">
-      <c r="A16" s="7" t="n">
+    <row customFormat="1" customHeight="1" ht="16.5" r="16" s="3" spans="1:10">
+      <c r="A16" s="9" t="n">
         <v>15</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="C16" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D16" s="18" t="s">
+      <c r="C16" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" s="19" t="s">
         <v>112</v>
       </c>
-      <c r="E16" s="10" t="s">
+      <c r="E16" s="13" t="s">
         <v>113</v>
       </c>
-      <c r="F16" s="15" t="n">
+      <c r="F16" s="16" t="n">
         <v>20118</v>
       </c>
       <c r="H16" t="s">
@@ -3298,30 +3310,30 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="0"/>
   <cols>
-    <col customWidth="1" max="2" min="2" style="3" width="16.875"/>
-    <col customWidth="1" max="4" min="4" style="16" width="15.25"/>
-    <col customWidth="1" max="5" min="5" style="3" width="44.375"/>
-    <col customWidth="1" max="6" min="6" style="13" width="66.125"/>
-    <col customWidth="1" max="7" min="7" style="3" width="30.875"/>
+    <col customWidth="1" max="2" min="2" style="4" width="16.875"/>
+    <col customWidth="1" max="4" min="4" style="17" width="15.25"/>
+    <col customWidth="1" max="5" min="5" style="4" width="44.375"/>
+    <col customWidth="1" max="6" min="6" style="14" width="66.125"/>
+    <col customWidth="1" max="7" min="7" style="4" width="30.875"/>
   </cols>
   <sheetData>
     <row customFormat="1" customHeight="1" ht="15" r="1" s="1" spans="1:9">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="8" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
@@ -3335,22 +3347,22 @@
       </c>
     </row>
     <row customFormat="1" customHeight="1" ht="33" r="2" s="2" spans="1:9">
-      <c r="A2" s="7" t="n">
+      <c r="A2" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="C2" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="11" t="s">
+      <c r="C2" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="F2" s="10" t="n">
+      <c r="F2" s="13" t="n">
         <v>10001</v>
       </c>
       <c r="H2" t="s">
@@ -3361,22 +3373,22 @@
       </c>
     </row>
     <row customFormat="1" customHeight="1" ht="66" r="3" s="2" spans="1:9">
-      <c r="A3" s="7" t="n">
+      <c r="A3" s="9" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="C3" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="11" t="s">
+      <c r="C3" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="F3" s="10" t="n">
+      <c r="F3" s="13" t="n">
         <v>10001</v>
       </c>
       <c r="G3" s="2" t="s">
@@ -3389,23 +3401,23 @@
         <v>20</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="33" r="4" s="12" spans="1:9">
-      <c r="A4" s="7" t="n">
+    <row customFormat="1" customHeight="1" ht="33" r="4" s="3" spans="1:9">
+      <c r="A4" s="9" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="C4" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="18" t="s">
+      <c r="C4" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="13" t="s">
         <v>120</v>
       </c>
-      <c r="F4" s="19" t="n">
+      <c r="F4" s="20" t="n">
         <v>20104</v>
       </c>
       <c r="H4" t="s">
@@ -3415,23 +3427,23 @@
         <v>20</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="33" r="5" s="12" spans="1:9">
-      <c r="A5" s="7" t="n">
+    <row customFormat="1" customHeight="1" ht="33" r="5" s="3" spans="1:9">
+      <c r="A5" s="9" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="C5" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="18" t="s">
+      <c r="C5" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="E5" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="F5" s="19" t="n">
+      <c r="F5" s="20" t="n">
         <v>20103</v>
       </c>
       <c r="H5" t="s">
@@ -3441,23 +3453,23 @@
         <v>20</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="33" r="6" s="12" spans="1:9">
-      <c r="A6" s="7" t="n">
+    <row customFormat="1" customHeight="1" ht="33" r="6" s="3" spans="1:9">
+      <c r="A6" s="9" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="C6" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="20" t="s">
+      <c r="C6" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="E6" s="10" t="s">
+      <c r="E6" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="F6" s="19" t="n">
+      <c r="F6" s="20" t="n">
         <v>20109</v>
       </c>
       <c r="H6" t="s">
@@ -3467,23 +3479,23 @@
         <v>20</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="33" r="7" s="12" spans="1:9">
-      <c r="A7" s="7" t="n">
+    <row customFormat="1" customHeight="1" ht="33" r="7" s="3" spans="1:9">
+      <c r="A7" s="9" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="C7" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="20" t="s">
+      <c r="C7" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="E7" s="10" t="s">
+      <c r="E7" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="F7" s="19" t="n">
+      <c r="F7" s="20" t="n">
         <v>20109</v>
       </c>
       <c r="H7" t="s">
@@ -3493,23 +3505,23 @@
         <v>20</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="33" r="8" s="12" spans="1:9">
-      <c r="A8" s="7" t="n">
+    <row customFormat="1" customHeight="1" ht="33" r="8" s="3" spans="1:9">
+      <c r="A8" s="9" t="n">
         <v>7</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="C8" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="20" t="s">
+      <c r="C8" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="E8" s="10" t="s">
+      <c r="E8" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="F8" s="19" t="n">
+      <c r="F8" s="20" t="n">
         <v>20109</v>
       </c>
       <c r="H8" t="s">
@@ -3519,23 +3531,23 @@
         <v>20</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="33" r="9" s="12" spans="1:9">
-      <c r="A9" s="7" t="n">
+    <row customFormat="1" customHeight="1" ht="33" r="9" s="3" spans="1:9">
+      <c r="A9" s="9" t="n">
         <v>8</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="C9" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" s="20" t="s">
+      <c r="C9" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="E9" s="10" t="s">
+      <c r="E9" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="F9" s="19" t="n">
+      <c r="F9" s="20" t="n">
         <v>20109</v>
       </c>
       <c r="H9" t="s">
@@ -3545,23 +3557,23 @@
         <v>20</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="33" r="10" s="12" spans="1:9">
-      <c r="A10" s="7" t="n">
+    <row customFormat="1" customHeight="1" ht="33" r="10" s="3" spans="1:9">
+      <c r="A10" s="9" t="n">
         <v>9</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="C10" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" s="20" t="s">
+      <c r="C10" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="E10" s="10" t="s">
+      <c r="E10" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="F10" s="19" t="n">
+      <c r="F10" s="20" t="n">
         <v>20109</v>
       </c>
       <c r="H10" t="s">
@@ -3571,23 +3583,23 @@
         <v>20</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="33" r="11" s="12" spans="1:9">
-      <c r="A11" s="7" t="n">
-        <v>10</v>
-      </c>
-      <c r="B11" s="9" t="s">
+    <row customFormat="1" customHeight="1" ht="33" r="11" s="3" spans="1:9">
+      <c r="A11" s="9" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="C11" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11" s="20" t="s">
+      <c r="C11" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="E11" s="10" t="s">
+      <c r="E11" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="F11" s="19" t="n">
+      <c r="F11" s="20" t="n">
         <v>20109</v>
       </c>
       <c r="H11" t="s">
@@ -3597,23 +3609,23 @@
         <v>20</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="33" r="12" s="12" spans="1:9">
-      <c r="A12" s="7" t="n">
+    <row customFormat="1" customHeight="1" ht="33" r="12" s="3" spans="1:9">
+      <c r="A12" s="9" t="n">
         <v>11</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="C12" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D12" s="18" t="s">
+      <c r="C12" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="19" t="s">
         <v>101</v>
       </c>
-      <c r="E12" s="10" t="s">
+      <c r="E12" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="F12" s="15" t="n">
+      <c r="F12" s="16" t="n">
         <v>20115</v>
       </c>
       <c r="H12" t="s">
@@ -3623,23 +3635,23 @@
         <v>20</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="33" r="13" s="12" spans="1:9">
-      <c r="A13" s="7" t="n">
+    <row customFormat="1" customHeight="1" ht="33" r="13" s="3" spans="1:9">
+      <c r="A13" s="9" t="n">
         <v>12</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="C13" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D13" s="18" t="s">
+      <c r="C13" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="19" t="s">
         <v>104</v>
       </c>
-      <c r="E13" s="10" t="s">
+      <c r="E13" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="F13" s="19" t="n">
+      <c r="F13" s="20" t="n">
         <v>20117</v>
       </c>
       <c r="H13" t="s">
@@ -3649,23 +3661,23 @@
         <v>20</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="33" r="14" s="12" spans="1:9">
-      <c r="A14" s="7" t="n">
+    <row customFormat="1" customHeight="1" ht="33" r="14" s="3" spans="1:9">
+      <c r="A14" s="9" t="n">
         <v>13</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="C14" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D14" s="18" t="s">
+      <c r="C14" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="19" t="s">
         <v>107</v>
       </c>
-      <c r="E14" s="10" t="s">
+      <c r="E14" s="13" t="s">
         <v>108</v>
       </c>
-      <c r="F14" s="19" t="n">
+      <c r="F14" s="20" t="n">
         <v>20117</v>
       </c>
       <c r="H14" t="s">
@@ -3675,23 +3687,23 @@
         <v>20</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="33" r="15" s="12" spans="1:9">
-      <c r="A15" s="7" t="n">
+    <row customFormat="1" customHeight="1" ht="33" r="15" s="3" spans="1:9">
+      <c r="A15" s="9" t="n">
         <v>14</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="C15" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D15" s="18" t="s">
+      <c r="C15" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="E15" s="10" t="s">
+      <c r="E15" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="F15" s="19" t="n">
+      <c r="F15" s="20" t="n">
         <v>20116</v>
       </c>
       <c r="H15" t="s">
@@ -3701,23 +3713,23 @@
         <v>20</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="33" r="16" s="12" spans="1:9">
-      <c r="A16" s="7" t="n">
+    <row customFormat="1" customHeight="1" ht="33" r="16" s="3" spans="1:9">
+      <c r="A16" s="9" t="n">
         <v>15</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="C16" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D16" s="18" t="s">
+      <c r="C16" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" s="19" t="s">
         <v>112</v>
       </c>
-      <c r="E16" s="10" t="s">
+      <c r="E16" s="13" t="s">
         <v>113</v>
       </c>
-      <c r="F16" s="15" t="n">
+      <c r="F16" s="16" t="n">
         <v>20118</v>
       </c>
       <c r="H16" t="s">
@@ -3727,23 +3739,23 @@
         <v>20</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="33" r="17" s="12" spans="1:9">
-      <c r="A17" s="7" t="n">
+    <row customFormat="1" customHeight="1" ht="33" r="17" s="3" spans="1:9">
+      <c r="A17" s="9" t="n">
         <v>16</v>
       </c>
-      <c r="B17" s="9" t="s">
+      <c r="B17" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="C17" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D17" s="18" t="s">
+      <c r="C17" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" s="19" t="s">
         <v>123</v>
       </c>
-      <c r="E17" s="10" t="s">
+      <c r="E17" s="13" t="s">
         <v>124</v>
       </c>
-      <c r="F17" s="15" t="n">
+      <c r="F17" s="16" t="n">
         <v>20119</v>
       </c>
       <c r="H17" t="s">
@@ -3785,36 +3797,36 @@
   <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="A2" sqref="$A2:$XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="0"/>
   <cols>
-    <col customWidth="1" max="2" min="2" style="3" width="21.875"/>
-    <col customWidth="1" max="4" min="4" style="16" width="14.75"/>
-    <col customWidth="1" max="5" min="5" style="3" width="66.375"/>
-    <col customWidth="1" max="6" min="6" style="17" width="32.5"/>
-    <col customWidth="1" max="7" min="7" style="3" width="41"/>
-    <col customWidth="1" max="8" min="8" style="13" width="29.125"/>
+    <col customWidth="1" max="2" min="2" style="4" width="21.875"/>
+    <col customWidth="1" max="4" min="4" style="17" width="14.75"/>
+    <col customWidth="1" max="5" min="5" style="4" width="66.375"/>
+    <col customWidth="1" max="6" min="6" style="18" width="32.5"/>
+    <col customWidth="1" max="7" min="7" style="4" width="41"/>
+    <col customWidth="1" max="8" min="8" style="14" width="29.125"/>
   </cols>
   <sheetData>
     <row customFormat="1" customHeight="1" ht="15" r="1" s="1" spans="1:9">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="8" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
@@ -3828,25 +3840,25 @@
       </c>
     </row>
     <row customFormat="1" customHeight="1" ht="33" r="2" s="2" spans="1:9">
-      <c r="A2" s="7" t="n">
+      <c r="A2" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="C2" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="11" t="s">
+      <c r="C2" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="H2" s="13" t="s">
+      <c r="H2" s="14" t="s">
         <v>62</v>
       </c>
       <c r="I2" t="s">
@@ -3854,204 +3866,204 @@
       </c>
     </row>
     <row customFormat="1" customHeight="1" ht="66" r="3" s="2" spans="1:9">
-      <c r="A3" s="7" t="n">
+      <c r="A3" s="9" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="C3" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="11" t="s">
+      <c r="C3" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="12" t="s">
         <v>127</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="13" t="s">
         <v>128</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="F3" s="13" t="s">
         <v>129</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="H3" s="13" t="s">
+      <c r="H3" s="14" t="s">
         <v>129</v>
       </c>
       <c r="I3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="66" r="4" s="12" spans="1:9">
-      <c r="A4" s="7" t="n">
+    <row customFormat="1" customHeight="1" ht="66" r="4" s="3" spans="1:9">
+      <c r="A4" s="9" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="C4" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="18" t="s">
+      <c r="C4" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="19" t="s">
         <v>131</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="13" t="s">
         <v>132</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="H4" s="13" t="s">
+      <c r="H4" s="14" t="s">
         <v>133</v>
       </c>
       <c r="I4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="66" r="5" s="12" spans="1:9">
-      <c r="A5" s="7" t="n">
+    <row customFormat="1" customHeight="1" ht="66" r="5" s="3" spans="1:9">
+      <c r="A5" s="9" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="C5" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="18" t="s">
+      <c r="C5" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="19" t="s">
         <v>134</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="E5" s="13" t="s">
         <v>135</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="H5" s="13" t="s">
+      <c r="H5" s="14" t="s">
         <v>136</v>
       </c>
       <c r="I5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="66" r="6" s="12" spans="1:9">
-      <c r="A6" s="7" t="n">
+    <row customFormat="1" customHeight="1" ht="66" r="6" s="3" spans="1:9">
+      <c r="A6" s="9" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="C6" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="18" t="s">
+      <c r="C6" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="19" t="s">
         <v>137</v>
       </c>
-      <c r="E6" s="10" t="s">
+      <c r="E6" s="13" t="s">
         <v>138</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="H6" s="13" t="s">
+      <c r="H6" s="14" t="s">
         <v>139</v>
       </c>
       <c r="I6" t="s">
         <v>20</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="66" r="7" s="12" spans="1:9">
-      <c r="A7" s="7" t="n">
+    <row customFormat="1" customHeight="1" ht="66" r="7" s="3" spans="1:9">
+      <c r="A7" s="9" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="C7" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="18" t="s">
+      <c r="C7" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="19" t="s">
         <v>140</v>
       </c>
-      <c r="E7" s="10" t="s">
+      <c r="E7" s="13" t="s">
         <v>141</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="H7" s="13" t="s">
+      <c r="H7" s="14" t="s">
         <v>139</v>
       </c>
       <c r="I7" t="s">
         <v>20</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="66" r="8" s="12" spans="1:9">
-      <c r="A8" s="7" t="n">
+    <row customFormat="1" customHeight="1" ht="66" r="8" s="3" spans="1:9">
+      <c r="A8" s="9" t="n">
         <v>7</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="C8" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="18" t="s">
+      <c r="C8" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="19" t="s">
         <v>142</v>
       </c>
-      <c r="E8" s="10" t="s">
+      <c r="E8" s="13" t="s">
         <v>143</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="H8" s="13" t="s">
+      <c r="H8" s="14" t="s">
         <v>144</v>
       </c>
       <c r="I8" t="s">
         <v>20</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="66" r="9" s="12" spans="1:9">
-      <c r="A9" s="7" t="n">
+    <row customFormat="1" customHeight="1" ht="66" r="9" s="3" spans="1:9">
+      <c r="A9" s="9" t="n">
         <v>8</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="C9" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" s="18" t="s">
+      <c r="C9" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="19" t="s">
         <v>145</v>
       </c>
-      <c r="E9" s="10" t="s">
+      <c r="E9" s="13" t="s">
         <v>146</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="H9" s="13" t="s">
+      <c r="H9" s="14" t="s">
         <v>133</v>
       </c>
       <c r="I9" t="s">
         <v>20</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="66" r="10" s="12" spans="1:9">
-      <c r="A10" s="7" t="n">
+    <row customFormat="1" customHeight="1" ht="66" r="10" s="3" spans="1:9">
+      <c r="A10" s="9" t="n">
         <v>9</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="C10" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" s="18" t="s">
+      <c r="C10" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="19" t="s">
         <v>147</v>
       </c>
-      <c r="E10" s="10" t="s">
+      <c r="E10" s="13" t="s">
         <v>148</v>
       </c>
       <c r="F10" s="2" t="s">
@@ -4060,27 +4072,27 @@
       <c r="G10" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="H10" s="13" t="s">
+      <c r="H10" s="14" t="s">
         <v>129</v>
       </c>
       <c r="I10" t="s">
         <v>20</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="66" r="11" s="12" spans="1:9">
-      <c r="A11" s="7" t="n">
-        <v>10</v>
-      </c>
-      <c r="B11" s="9" t="s">
+    <row customFormat="1" customHeight="1" ht="66" r="11" s="3" spans="1:9">
+      <c r="A11" s="9" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="C11" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11" s="18" t="s">
+      <c r="C11" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="19" t="s">
         <v>149</v>
       </c>
-      <c r="E11" s="10" t="s">
+      <c r="E11" s="13" t="s">
         <v>150</v>
       </c>
       <c r="F11" s="2" t="s">
@@ -4089,27 +4101,27 @@
       <c r="G11" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="H11" s="13" t="s">
+      <c r="H11" s="14" t="s">
         <v>129</v>
       </c>
       <c r="I11" t="s">
         <v>20</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="66" r="12" s="12" spans="1:9">
-      <c r="A12" s="7" t="n">
+    <row customFormat="1" customHeight="1" ht="66" r="12" s="3" spans="1:9">
+      <c r="A12" s="9" t="n">
         <v>11</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="C12" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D12" s="18" t="s">
+      <c r="C12" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="19" t="s">
         <v>151</v>
       </c>
-      <c r="E12" s="10" t="s">
+      <c r="E12" s="13" t="s">
         <v>152</v>
       </c>
       <c r="F12" s="2" t="s">
@@ -4118,53 +4130,53 @@
       <c r="G12" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="H12" s="13" t="s">
+      <c r="H12" s="14" t="s">
         <v>129</v>
       </c>
       <c r="I12" t="s">
         <v>20</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="77" r="13" s="12" spans="1:9">
-      <c r="A13" s="7" t="n">
+    <row customFormat="1" customHeight="1" ht="77" r="13" s="3" spans="1:9">
+      <c r="A13" s="9" t="n">
         <v>12</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="C13" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D13" s="18" t="s">
+      <c r="C13" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="19" t="s">
         <v>153</v>
       </c>
-      <c r="E13" s="10" t="s">
+      <c r="E13" s="13" t="s">
         <v>154</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="H13" s="13" t="s">
+      <c r="H13" s="14" t="s">
         <v>133</v>
       </c>
       <c r="I13" t="s">
         <v>20</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="66" r="14" s="12" spans="1:9">
-      <c r="A14" s="7" t="n">
+    <row customFormat="1" customHeight="1" ht="66" r="14" s="3" spans="1:9">
+      <c r="A14" s="9" t="n">
         <v>13</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="C14" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D14" s="18" t="s">
+      <c r="C14" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="19" t="s">
         <v>155</v>
       </c>
-      <c r="E14" s="10" t="s">
+      <c r="E14" s="13" t="s">
         <v>156</v>
       </c>
       <c r="F14" s="2" t="s">
@@ -4173,189 +4185,189 @@
       <c r="G14" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="H14" s="13" t="s">
+      <c r="H14" s="14" t="s">
         <v>129</v>
       </c>
       <c r="I14" t="s">
         <v>20</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="69" r="15" s="12" spans="1:9">
-      <c r="A15" s="7" t="n">
+    <row customFormat="1" customHeight="1" ht="69" r="15" s="3" spans="1:9">
+      <c r="A15" s="9" t="n">
         <v>14</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="C15" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D15" s="18" t="s">
+      <c r="C15" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="19" t="s">
         <v>157</v>
       </c>
-      <c r="E15" s="10" t="s">
+      <c r="E15" s="13" t="s">
         <v>158</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="H15" s="13" t="s">
+      <c r="H15" s="14" t="s">
         <v>159</v>
       </c>
       <c r="I15" t="s">
         <v>20</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="63" r="16" s="12" spans="1:9">
-      <c r="A16" s="7" t="n">
+    <row customFormat="1" customHeight="1" ht="63" r="16" s="3" spans="1:9">
+      <c r="A16" s="9" t="n">
         <v>15</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="C16" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D16" s="18" t="s">
+      <c r="C16" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" s="19" t="s">
         <v>160</v>
       </c>
-      <c r="E16" s="10" t="s">
+      <c r="E16" s="13" t="s">
         <v>161</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="H16" s="13" t="s">
+      <c r="H16" s="14" t="s">
         <v>159</v>
       </c>
       <c r="I16" t="s">
         <v>20</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="67" r="17" s="12" spans="1:9">
-      <c r="A17" s="7" t="n">
+    <row customFormat="1" customHeight="1" ht="67" r="17" s="3" spans="1:9">
+      <c r="A17" s="9" t="n">
         <v>16</v>
       </c>
-      <c r="B17" s="9" t="s">
+      <c r="B17" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="C17" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D17" s="18" t="s">
+      <c r="C17" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" s="19" t="s">
         <v>162</v>
       </c>
-      <c r="E17" s="10" t="s">
+      <c r="E17" s="13" t="s">
         <v>163</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="H17" s="13" t="s">
+      <c r="H17" s="14" t="s">
         <v>159</v>
       </c>
       <c r="I17" t="s">
         <v>20</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="33" r="18" s="12" spans="1:9">
-      <c r="A18" s="7" t="n">
+    <row customFormat="1" customHeight="1" ht="33" r="18" s="3" spans="1:9">
+      <c r="A18" s="9" t="n">
         <v>17</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="B18" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="C18" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D18" s="18" t="s">
+      <c r="C18" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" s="19" t="s">
         <v>164</v>
       </c>
-      <c r="E18" s="10" t="s">
+      <c r="E18" s="13" t="s">
         <v>165</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="H18" s="13" t="s">
+      <c r="H18" s="14" t="s">
         <v>139</v>
       </c>
       <c r="I18" t="s">
         <v>20</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="69" r="19" s="12" spans="1:9">
-      <c r="A19" s="7" t="n">
+    <row customFormat="1" customHeight="1" ht="69" r="19" s="3" spans="1:9">
+      <c r="A19" s="9" t="n">
         <v>18</v>
       </c>
-      <c r="B19" s="9" t="s">
+      <c r="B19" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="C19" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D19" s="18" t="s">
+      <c r="C19" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" s="19" t="s">
         <v>166</v>
       </c>
-      <c r="E19" s="10" t="s">
+      <c r="E19" s="13" t="s">
         <v>167</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="H19" s="13" t="s">
+      <c r="H19" s="14" t="s">
         <v>133</v>
       </c>
       <c r="I19" t="s">
         <v>20</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="78" r="20" s="12" spans="1:9">
-      <c r="A20" s="7" t="n">
+    <row customFormat="1" customHeight="1" ht="78" r="20" s="3" spans="1:9">
+      <c r="A20" s="9" t="n">
         <v>19</v>
       </c>
-      <c r="B20" s="9" t="s">
+      <c r="B20" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="C20" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D20" s="18" t="s">
+      <c r="C20" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" s="19" t="s">
         <v>168</v>
       </c>
-      <c r="E20" s="10" t="s">
+      <c r="E20" s="13" t="s">
         <v>169</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="H20" s="13" t="s">
+      <c r="H20" s="14" t="s">
         <v>170</v>
       </c>
       <c r="I20" t="s">
         <v>20</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="67" r="21" s="12" spans="1:9">
-      <c r="A21" s="7" t="n">
-        <v>20</v>
-      </c>
-      <c r="B21" s="9" t="s">
+    <row customFormat="1" customHeight="1" ht="67" r="21" s="3" spans="1:9">
+      <c r="A21" s="9" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="C21" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D21" s="18" t="s">
+      <c r="C21" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21" s="19" t="s">
         <v>171</v>
       </c>
-      <c r="E21" s="10" t="s">
+      <c r="E21" s="13" t="s">
         <v>172</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="H21" s="13" t="s">
+      <c r="H21" s="14" t="s">
         <v>170</v>
       </c>
       <c r="I21" t="s">
@@ -4375,37 +4387,37 @@
   </sheetPr>
   <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18:F20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="0"/>
   <cols>
-    <col customWidth="1" max="2" min="2" style="3" width="25.625"/>
-    <col customWidth="1" max="4" min="4" style="13" width="22.875"/>
-    <col customWidth="1" max="5" min="5" style="3" width="40.25"/>
-    <col customWidth="1" max="6" min="6" style="13" width="43.5"/>
-    <col customWidth="1" max="7" min="7" style="3" width="21.5"/>
-    <col customWidth="1" max="8" min="8" style="14" width="32"/>
+    <col customWidth="1" max="2" min="2" style="4" width="25.625"/>
+    <col customWidth="1" max="4" min="4" style="14" width="22.875"/>
+    <col customWidth="1" max="5" min="5" style="4" width="40.25"/>
+    <col customWidth="1" max="6" min="6" style="14" width="43.5"/>
+    <col customWidth="1" max="7" min="7" style="4" width="21.5"/>
+    <col customWidth="1" max="8" min="8" style="15" width="32"/>
   </cols>
   <sheetData>
     <row customFormat="1" customHeight="1" ht="15" r="1" s="1" spans="1:9">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="8" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
@@ -4419,22 +4431,22 @@
       </c>
     </row>
     <row customFormat="1" customHeight="1" ht="33" r="2" s="2" spans="1:9">
-      <c r="A2" s="7" t="n">
+      <c r="A2" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="C2" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="11" t="s">
+      <c r="C2" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="13" t="s">
         <v>62</v>
       </c>
       <c r="H2" t="s">
@@ -4445,22 +4457,22 @@
       </c>
     </row>
     <row customFormat="1" customHeight="1" ht="66" r="3" s="2" spans="1:9">
-      <c r="A3" s="7" t="n">
+      <c r="A3" s="9" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="C3" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="11" t="s">
+      <c r="C3" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="12" t="s">
         <v>127</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="13" t="s">
         <v>128</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="F3" s="13" t="s">
         <v>129</v>
       </c>
       <c r="G3" s="2" t="s">
@@ -4473,44 +4485,44 @@
         <v>20</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="33" r="4" s="12" spans="1:9">
-      <c r="A4" s="7" t="n">
+    <row customFormat="1" customHeight="1" ht="33" r="4" s="3" spans="1:9">
+      <c r="A4" s="9" t="n">
         <v>2</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="10" t="s">
         <v>174</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="11" t="s">
         <v>10</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="13" t="s">
         <v>176</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="G4" s="12" t="s">
+      <c r="G4" s="3" t="s">
         <v>177</v>
       </c>
       <c r="H4" s="2" t="n"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="33" r="5" s="12" spans="1:9">
-      <c r="A5" s="7" t="n">
+    <row customFormat="1" customHeight="1" ht="33" r="5" s="3" spans="1:9">
+      <c r="A5" s="9" t="n">
         <v>3</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="10" t="s">
         <v>174</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="11" t="s">
         <v>10</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="E5" s="13" t="s">
         <v>179</v>
       </c>
       <c r="F5" s="2" t="s">
@@ -4523,20 +4535,20 @@
         <v>20</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="33" r="6" s="12" spans="1:9">
-      <c r="A6" s="7" t="n">
+    <row customFormat="1" customHeight="1" ht="33" r="6" s="3" spans="1:9">
+      <c r="A6" s="9" t="n">
         <v>4</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="10" t="s">
         <v>174</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="11" t="s">
         <v>10</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="E6" s="10" t="s">
+      <c r="E6" s="13" t="s">
         <v>182</v>
       </c>
       <c r="F6" s="2" t="s">
@@ -4549,20 +4561,20 @@
         <v>20</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="33" r="7" s="12" spans="1:9">
-      <c r="A7" s="7" t="n">
+    <row customFormat="1" customHeight="1" ht="33" r="7" s="3" spans="1:9">
+      <c r="A7" s="9" t="n">
         <v>5</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="10" t="s">
         <v>174</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="11" t="s">
         <v>10</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="E7" s="10" t="s">
+      <c r="E7" s="13" t="s">
         <v>185</v>
       </c>
       <c r="F7" s="2" t="s">
@@ -4575,20 +4587,20 @@
         <v>20</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="33" r="8" s="12" spans="1:9">
-      <c r="A8" s="7" t="n">
+    <row customFormat="1" customHeight="1" ht="33" r="8" s="3" spans="1:9">
+      <c r="A8" s="9" t="n">
         <v>6</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="10" t="s">
         <v>174</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="11" t="s">
         <v>10</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="E8" s="10" t="s">
+      <c r="E8" s="13" t="s">
         <v>188</v>
       </c>
       <c r="F8" s="2" t="s">
@@ -4601,20 +4613,20 @@
         <v>20</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="33" r="9" s="12" spans="1:9">
-      <c r="A9" s="7" t="n">
+    <row customFormat="1" customHeight="1" ht="33" r="9" s="3" spans="1:9">
+      <c r="A9" s="9" t="n">
         <v>7</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="10" t="s">
         <v>174</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="11" t="s">
         <v>10</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="E9" s="15" t="s">
+      <c r="E9" s="16" t="s">
         <v>191</v>
       </c>
       <c r="F9" s="2" t="s">
@@ -4627,20 +4639,20 @@
         <v>20</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="33" r="10" s="12" spans="1:9">
-      <c r="A10" s="7" t="n">
+    <row customFormat="1" customHeight="1" ht="33" r="10" s="3" spans="1:9">
+      <c r="A10" s="9" t="n">
         <v>8</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="10" t="s">
         <v>174</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="11" t="s">
         <v>10</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="E10" s="15" t="s">
+      <c r="E10" s="16" t="s">
         <v>193</v>
       </c>
       <c r="F10" s="2" t="s">
@@ -4653,20 +4665,20 @@
         <v>20</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="33" r="11" s="12" spans="1:9">
-      <c r="A11" s="7" t="n">
+    <row customFormat="1" customHeight="1" ht="33" r="11" s="3" spans="1:9">
+      <c r="A11" s="9" t="n">
         <v>9</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="10" t="s">
         <v>174</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="11" t="s">
         <v>10</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="E11" s="15" t="s">
+      <c r="E11" s="16" t="s">
         <v>195</v>
       </c>
       <c r="F11" s="2" t="s">
@@ -4679,20 +4691,20 @@
         <v>20</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="33" r="12" s="12" spans="1:9">
-      <c r="A12" s="7" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" s="9" t="s">
+    <row customFormat="1" customHeight="1" ht="33" r="12" s="3" spans="1:9">
+      <c r="A12" s="9" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" s="10" t="s">
         <v>174</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="11" t="s">
         <v>10</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="E12" s="12" t="s">
+      <c r="E12" s="3" t="s">
         <v>197</v>
       </c>
       <c r="F12" s="2" t="s">
@@ -4705,20 +4717,20 @@
         <v>20</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="33" r="13" s="12" spans="1:9">
-      <c r="A13" s="7" t="n">
+    <row customFormat="1" customHeight="1" ht="33" r="13" s="3" spans="1:9">
+      <c r="A13" s="9" t="n">
         <v>11</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="10" t="s">
         <v>174</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="11" t="s">
         <v>10</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="E13" s="12" t="s">
+      <c r="E13" s="3" t="s">
         <v>200</v>
       </c>
       <c r="F13" s="2" t="s">
@@ -4731,20 +4743,20 @@
         <v>20</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="33" r="14" s="12" spans="1:9">
-      <c r="A14" s="7" t="n">
+    <row customFormat="1" customHeight="1" ht="33" r="14" s="3" spans="1:9">
+      <c r="A14" s="9" t="n">
         <v>12</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="10" t="s">
         <v>174</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C14" s="11" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="E14" s="12" t="s">
+      <c r="E14" s="3" t="s">
         <v>202</v>
       </c>
       <c r="F14" s="2" t="s">
@@ -4757,20 +4769,20 @@
         <v>20</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="33" r="15" s="12" spans="1:9">
-      <c r="A15" s="7" t="n">
+    <row customFormat="1" customHeight="1" ht="33" r="15" s="3" spans="1:9">
+      <c r="A15" s="9" t="n">
         <v>13</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="10" t="s">
         <v>174</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="C15" s="11" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="E15" s="12" t="s">
+      <c r="E15" s="3" t="s">
         <v>204</v>
       </c>
       <c r="F15" s="2" t="s">
@@ -4783,20 +4795,20 @@
         <v>20</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="33" r="16" s="12" spans="1:9">
-      <c r="A16" s="7" t="n">
+    <row customFormat="1" customHeight="1" ht="33" r="16" s="3" spans="1:9">
+      <c r="A16" s="9" t="n">
         <v>14</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="10" t="s">
         <v>174</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="C16" s="11" t="s">
         <v>10</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="E16" s="12" t="s">
+      <c r="E16" s="3" t="s">
         <v>176</v>
       </c>
       <c r="F16" s="2" t="s">
@@ -4809,20 +4821,20 @@
         <v>20</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="33" r="17" s="12" spans="1:9">
-      <c r="A17" s="7" t="n">
+    <row customFormat="1" customHeight="1" ht="33" r="17" s="3" spans="1:9">
+      <c r="A17" s="9" t="n">
         <v>18</v>
       </c>
-      <c r="B17" s="9" t="s">
+      <c r="B17" s="10" t="s">
         <v>174</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="C17" s="11" t="s">
         <v>10</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="E17" s="12" t="s">
+      <c r="E17" s="3" t="s">
         <v>208</v>
       </c>
       <c r="F17" s="2" t="s">
@@ -4835,20 +4847,20 @@
         <v>20</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="33" r="18" s="12" spans="1:9">
-      <c r="A18" s="7" t="n">
+    <row customFormat="1" customHeight="1" ht="33" r="18" s="3" spans="1:9">
+      <c r="A18" s="9" t="n">
         <v>15</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="B18" s="10" t="s">
         <v>174</v>
       </c>
-      <c r="C18" s="8" t="s">
+      <c r="C18" s="11" t="s">
         <v>10</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="E18" s="12" t="s">
+      <c r="E18" s="3" t="s">
         <v>211</v>
       </c>
       <c r="F18" s="2" t="s">
@@ -4861,20 +4873,20 @@
         <v>20</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="16.5" r="19" s="12" spans="1:9">
-      <c r="A19" s="7" t="n">
+    <row customFormat="1" customHeight="1" ht="16.5" r="19" s="3" spans="1:9">
+      <c r="A19" s="9" t="n">
         <v>16</v>
       </c>
-      <c r="B19" s="9" t="s">
+      <c r="B19" s="10" t="s">
         <v>174</v>
       </c>
-      <c r="C19" s="8" t="s">
+      <c r="C19" s="11" t="s">
         <v>10</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="E19" s="12" t="s">
+      <c r="E19" s="3" t="s">
         <v>214</v>
       </c>
       <c r="F19" s="2" t="s">
@@ -4887,20 +4899,20 @@
         <v>20</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="16.5" r="20" s="12" spans="1:9">
-      <c r="A20" s="7" t="n">
+    <row customFormat="1" customHeight="1" ht="16.5" r="20" s="3" spans="1:9">
+      <c r="A20" s="9" t="n">
         <v>17</v>
       </c>
-      <c r="B20" s="9" t="s">
+      <c r="B20" s="10" t="s">
         <v>174</v>
       </c>
-      <c r="C20" s="8" t="s">
+      <c r="C20" s="11" t="s">
         <v>10</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="E20" s="12" t="s">
+      <c r="E20" s="3" t="s">
         <v>216</v>
       </c>
       <c r="F20" s="2" t="s">
@@ -4924,77 +4936,243 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="0" outlineLevelRow="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="0" outlineLevelRow="7"/>
   <cols>
-    <col customWidth="1" max="2" min="2" style="3" width="10.375"/>
-    <col customWidth="1" max="3" min="3" style="3" width="19.625"/>
-    <col customWidth="1" max="7" min="7" style="3" width="22.375"/>
-    <col customWidth="1" max="8" min="8" style="3" width="37.375"/>
-    <col customWidth="1" max="9" min="9" style="3" width="30"/>
+    <col customWidth="1" max="2" min="2" style="4" width="21"/>
+    <col customWidth="1" max="4" min="4" style="4" width="19.625"/>
+    <col customWidth="1" max="5" min="5" style="4" width="39"/>
+    <col customWidth="1" max="6" min="6" style="5" width="44.875"/>
+    <col customWidth="1" max="7" min="7" style="4" width="24.875"/>
+    <col customWidth="1" max="8" min="8" style="4" width="34.125"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="30" r="1" s="1" spans="1:9">
-      <c r="A1" s="4" t="s">
+    <row customFormat="1" customHeight="1" ht="15" r="1" s="1" spans="1:9">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row customFormat="1" customHeight="1" ht="33" r="2" s="2" spans="1:9">
+      <c r="A2" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="E2" s="13" t="s">
         <v>217</v>
       </c>
-      <c r="C1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="5" t="s">
+      <c r="F2" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="H2" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="I2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row customFormat="1" customHeight="1" ht="66" r="3" s="2" spans="1:9">
+      <c r="A3" s="9" t="n">
         <v>2</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="B3" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="E3" s="13" t="s">
         <v>218</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F3" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="H3" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="I3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row customFormat="1" customHeight="1" ht="33" r="4" s="3" spans="1:9">
+      <c r="A4" s="9" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>176</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="I4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row customFormat="1" customHeight="1" ht="33" r="5" s="3" spans="1:9">
+      <c r="A5" s="9" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="E5" s="13" t="s">
         <v>219</v>
       </c>
-      <c r="G1" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="6" t="s">
+      <c r="F5" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="I5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row customFormat="1" customHeight="1" ht="33" r="6" s="3" spans="1:9">
+      <c r="A6" s="9" t="n">
         <v>5</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="B6" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>221</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="I6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row customFormat="1" customHeight="1" ht="33" r="7" s="2" spans="1:9">
+      <c r="A7" s="9" t="n">
         <v>6</v>
       </c>
-    </row>
-    <row customFormat="1" customHeight="1" ht="99" r="2" s="2" spans="1:9">
-      <c r="A2" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>220</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>221</v>
-      </c>
-      <c r="F2" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="G2" s="10" t="s">
-        <v>222</v>
-      </c>
-      <c r="H2" s="10" t="s">
+      <c r="B7" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="H7" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="I7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="33" r="8" s="4" spans="1:9">
+      <c r="A8" s="9" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" s="10" t="s">
         <v>223</v>
       </c>
-      <c r="I2" s="2" t="s">
-        <v>118</v>
+      <c r="C8" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>225</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="H8" t="s">
+        <v>226</v>
+      </c>
+      <c r="I8" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
